--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormG1G2.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormG1G2.xlsx
@@ -1671,6 +1671,495 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1689,500 +2178,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2222,7 +2222,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="JKRS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98E5C8BC-0BD0-41E9-8FA7-62DC2A6773EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E5C8BC-0BD0-41E9-8FA7-62DC2A6773EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2296,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BA49169-B5CC-4698-BF84-0E109733337A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA49169-B5CC-4698-BF84-0E109733337A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2346,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C23143EB-3B39-4842-958D-E0D24870184C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23143EB-3B39-4842-958D-E0D24870184C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2417,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5953691B-6A2B-4C07-80C0-779AA8DF0E4B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5953691B-6A2B-4C07-80C0-779AA8DF0E4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2461,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F1D6820-0446-4332-9F6B-C2B836E3E766}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1D6820-0446-4332-9F6B-C2B836E3E766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2540,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ECBE155-BC6A-491B-8C9B-95A584E8BED5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECBE155-BC6A-491B-8C9B-95A584E8BED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2584,7 @@
         <xdr:cNvPr id="8" name="Picture 7" descr="JKRS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6289039C-70A4-451E-9781-6EFEF17791D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6289039C-70A4-451E-9781-6EFEF17791D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2653,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6D11811-549B-4935-A72F-0B393799DE94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D11811-549B-4935-A72F-0B393799DE94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,17 +2714,17 @@
       <xdr:rowOff>107757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355696</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171707</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>73121</xdr:rowOff>
+      <xdr:rowOff>117957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2E2871-C9C8-476A-9779-2736198C0F78}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E2871-C9C8-476A-9779-2736198C0F78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,8 +2732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361757" y="27053982"/>
-          <a:ext cx="3451514" cy="1870364"/>
+          <a:off x="361757" y="27349257"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2780,17 +2780,17 @@
       <xdr:rowOff>133734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>365317</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181328</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>99098</xdr:rowOff>
+      <xdr:rowOff>143934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87338735-7A46-4C61-A3F1-97B97AC8BA05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87338735-7A46-4C61-A3F1-97B97AC8BA05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,8 +2798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371378" y="29365959"/>
-          <a:ext cx="3451514" cy="1870364"/>
+          <a:off x="371378" y="29661234"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2846,8 +2846,8 @@
       <xdr:rowOff>159711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>319424</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>12507</xdr:rowOff>
     </xdr:to>
@@ -2856,7 +2856,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C1B44EB-1B6A-4539-AF68-691B17EFB342}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1B44EB-1B6A-4539-AF68-691B17EFB342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,8 +2864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371378" y="31296936"/>
-          <a:ext cx="3405621" cy="233796"/>
+          <a:off x="371378" y="31592211"/>
+          <a:ext cx="3724372" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2920,14 +2920,14 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>206183</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
+      <xdr:rowOff>137200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A03129D8-E5FD-4B6C-BFC6-63DF18288873}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03129D8-E5FD-4B6C-BFC6-63DF18288873}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,8 +2935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4585758" y="29359225"/>
-          <a:ext cx="3716675" cy="1870364"/>
+          <a:off x="4585758" y="29654500"/>
+          <a:ext cx="3716675" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2977,14 +2977,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
       <xdr:row>163</xdr:row>
       <xdr:rowOff>170295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>147204</xdr:colOff>
+      <xdr:colOff>175780</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:to>
@@ -2993,7 +2993,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{517DF727-90B1-4354-BBB7-0543B568BF00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517DF727-90B1-4354-BBB7-0543B568BF00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3001,8 +3001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="31307520"/>
-          <a:ext cx="3442854" cy="233796"/>
+          <a:off x="4619626" y="31602795"/>
+          <a:ext cx="3652404" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3051,20 +3051,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>354060</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>29825</xdr:rowOff>
+      <xdr:rowOff>10775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347999</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>164010</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>185689</xdr:rowOff>
+      <xdr:rowOff>154325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7711CB8F-D332-4AAA-BBC2-5C6A32FF22E0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7711CB8F-D332-4AAA-BBC2-5C6A32FF22E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,8 +3072,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="354060" y="31738550"/>
-          <a:ext cx="3451514" cy="1927514"/>
+          <a:off x="354060" y="32014775"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3123,14 +3123,14 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>189825</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>178955</xdr:rowOff>
+      <xdr:rowOff>166641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8CBA5C1-0327-45A1-994E-62E119BAB980}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CBA5C1-0327-45A1-994E-62E119BAB980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,8 +3138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4569400" y="31731816"/>
-          <a:ext cx="3716675" cy="1927514"/>
+          <a:off x="4569400" y="32027091"/>
+          <a:ext cx="3716675" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3186,8 +3186,8 @@
       <xdr:rowOff>76969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>293448</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>177</xdr:row>
       <xdr:rowOff>120265</xdr:rowOff>
     </xdr:to>
@@ -3196,7 +3196,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35570473-9A1D-41FD-AD63-8D6330032751}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35570473-9A1D-41FD-AD63-8D6330032751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,8 +3204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="345402" y="33747844"/>
-          <a:ext cx="3405621" cy="233796"/>
+          <a:off x="345402" y="34043119"/>
+          <a:ext cx="3731298" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3267,7 +3267,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27598E07-3819-49AB-ACEC-664896D7BA6D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27598E07-3819-49AB-ACEC-664896D7BA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,17 +3328,17 @@
       <xdr:rowOff>116416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138033</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>81780</xdr:rowOff>
+      <xdr:rowOff>126616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4DA963D-E39F-4914-B3D9-D8BC8AC43AD2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DA963D-E39F-4914-B3D9-D8BC8AC43AD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3347,7 +3347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="328083" y="34463566"/>
-          <a:ext cx="3510492" cy="1870364"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,16 +3395,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>214842</xdr:colOff>
+      <xdr:colOff>200475</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>101023</xdr:rowOff>
+      <xdr:rowOff>145859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{740D17B0-B6F0-4D2C-84EC-40D6F9D0C232}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740D17B0-B6F0-4D2C-84EC-40D6F9D0C232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4581525" y="34482809"/>
-          <a:ext cx="3729567" cy="1870364"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3460,8 +3460,8 @@
       <xdr:rowOff>142393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276129</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>189</xdr:row>
       <xdr:rowOff>185689</xdr:rowOff>
     </xdr:to>
@@ -3470,7 +3470,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DECEA42-EB73-4188-900C-C957BFC85811}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DECEA42-EB73-4188-900C-C957BFC85811}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3478,8 +3478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="328083" y="36099268"/>
-          <a:ext cx="3405621" cy="233796"/>
+          <a:off x="328083" y="36394543"/>
+          <a:ext cx="3700992" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3525,13 +3525,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>225133</xdr:colOff>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>188</xdr:row>
       <xdr:rowOff>170295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>147202</xdr:colOff>
+      <xdr:colOff>147201</xdr:colOff>
       <xdr:row>190</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:to>
@@ -3540,7 +3540,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1873FF98-7C73-48C7-ABAF-FE2D48BF153B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1873FF98-7C73-48C7-ABAF-FE2D48BF153B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,8 +3548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4578058" y="36127170"/>
-          <a:ext cx="3665394" cy="233796"/>
+          <a:off x="4638674" y="36422445"/>
+          <a:ext cx="3604777" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3610,7 +3610,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="JKRS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77C71AB6-9400-4DF0-802C-CACAD58E45FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C71AB6-9400-4DF0-802C-CACAD58E45FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3665,72 +3665,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>339628</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>6734</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333567</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>162598</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C70F9B8B-DC62-4910-BCEB-C02FB8463FC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="339628" y="39430709"/>
-          <a:ext cx="3451514" cy="1870364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>339628</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>32711</xdr:rowOff>
     </xdr:from>
@@ -3745,7 +3679,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{560343A2-593F-4A34-8C45-3206BFD385FD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560343A2-593F-4A34-8C45-3206BFD385FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3805,73 +3739,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>201083</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>174433</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A6C23A8-19A7-4EAF-8A40-3F0F3D29EA91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4554008" y="39423975"/>
-          <a:ext cx="3716675" cy="1870364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>201084</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>43295</xdr:rowOff>
     </xdr:from>
@@ -3886,7 +3754,7 @@
         <xdr:cNvPr id="27" name="TextBox 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{162DB110-6631-47AB-B458-FCDA454A4B60}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162DB110-6631-47AB-B458-FCDA454A4B60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3894,8 +3762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4554009" y="41372270"/>
-          <a:ext cx="3657695" cy="233796"/>
+          <a:off x="4600575" y="41667545"/>
+          <a:ext cx="3611129" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3946,22 +3814,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>322310</xdr:colOff>
+      <xdr:colOff>341360</xdr:colOff>
       <xdr:row>218</xdr:row>
       <xdr:rowOff>93325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>316249</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>151310</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>58689</xdr:rowOff>
+      <xdr:rowOff>103525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{734C47DB-B483-4743-849A-E7EBA0C47986}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734C47DB-B483-4743-849A-E7EBA0C47986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,8 +3837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="322310" y="41803300"/>
-          <a:ext cx="3451514" cy="1870364"/>
+          <a:off x="341360" y="42098575"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4012,22 +3880,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>184725</xdr:colOff>
+      <xdr:colOff>232350</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:rowOff>124691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>158075</xdr:colOff>
+      <xdr:colOff>205700</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:rowOff>134891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749D1F13-0EA8-49D0-A703-61F9C1775BBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749D1F13-0EA8-49D0-A703-61F9C1775BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,8 +3903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4537650" y="41796566"/>
-          <a:ext cx="3716675" cy="1870364"/>
+          <a:off x="4585275" y="42129941"/>
+          <a:ext cx="3716675" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4078,172 +3946,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>313652</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>140469</xdr:rowOff>
+      <xdr:colOff>334433</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>261698</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>183765</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6563E686-C36E-4B5F-8EC2-1F8486998255}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="313652" y="43755444"/>
-          <a:ext cx="3405621" cy="233796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>P6 : Barrels</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
-            <a:t> (Culvert Unit (s))</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>184725</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>106794</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>147205</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93A06022-C60B-44C5-910A-C92E52F996A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4537650" y="43718884"/>
-          <a:ext cx="3665394" cy="233796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>P6 : Barrels</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
-            <a:t> (Culvert Unit (s))</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>315383</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>309322</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144383</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>145280</xdr:rowOff>
+      <xdr:rowOff>113916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF064074-5F7B-41E7-8023-8192A5B12A2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF064074-5F7B-41E7-8023-8192A5B12A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4251,8 +3969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="315383" y="44471166"/>
-          <a:ext cx="3451514" cy="1927514"/>
+          <a:off x="334433" y="44452116"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4294,81 +4012,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>15393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>244379</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>58689</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="TextBox 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4329505B-15FA-4562-9616-B92D4E91E04A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="296333" y="46164018"/>
-          <a:ext cx="3405621" cy="233796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>P7: Culvert</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
-            <a:t> Approach (Pavement)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>483310</xdr:colOff>
       <xdr:row>195</xdr:row>
       <xdr:rowOff>64209</xdr:rowOff>
@@ -4384,7 +4027,7 @@
         <xdr:cNvPr id="34" name="Picture 33" descr="JKRS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{786B6B58-5C1B-4809-8F28-347AC262C141}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786B6B58-5C1B-4809-8F28-347AC262C141}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4439,21 +4082,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>339628</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>6734</xdr:rowOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>159134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333567</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149578</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>162598</xdr:rowOff>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF713FFA-8B11-4BFA-93E3-057255BBFC73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF713FFA-8B11-4BFA-93E3-057255BBFC73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4461,8 +4104,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="339628" y="39430709"/>
-          <a:ext cx="3451514" cy="1870364"/>
+          <a:off x="339628" y="39687884"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4509,8 +4152,8 @@
       <xdr:rowOff>32711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>287674</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>217</xdr:row>
       <xdr:rowOff>76007</xdr:rowOff>
     </xdr:to>
@@ -4519,7 +4162,7 @@
         <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E28E7F66-0361-4F38-AB86-32510AB1C119}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28E7F66-0361-4F38-AB86-32510AB1C119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4527,8 +4170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="339628" y="41361686"/>
-          <a:ext cx="3405621" cy="233796"/>
+          <a:off x="339628" y="41656961"/>
+          <a:ext cx="3708497" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4575,22 +4218,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>201083</xdr:colOff>
+      <xdr:colOff>229658</xdr:colOff>
       <xdr:row>206</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>174433</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:colOff>203008</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>10200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37C48D15-0E83-4883-82D3-408EB9441D68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C48D15-0E83-4883-82D3-408EB9441D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4598,8 +4241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4554008" y="39423975"/>
-          <a:ext cx="3716675" cy="1870364"/>
+          <a:off x="4582583" y="39719250"/>
+          <a:ext cx="3716675" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4641,13 +4284,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>201084</xdr:colOff>
+      <xdr:colOff>248709</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>43295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>115454</xdr:colOff>
+      <xdr:colOff>163079</xdr:colOff>
       <xdr:row>217</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
@@ -4656,7 +4299,7 @@
         <xdr:cNvPr id="38" name="TextBox 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{748D3F70-892E-4C69-90CE-AB62A2A17E4A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748D3F70-892E-4C69-90CE-AB62A2A17E4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4664,7 +4307,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4554009" y="41372270"/>
+          <a:off x="4601634" y="41667545"/>
           <a:ext cx="3657695" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4712,145 +4355,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>322310</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>93325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>316249</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>58689</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rectangle 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6057AA5F-85E0-422A-AF82-F9B058FCF052}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="322310" y="41803300"/>
-          <a:ext cx="3451514" cy="1870364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>184725</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>158075</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4887C1D-BDFF-4F33-BD1F-6B5F3181B563}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4537650" y="41796566"/>
-          <a:ext cx="3716675" cy="1870364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>313652</xdr:colOff>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>228</xdr:row>
       <xdr:rowOff>140469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>261698</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
       <xdr:row>229</xdr:row>
       <xdr:rowOff>183765</xdr:rowOff>
     </xdr:to>
@@ -4859,7 +4370,7 @@
         <xdr:cNvPr id="41" name="TextBox 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E27B393-2AF1-4E81-9ED9-4655743149BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E27B393-2AF1-4E81-9ED9-4655743149BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4867,8 +4378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="313652" y="43755444"/>
-          <a:ext cx="3405621" cy="233796"/>
+          <a:off x="352426" y="44050719"/>
+          <a:ext cx="3695700" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4915,22 +4426,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>184725</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:rowOff>170584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>106794</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>147205</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>23380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="TextBox 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF297D50-25EB-488E-B645-D3FE0EB2B2FA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF297D50-25EB-488E-B645-D3FE0EB2B2FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4938,8 +4449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4537650" y="43718884"/>
-          <a:ext cx="3665394" cy="233796"/>
+          <a:off x="4610100" y="44080834"/>
+          <a:ext cx="3629025" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4986,79 +4497,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>290272</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>145280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rectangle 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EB49F9F-EB62-403C-95CA-C5A0D14BCC6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="296333" y="44175891"/>
-          <a:ext cx="3451514" cy="1927514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>241</xdr:row>
       <xdr:rowOff>15393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>244379</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>242</xdr:row>
       <xdr:rowOff>58689</xdr:rowOff>
     </xdr:to>
@@ -5067,7 +4512,7 @@
         <xdr:cNvPr id="44" name="TextBox 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723C1622-CC12-4E75-95C7-582F703E1C0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723C1622-CC12-4E75-95C7-582F703E1C0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5075,8 +4520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="296333" y="46164018"/>
-          <a:ext cx="3405621" cy="233796"/>
+          <a:off x="352425" y="46459293"/>
+          <a:ext cx="3686175" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5123,22 +4568,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>172357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>125476</xdr:colOff>
+      <xdr:colOff>190949</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>137721</xdr:rowOff>
+      <xdr:rowOff>125407</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="Rectangle 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62FB7CE9-6B2E-45E2-BA48-F61721DB21B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FB7CE9-6B2E-45E2-BA48-F61721DB21B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5146,8 +4591,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524375" y="44463607"/>
-          <a:ext cx="3697351" cy="1927514"/>
+          <a:off x="4571999" y="44463607"/>
+          <a:ext cx="3715200" cy="1915200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5189,13 +4634,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>204972</xdr:colOff>
+      <xdr:colOff>252598</xdr:colOff>
       <xdr:row>241</xdr:row>
       <xdr:rowOff>7834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>79582</xdr:colOff>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>242</xdr:row>
       <xdr:rowOff>51130</xdr:rowOff>
     </xdr:to>
@@ -5204,7 +4649,7 @@
         <xdr:cNvPr id="46" name="TextBox 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A21773E2-A75D-43DC-A1D9-1CC2D9E2DA5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21773E2-A75D-43DC-A1D9-1CC2D9E2DA5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5212,8 +4657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4557897" y="46156459"/>
-          <a:ext cx="3617935" cy="233796"/>
+          <a:off x="4605523" y="46451734"/>
+          <a:ext cx="3700278" cy="233796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5559,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5573,95 +5018,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="107" t="s">
+      <c r="A1" s="264"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="212"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
+      <c r="A2" s="266"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="215"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="113" t="s">
+      <c r="A3" s="266"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="115"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="218"/>
     </row>
     <row r="4" spans="1:17" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="116" t="s">
+      <c r="A4" s="266"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="121"/>
+      <c r="A5" s="268"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="130"/>
     </row>
     <row r="6" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -5681,91 +5126,91 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125" t="s">
+      <c r="B7" s="271"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="125"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="126"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="194"/>
       <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="125" t="s">
+      <c r="B8" s="259"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="126"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="194"/>
       <c r="Q8" s="97"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="128" t="s">
+      <c r="B9" s="259"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="128"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="129"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="262"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="262"/>
+      <c r="O9" s="263"/>
       <c r="Q9" s="97"/>
     </row>
     <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128" t="s">
+      <c r="B10" s="271"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="129"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="262"/>
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="263"/>
       <c r="Q10" s="97"/>
     </row>
     <row r="11" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
@@ -5787,36 +5232,36 @@
       <c r="Q11" s="97"/>
     </row>
     <row r="12" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133" t="s">
+      <c r="B12" s="254"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="135"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="258"/>
       <c r="Q12" s="97"/>
     </row>
     <row r="13" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151" t="s">
+      <c r="C13" s="240"/>
+      <c r="D13" s="241" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -5837,11 +5282,11 @@
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="151"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="241"/>
       <c r="E14" s="12" t="s">
         <v>18</v>
       </c>
@@ -5860,11 +5305,11 @@
       <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="152"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="242"/>
       <c r="E15" s="17" t="s">
         <v>20</v>
       </c>
@@ -5880,34 +5325,34 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="161" t="s">
+      <c r="B16" s="248"/>
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="251" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="235"/>
+      <c r="L16" s="235"/>
+      <c r="M16" s="235"/>
+      <c r="N16" s="235"/>
+      <c r="O16" s="236"/>
     </row>
     <row r="17" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="162"/>
+      <c r="A17" s="249"/>
+      <c r="B17" s="250"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="252"/>
       <c r="F17" s="21">
         <v>1</v>
       </c>
@@ -5940,12 +5385,12 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
+      <c r="B18" s="238"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="23" t="s">
         <v>25</v>
       </c>
@@ -5961,12 +5406,12 @@
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
       <c r="E19" s="27" t="s">
         <v>27</v>
       </c>
@@ -5982,10 +5427,10 @@
       <c r="O19" s="30"/>
     </row>
     <row r="20" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
+      <c r="A20" s="223"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
       <c r="E20" s="27" t="s">
         <v>28</v>
       </c>
@@ -6001,10 +5446,10 @@
       <c r="O20" s="30"/>
     </row>
     <row r="21" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
+      <c r="A21" s="225"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="226"/>
       <c r="E21" s="31" t="s">
         <v>29</v>
       </c>
@@ -6041,12 +5486,12 @@
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
       <c r="E23" s="27" t="s">
         <v>27</v>
       </c>
@@ -6062,10 +5507,10 @@
       <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
       <c r="E24" s="27" t="s">
         <v>28</v>
       </c>
@@ -6081,10 +5526,10 @@
       <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
+      <c r="A25" s="225"/>
+      <c r="B25" s="226"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="226"/>
       <c r="E25" s="31" t="s">
         <v>29</v>
       </c>
@@ -6100,12 +5545,12 @@
       <c r="O25" s="34"/>
     </row>
     <row r="26" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
+      <c r="B26" s="228"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="228"/>
       <c r="E26" s="23" t="s">
         <v>25</v>
       </c>
@@ -6121,12 +5566,12 @@
       <c r="O26" s="26"/>
     </row>
     <row r="27" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="143" t="s">
+      <c r="A27" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
       <c r="E27" s="27" t="s">
         <v>27</v>
       </c>
@@ -6142,10 +5587,10 @@
       <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
+      <c r="A28" s="223"/>
+      <c r="B28" s="224"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="27" t="s">
         <v>28</v>
       </c>
@@ -6161,10 +5606,10 @@
       <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
+      <c r="A29" s="225"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="226"/>
       <c r="E29" s="31" t="s">
         <v>29</v>
       </c>
@@ -6201,12 +5646,12 @@
       <c r="O30" s="26"/>
     </row>
     <row r="31" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
+      <c r="B31" s="224"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224"/>
       <c r="E31" s="27" t="s">
         <v>27</v>
       </c>
@@ -6222,10 +5667,10 @@
       <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
+      <c r="A32" s="223"/>
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
       <c r="E32" s="27" t="s">
         <v>28</v>
       </c>
@@ -6241,10 +5686,10 @@
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
+      <c r="A33" s="225"/>
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
       <c r="E33" s="31" t="s">
         <v>29</v>
       </c>
@@ -6260,12 +5705,12 @@
       <c r="O33" s="34"/>
     </row>
     <row r="34" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="228"/>
       <c r="E34" s="23" t="s">
         <v>25</v>
       </c>
@@ -6281,12 +5726,12 @@
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
+      <c r="B35" s="224"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
       <c r="E35" s="27" t="s">
         <v>27</v>
       </c>
@@ -6302,10 +5747,10 @@
       <c r="O35" s="30"/>
     </row>
     <row r="36" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="143"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
+      <c r="A36" s="223"/>
+      <c r="B36" s="224"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="224"/>
       <c r="E36" s="27" t="s">
         <v>28</v>
       </c>
@@ -6321,10 +5766,10 @@
       <c r="O36" s="30"/>
     </row>
     <row r="37" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="145"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
+      <c r="A37" s="225"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
       <c r="E37" s="31" t="s">
         <v>29</v>
       </c>
@@ -6340,12 +5785,12 @@
       <c r="O37" s="34"/>
     </row>
     <row r="38" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="147" t="s">
+      <c r="A38" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="228"/>
+      <c r="D38" s="228"/>
       <c r="E38" s="23" t="s">
         <v>25</v>
       </c>
@@ -6361,12 +5806,12 @@
       <c r="O38" s="26"/>
     </row>
     <row r="39" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
+      <c r="B39" s="224"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
       <c r="E39" s="27" t="s">
         <v>27</v>
       </c>
@@ -6382,10 +5827,10 @@
       <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="143"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
+      <c r="A40" s="223"/>
+      <c r="B40" s="224"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
       <c r="E40" s="27" t="s">
         <v>28</v>
       </c>
@@ -6401,10 +5846,10 @@
       <c r="O40" s="30"/>
     </row>
     <row r="41" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="145"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
+      <c r="D41" s="226"/>
       <c r="E41" s="31" t="s">
         <v>29</v>
       </c>
@@ -6420,12 +5865,12 @@
       <c r="O41" s="34"/>
     </row>
     <row r="42" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="147" t="s">
+      <c r="A42" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="228"/>
       <c r="E42" s="23" t="s">
         <v>25</v>
       </c>
@@ -6441,12 +5886,12 @@
       <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="143" t="s">
+      <c r="A43" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
+      <c r="B43" s="224"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="224"/>
       <c r="E43" s="27" t="s">
         <v>27</v>
       </c>
@@ -6462,10 +5907,10 @@
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="143"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
+      <c r="A44" s="223"/>
+      <c r="B44" s="224"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="224"/>
       <c r="E44" s="27" t="s">
         <v>28</v>
       </c>
@@ -6481,10 +5926,10 @@
       <c r="O44" s="30"/>
     </row>
     <row r="45" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="145"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
+      <c r="A45" s="225"/>
+      <c r="B45" s="226"/>
+      <c r="C45" s="226"/>
+      <c r="D45" s="226"/>
       <c r="E45" s="31" t="s">
         <v>29</v>
       </c>
@@ -6500,12 +5945,12 @@
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="147" t="s">
+      <c r="A46" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
+      <c r="B46" s="228"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="228"/>
       <c r="E46" s="23" t="s">
         <v>25</v>
       </c>
@@ -6521,12 +5966,12 @@
       <c r="O46" s="26"/>
     </row>
     <row r="47" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
+      <c r="B47" s="224"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224"/>
       <c r="E47" s="27" t="s">
         <v>27</v>
       </c>
@@ -6542,10 +5987,10 @@
       <c r="O47" s="30"/>
     </row>
     <row r="48" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="143"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
+      <c r="A48" s="223"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="224"/>
       <c r="E48" s="27" t="s">
         <v>28</v>
       </c>
@@ -6561,10 +6006,10 @@
       <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="145"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
+      <c r="A49" s="225"/>
+      <c r="B49" s="226"/>
+      <c r="C49" s="226"/>
+      <c r="D49" s="226"/>
       <c r="E49" s="31" t="s">
         <v>29</v>
       </c>
@@ -6580,23 +6025,23 @@
       <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="163" t="s">
+      <c r="A50" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="163"/>
-      <c r="J50" s="163"/>
-      <c r="K50" s="163"/>
-      <c r="L50" s="163"/>
-      <c r="M50" s="163"/>
-      <c r="N50" s="163"/>
-      <c r="O50" s="163"/>
+      <c r="B50" s="229"/>
+      <c r="C50" s="229"/>
+      <c r="D50" s="229"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="229"/>
+      <c r="G50" s="229"/>
+      <c r="H50" s="229"/>
+      <c r="I50" s="229"/>
+      <c r="J50" s="229"/>
+      <c r="K50" s="229"/>
+      <c r="L50" s="229"/>
+      <c r="M50" s="229"/>
+      <c r="N50" s="229"/>
+      <c r="O50" s="229"/>
     </row>
     <row r="51" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
@@ -6616,430 +6061,430 @@
       <c r="O51" s="43"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="164" t="s">
+      <c r="A52" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="164"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
-      <c r="O52" s="164"/>
+      <c r="B52" s="230"/>
+      <c r="C52" s="230"/>
+      <c r="D52" s="230"/>
+      <c r="E52" s="230"/>
+      <c r="F52" s="230"/>
+      <c r="G52" s="230"/>
+      <c r="H52" s="230"/>
+      <c r="I52" s="230"/>
+      <c r="J52" s="230"/>
+      <c r="K52" s="230"/>
+      <c r="L52" s="230"/>
+      <c r="M52" s="230"/>
+      <c r="N52" s="230"/>
+      <c r="O52" s="230"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="165" t="s">
+      <c r="A53" s="231" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="166"/>
-      <c r="C53" s="167" t="s">
+      <c r="B53" s="232"/>
+      <c r="C53" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
-      <c r="M53" s="167"/>
-      <c r="N53" s="167"/>
-      <c r="O53" s="168"/>
+      <c r="D53" s="233"/>
+      <c r="E53" s="233"/>
+      <c r="F53" s="233"/>
+      <c r="G53" s="233"/>
+      <c r="H53" s="233"/>
+      <c r="I53" s="233"/>
+      <c r="J53" s="233"/>
+      <c r="K53" s="233"/>
+      <c r="L53" s="233"/>
+      <c r="M53" s="233"/>
+      <c r="N53" s="233"/>
+      <c r="O53" s="234"/>
     </row>
     <row r="54" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="178" t="s">
+      <c r="A54" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="179"/>
-      <c r="C54" s="180" t="s">
+      <c r="B54" s="220"/>
+      <c r="C54" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="180"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="180"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="180"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="180"/>
-      <c r="L54" s="180"/>
-      <c r="M54" s="180"/>
-      <c r="N54" s="180"/>
-      <c r="O54" s="181"/>
+      <c r="D54" s="221"/>
+      <c r="E54" s="221"/>
+      <c r="F54" s="221"/>
+      <c r="G54" s="221"/>
+      <c r="H54" s="221"/>
+      <c r="I54" s="221"/>
+      <c r="J54" s="221"/>
+      <c r="K54" s="221"/>
+      <c r="L54" s="221"/>
+      <c r="M54" s="221"/>
+      <c r="N54" s="221"/>
+      <c r="O54" s="222"/>
     </row>
     <row r="55" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="169"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="173"/>
-      <c r="E55" s="173"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="173"/>
-      <c r="K55" s="173"/>
-      <c r="L55" s="173"/>
-      <c r="M55" s="173"/>
-      <c r="N55" s="173"/>
-      <c r="O55" s="174"/>
+      <c r="A55" s="201"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="205"/>
+      <c r="D55" s="205"/>
+      <c r="E55" s="205"/>
+      <c r="F55" s="205"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="205"/>
+      <c r="I55" s="205"/>
+      <c r="J55" s="205"/>
+      <c r="K55" s="205"/>
+      <c r="L55" s="205"/>
+      <c r="M55" s="205"/>
+      <c r="N55" s="205"/>
+      <c r="O55" s="206"/>
     </row>
     <row r="56" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="169"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="173"/>
-      <c r="D56" s="173"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="173"/>
-      <c r="K56" s="173"/>
-      <c r="L56" s="173"/>
-      <c r="M56" s="173"/>
-      <c r="N56" s="173"/>
-      <c r="O56" s="174"/>
+      <c r="A56" s="201"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="205"/>
+      <c r="D56" s="205"/>
+      <c r="E56" s="205"/>
+      <c r="F56" s="205"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="205"/>
+      <c r="I56" s="205"/>
+      <c r="J56" s="205"/>
+      <c r="K56" s="205"/>
+      <c r="L56" s="205"/>
+      <c r="M56" s="205"/>
+      <c r="N56" s="205"/>
+      <c r="O56" s="206"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="169"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="173"/>
-      <c r="D57" s="173"/>
-      <c r="E57" s="173"/>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="173"/>
-      <c r="K57" s="173"/>
-      <c r="L57" s="173"/>
-      <c r="M57" s="173"/>
-      <c r="N57" s="173"/>
-      <c r="O57" s="174"/>
+      <c r="A57" s="201"/>
+      <c r="B57" s="202"/>
+      <c r="C57" s="205"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="205"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
+      <c r="I57" s="205"/>
+      <c r="J57" s="205"/>
+      <c r="K57" s="205"/>
+      <c r="L57" s="205"/>
+      <c r="M57" s="205"/>
+      <c r="N57" s="205"/>
+      <c r="O57" s="206"/>
     </row>
     <row r="58" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169" t="s">
+      <c r="A58" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="170"/>
-      <c r="C58" s="173" t="s">
+      <c r="B58" s="202"/>
+      <c r="C58" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="173"/>
-      <c r="E58" s="173"/>
-      <c r="F58" s="173"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
-      <c r="I58" s="173"/>
-      <c r="J58" s="173"/>
-      <c r="K58" s="173"/>
-      <c r="L58" s="173"/>
-      <c r="M58" s="173"/>
-      <c r="N58" s="173"/>
-      <c r="O58" s="174"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
+      <c r="I58" s="205"/>
+      <c r="J58" s="205"/>
+      <c r="K58" s="205"/>
+      <c r="L58" s="205"/>
+      <c r="M58" s="205"/>
+      <c r="N58" s="205"/>
+      <c r="O58" s="206"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="169"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="173"/>
-      <c r="D59" s="173"/>
-      <c r="E59" s="173"/>
-      <c r="F59" s="173"/>
-      <c r="G59" s="173"/>
-      <c r="H59" s="173"/>
-      <c r="I59" s="173"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="173"/>
-      <c r="L59" s="173"/>
-      <c r="M59" s="173"/>
-      <c r="N59" s="173"/>
-      <c r="O59" s="174"/>
+      <c r="A59" s="201"/>
+      <c r="B59" s="202"/>
+      <c r="C59" s="205"/>
+      <c r="D59" s="205"/>
+      <c r="E59" s="205"/>
+      <c r="F59" s="205"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="205"/>
+      <c r="I59" s="205"/>
+      <c r="J59" s="205"/>
+      <c r="K59" s="205"/>
+      <c r="L59" s="205"/>
+      <c r="M59" s="205"/>
+      <c r="N59" s="205"/>
+      <c r="O59" s="206"/>
     </row>
     <row r="60" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="169" t="s">
+      <c r="A60" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="170"/>
-      <c r="C60" s="173" t="s">
+      <c r="B60" s="202"/>
+      <c r="C60" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="173"/>
-      <c r="E60" s="173"/>
-      <c r="F60" s="173"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="173"/>
-      <c r="I60" s="173"/>
-      <c r="J60" s="173"/>
-      <c r="K60" s="173"/>
-      <c r="L60" s="173"/>
-      <c r="M60" s="173"/>
-      <c r="N60" s="173"/>
-      <c r="O60" s="174"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="205"/>
+      <c r="F60" s="205"/>
+      <c r="G60" s="205"/>
+      <c r="H60" s="205"/>
+      <c r="I60" s="205"/>
+      <c r="J60" s="205"/>
+      <c r="K60" s="205"/>
+      <c r="L60" s="205"/>
+      <c r="M60" s="205"/>
+      <c r="N60" s="205"/>
+      <c r="O60" s="206"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="169"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="173"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="173"/>
-      <c r="F61" s="173"/>
-      <c r="G61" s="173"/>
-      <c r="H61" s="173"/>
-      <c r="I61" s="173"/>
-      <c r="J61" s="173"/>
-      <c r="K61" s="173"/>
-      <c r="L61" s="173"/>
-      <c r="M61" s="173"/>
-      <c r="N61" s="173"/>
-      <c r="O61" s="174"/>
+      <c r="A61" s="201"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="205"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="205"/>
+      <c r="F61" s="205"/>
+      <c r="G61" s="205"/>
+      <c r="H61" s="205"/>
+      <c r="I61" s="205"/>
+      <c r="J61" s="205"/>
+      <c r="K61" s="205"/>
+      <c r="L61" s="205"/>
+      <c r="M61" s="205"/>
+      <c r="N61" s="205"/>
+      <c r="O61" s="206"/>
     </row>
     <row r="62" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="169" t="s">
+      <c r="A62" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="170"/>
-      <c r="C62" s="173" t="s">
+      <c r="B62" s="202"/>
+      <c r="C62" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="173"/>
-      <c r="E62" s="173"/>
-      <c r="F62" s="173"/>
-      <c r="G62" s="173"/>
-      <c r="H62" s="173"/>
-      <c r="I62" s="173"/>
-      <c r="J62" s="173"/>
-      <c r="K62" s="173"/>
-      <c r="L62" s="173"/>
-      <c r="M62" s="173"/>
-      <c r="N62" s="173"/>
-      <c r="O62" s="174"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="205"/>
+      <c r="F62" s="205"/>
+      <c r="G62" s="205"/>
+      <c r="H62" s="205"/>
+      <c r="I62" s="205"/>
+      <c r="J62" s="205"/>
+      <c r="K62" s="205"/>
+      <c r="L62" s="205"/>
+      <c r="M62" s="205"/>
+      <c r="N62" s="205"/>
+      <c r="O62" s="206"/>
     </row>
     <row r="63" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="171"/>
-      <c r="B63" s="172"/>
-      <c r="C63" s="175"/>
-      <c r="D63" s="175"/>
-      <c r="E63" s="175"/>
-      <c r="F63" s="175"/>
-      <c r="G63" s="175"/>
-      <c r="H63" s="175"/>
-      <c r="I63" s="175"/>
-      <c r="J63" s="175"/>
-      <c r="K63" s="175"/>
-      <c r="L63" s="175"/>
-      <c r="M63" s="175"/>
-      <c r="N63" s="175"/>
-      <c r="O63" s="176"/>
+      <c r="A63" s="203"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="207"/>
+      <c r="D63" s="207"/>
+      <c r="E63" s="207"/>
+      <c r="F63" s="207"/>
+      <c r="G63" s="207"/>
+      <c r="H63" s="207"/>
+      <c r="I63" s="207"/>
+      <c r="J63" s="207"/>
+      <c r="K63" s="207"/>
+      <c r="L63" s="207"/>
+      <c r="M63" s="207"/>
+      <c r="N63" s="207"/>
+      <c r="O63" s="208"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="45"/>
-      <c r="B64" s="177"/>
-      <c r="C64" s="177"/>
-      <c r="D64" s="177"/>
-      <c r="E64" s="177"/>
-      <c r="F64" s="177"/>
-      <c r="G64" s="177"/>
-      <c r="H64" s="177"/>
-      <c r="I64" s="177"/>
-      <c r="J64" s="177"/>
-      <c r="K64" s="177"/>
-      <c r="L64" s="177"/>
-      <c r="M64" s="177"/>
-      <c r="N64" s="177"/>
-      <c r="O64" s="177"/>
+      <c r="B64" s="209"/>
+      <c r="C64" s="209"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="209"/>
+      <c r="F64" s="209"/>
+      <c r="G64" s="209"/>
+      <c r="H64" s="209"/>
+      <c r="I64" s="209"/>
+      <c r="J64" s="209"/>
+      <c r="K64" s="209"/>
+      <c r="L64" s="209"/>
+      <c r="M64" s="209"/>
+      <c r="N64" s="209"/>
+      <c r="O64" s="209"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46"/>
       <c r="B65" s="47"/>
-      <c r="C65" s="107" t="s">
+      <c r="C65" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="108"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="108"/>
-      <c r="L65" s="108"/>
-      <c r="M65" s="108"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="109"/>
+      <c r="D65" s="211"/>
+      <c r="E65" s="211"/>
+      <c r="F65" s="211"/>
+      <c r="G65" s="211"/>
+      <c r="H65" s="211"/>
+      <c r="I65" s="211"/>
+      <c r="J65" s="211"/>
+      <c r="K65" s="211"/>
+      <c r="L65" s="211"/>
+      <c r="M65" s="211"/>
+      <c r="N65" s="211"/>
+      <c r="O65" s="212"/>
     </row>
     <row r="66" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="49"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="111"/>
-      <c r="J66" s="111"/>
-      <c r="K66" s="111"/>
-      <c r="L66" s="111"/>
-      <c r="M66" s="111"/>
-      <c r="N66" s="111"/>
-      <c r="O66" s="112"/>
+      <c r="C66" s="213"/>
+      <c r="D66" s="214"/>
+      <c r="E66" s="214"/>
+      <c r="F66" s="214"/>
+      <c r="G66" s="214"/>
+      <c r="H66" s="214"/>
+      <c r="I66" s="214"/>
+      <c r="J66" s="214"/>
+      <c r="K66" s="214"/>
+      <c r="L66" s="214"/>
+      <c r="M66" s="214"/>
+      <c r="N66" s="214"/>
+      <c r="O66" s="215"/>
     </row>
     <row r="67" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
       <c r="B67" s="49"/>
-      <c r="C67" s="113" t="s">
+      <c r="C67" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="114"/>
-      <c r="L67" s="114"/>
-      <c r="M67" s="114"/>
-      <c r="N67" s="114"/>
-      <c r="O67" s="115"/>
+      <c r="D67" s="217"/>
+      <c r="E67" s="217"/>
+      <c r="F67" s="217"/>
+      <c r="G67" s="217"/>
+      <c r="H67" s="217"/>
+      <c r="I67" s="217"/>
+      <c r="J67" s="217"/>
+      <c r="K67" s="217"/>
+      <c r="L67" s="217"/>
+      <c r="M67" s="217"/>
+      <c r="N67" s="217"/>
+      <c r="O67" s="218"/>
     </row>
     <row r="68" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" s="49"/>
-      <c r="C68" s="116" t="s">
+      <c r="C68" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="117"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
+      <c r="M68" s="126"/>
+      <c r="N68" s="126"/>
+      <c r="O68" s="127"/>
     </row>
     <row r="69" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50"/>
       <c r="B69" s="51"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="120"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="120"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+      <c r="G69" s="129"/>
+      <c r="H69" s="129"/>
+      <c r="I69" s="129"/>
+      <c r="J69" s="129"/>
+      <c r="K69" s="129"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="129"/>
+      <c r="N69" s="129"/>
+      <c r="O69" s="130"/>
     </row>
     <row r="70" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="185" t="s">
+      <c r="A71" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="186"/>
-      <c r="C71" s="187"/>
-      <c r="D71" s="187"/>
-      <c r="E71" s="187"/>
-      <c r="F71" s="187"/>
-      <c r="G71" s="187"/>
-      <c r="H71" s="188" t="s">
+      <c r="B71" s="196"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
+      <c r="F71" s="197"/>
+      <c r="G71" s="197"/>
+      <c r="H71" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="188"/>
-      <c r="J71" s="188"/>
-      <c r="K71" s="189"/>
-      <c r="L71" s="189"/>
-      <c r="M71" s="189"/>
-      <c r="N71" s="189"/>
-      <c r="O71" s="190"/>
+      <c r="I71" s="198"/>
+      <c r="J71" s="198"/>
+      <c r="K71" s="199"/>
+      <c r="L71" s="199"/>
+      <c r="M71" s="199"/>
+      <c r="N71" s="199"/>
+      <c r="O71" s="200"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="97"/>
       <c r="R71" s="97"/>
     </row>
     <row r="72" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="136" t="s">
+      <c r="A72" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="182"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="138"/>
-      <c r="G72" s="138"/>
-      <c r="H72" s="183" t="s">
+      <c r="B72" s="189"/>
+      <c r="C72" s="190"/>
+      <c r="D72" s="190"/>
+      <c r="E72" s="190"/>
+      <c r="F72" s="190"/>
+      <c r="G72" s="190"/>
+      <c r="H72" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="I72" s="183"/>
-      <c r="J72" s="183"/>
-      <c r="K72" s="138"/>
-      <c r="L72" s="138"/>
-      <c r="M72" s="138"/>
-      <c r="N72" s="138"/>
-      <c r="O72" s="184"/>
+      <c r="I72" s="191"/>
+      <c r="J72" s="191"/>
+      <c r="K72" s="190"/>
+      <c r="L72" s="190"/>
+      <c r="M72" s="190"/>
+      <c r="N72" s="190"/>
+      <c r="O72" s="192"/>
       <c r="P72" s="96"/>
       <c r="Q72" s="97"/>
       <c r="R72" s="97"/>
     </row>
     <row r="73" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="136" t="s">
+      <c r="A73" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="182"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="138"/>
-      <c r="F73" s="138"/>
-      <c r="G73" s="138"/>
-      <c r="H73" s="183" t="s">
+      <c r="B73" s="189"/>
+      <c r="C73" s="190"/>
+      <c r="D73" s="190"/>
+      <c r="E73" s="190"/>
+      <c r="F73" s="190"/>
+      <c r="G73" s="190"/>
+      <c r="H73" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="I73" s="183"/>
-      <c r="J73" s="183"/>
-      <c r="K73" s="138"/>
-      <c r="L73" s="138"/>
-      <c r="M73" s="138"/>
-      <c r="N73" s="138"/>
-      <c r="O73" s="184"/>
+      <c r="I73" s="191"/>
+      <c r="J73" s="191"/>
+      <c r="K73" s="190"/>
+      <c r="L73" s="190"/>
+      <c r="M73" s="190"/>
+      <c r="N73" s="190"/>
+      <c r="O73" s="192"/>
       <c r="P73" s="96"/>
       <c r="Q73" s="97"/>
       <c r="R73" s="97"/>
     </row>
     <row r="74" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="136" t="s">
+      <c r="A74" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="182"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="124"/>
-      <c r="K74" s="124"/>
-      <c r="L74" s="124"/>
-      <c r="M74" s="124"/>
-      <c r="N74" s="124"/>
-      <c r="O74" s="126"/>
+      <c r="B74" s="189"/>
+      <c r="C74" s="193"/>
+      <c r="D74" s="193"/>
+      <c r="E74" s="193"/>
+      <c r="F74" s="193"/>
+      <c r="G74" s="193"/>
+      <c r="H74" s="193"/>
+      <c r="I74" s="193"/>
+      <c r="J74" s="193"/>
+      <c r="K74" s="193"/>
+      <c r="L74" s="193"/>
+      <c r="M74" s="193"/>
+      <c r="N74" s="193"/>
+      <c r="O74" s="194"/>
       <c r="P74" s="96"/>
       <c r="Q74" s="97"/>
       <c r="R74" s="97"/>
@@ -7085,1162 +6530,1162 @@
       <c r="R76" s="97"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="204" t="s">
+      <c r="A77" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="204"/>
-      <c r="C77" s="204"/>
-      <c r="D77" s="204"/>
-      <c r="E77" s="204"/>
-      <c r="F77" s="204"/>
-      <c r="G77" s="204"/>
-      <c r="H77" s="204"/>
-      <c r="I77" s="204"/>
-      <c r="J77" s="204"/>
-      <c r="K77" s="204"/>
-      <c r="L77" s="204"/>
-      <c r="M77" s="204"/>
-      <c r="N77" s="204"/>
-      <c r="O77" s="204"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
+      <c r="G77" s="171"/>
+      <c r="H77" s="171"/>
+      <c r="I77" s="171"/>
+      <c r="J77" s="171"/>
+      <c r="K77" s="171"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="171"/>
+      <c r="O77" s="171"/>
       <c r="P77" s="96"/>
       <c r="Q77" s="97"/>
       <c r="R77" s="97"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="191" t="s">
+      <c r="A79" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="191"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="191"/>
-      <c r="E79" s="191"/>
-      <c r="F79" s="191"/>
-      <c r="G79" s="191"/>
-      <c r="H79" s="191"/>
-      <c r="I79" s="191"/>
-      <c r="J79" s="191"/>
-      <c r="K79" s="191"/>
-      <c r="L79" s="191"/>
-      <c r="M79" s="191"/>
-      <c r="N79" s="191"/>
-      <c r="O79" s="191"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="170"/>
+      <c r="J79" s="170"/>
+      <c r="K79" s="170"/>
+      <c r="L79" s="170"/>
+      <c r="M79" s="170"/>
+      <c r="N79" s="170"/>
+      <c r="O79" s="170"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="205" t="s">
+      <c r="A80" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="206"/>
-      <c r="C80" s="206"/>
-      <c r="D80" s="206"/>
-      <c r="E80" s="206"/>
-      <c r="F80" s="206"/>
-      <c r="G80" s="207"/>
-      <c r="H80" s="205" t="s">
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="174"/>
+      <c r="H80" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="I80" s="206"/>
-      <c r="J80" s="206"/>
-      <c r="K80" s="206"/>
-      <c r="L80" s="206"/>
-      <c r="M80" s="206"/>
-      <c r="N80" s="206"/>
-      <c r="O80" s="208"/>
+      <c r="I80" s="173"/>
+      <c r="J80" s="173"/>
+      <c r="K80" s="173"/>
+      <c r="L80" s="173"/>
+      <c r="M80" s="173"/>
+      <c r="N80" s="173"/>
+      <c r="O80" s="175"/>
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="209"/>
-      <c r="B81" s="210"/>
-      <c r="C81" s="210"/>
-      <c r="D81" s="210"/>
-      <c r="E81" s="210"/>
-      <c r="F81" s="210"/>
-      <c r="G81" s="211"/>
-      <c r="H81" s="209"/>
-      <c r="I81" s="210"/>
-      <c r="J81" s="210"/>
-      <c r="K81" s="210"/>
-      <c r="L81" s="210"/>
-      <c r="M81" s="210"/>
-      <c r="N81" s="210"/>
-      <c r="O81" s="218"/>
+      <c r="A81" s="176"/>
+      <c r="B81" s="177"/>
+      <c r="C81" s="177"/>
+      <c r="D81" s="177"/>
+      <c r="E81" s="177"/>
+      <c r="F81" s="177"/>
+      <c r="G81" s="178"/>
+      <c r="H81" s="176"/>
+      <c r="I81" s="177"/>
+      <c r="J81" s="177"/>
+      <c r="K81" s="177"/>
+      <c r="L81" s="177"/>
+      <c r="M81" s="177"/>
+      <c r="N81" s="177"/>
+      <c r="O81" s="185"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="212"/>
-      <c r="B82" s="213"/>
-      <c r="C82" s="213"/>
-      <c r="D82" s="213"/>
-      <c r="E82" s="213"/>
-      <c r="F82" s="213"/>
-      <c r="G82" s="214"/>
-      <c r="H82" s="212"/>
-      <c r="I82" s="213"/>
-      <c r="J82" s="213"/>
-      <c r="K82" s="213"/>
-      <c r="L82" s="213"/>
-      <c r="M82" s="213"/>
-      <c r="N82" s="213"/>
-      <c r="O82" s="219"/>
+      <c r="A82" s="179"/>
+      <c r="B82" s="180"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="180"/>
+      <c r="F82" s="180"/>
+      <c r="G82" s="181"/>
+      <c r="H82" s="179"/>
+      <c r="I82" s="180"/>
+      <c r="J82" s="180"/>
+      <c r="K82" s="180"/>
+      <c r="L82" s="180"/>
+      <c r="M82" s="180"/>
+      <c r="N82" s="180"/>
+      <c r="O82" s="186"/>
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="212"/>
-      <c r="B83" s="213"/>
-      <c r="C83" s="213"/>
-      <c r="D83" s="213"/>
-      <c r="E83" s="213"/>
-      <c r="F83" s="213"/>
-      <c r="G83" s="214"/>
-      <c r="H83" s="212"/>
-      <c r="I83" s="213"/>
-      <c r="J83" s="213"/>
-      <c r="K83" s="213"/>
-      <c r="L83" s="213"/>
-      <c r="M83" s="213"/>
-      <c r="N83" s="213"/>
-      <c r="O83" s="219"/>
+      <c r="A83" s="179"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
+      <c r="F83" s="180"/>
+      <c r="G83" s="181"/>
+      <c r="H83" s="179"/>
+      <c r="I83" s="180"/>
+      <c r="J83" s="180"/>
+      <c r="K83" s="180"/>
+      <c r="L83" s="180"/>
+      <c r="M83" s="180"/>
+      <c r="N83" s="180"/>
+      <c r="O83" s="186"/>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="212"/>
-      <c r="B84" s="213"/>
-      <c r="C84" s="213"/>
-      <c r="D84" s="213"/>
-      <c r="E84" s="213"/>
-      <c r="F84" s="213"/>
-      <c r="G84" s="214"/>
-      <c r="H84" s="212"/>
-      <c r="I84" s="213"/>
-      <c r="J84" s="213"/>
-      <c r="K84" s="213"/>
-      <c r="L84" s="213"/>
-      <c r="M84" s="213"/>
-      <c r="N84" s="213"/>
-      <c r="O84" s="219"/>
+      <c r="A84" s="179"/>
+      <c r="B84" s="180"/>
+      <c r="C84" s="180"/>
+      <c r="D84" s="180"/>
+      <c r="E84" s="180"/>
+      <c r="F84" s="180"/>
+      <c r="G84" s="181"/>
+      <c r="H84" s="179"/>
+      <c r="I84" s="180"/>
+      <c r="J84" s="180"/>
+      <c r="K84" s="180"/>
+      <c r="L84" s="180"/>
+      <c r="M84" s="180"/>
+      <c r="N84" s="180"/>
+      <c r="O84" s="186"/>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="212"/>
-      <c r="B85" s="213"/>
-      <c r="C85" s="213"/>
-      <c r="D85" s="213"/>
-      <c r="E85" s="213"/>
-      <c r="F85" s="213"/>
-      <c r="G85" s="214"/>
-      <c r="H85" s="212"/>
-      <c r="I85" s="213"/>
-      <c r="J85" s="213"/>
-      <c r="K85" s="213"/>
-      <c r="L85" s="213"/>
-      <c r="M85" s="213"/>
-      <c r="N85" s="213"/>
-      <c r="O85" s="219"/>
+      <c r="A85" s="179"/>
+      <c r="B85" s="180"/>
+      <c r="C85" s="180"/>
+      <c r="D85" s="180"/>
+      <c r="E85" s="180"/>
+      <c r="F85" s="180"/>
+      <c r="G85" s="181"/>
+      <c r="H85" s="179"/>
+      <c r="I85" s="180"/>
+      <c r="J85" s="180"/>
+      <c r="K85" s="180"/>
+      <c r="L85" s="180"/>
+      <c r="M85" s="180"/>
+      <c r="N85" s="180"/>
+      <c r="O85" s="186"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="212"/>
-      <c r="B86" s="213"/>
-      <c r="C86" s="213"/>
-      <c r="D86" s="213"/>
-      <c r="E86" s="213"/>
-      <c r="F86" s="213"/>
-      <c r="G86" s="214"/>
-      <c r="H86" s="212"/>
-      <c r="I86" s="213"/>
-      <c r="J86" s="213"/>
-      <c r="K86" s="213"/>
-      <c r="L86" s="213"/>
-      <c r="M86" s="213"/>
-      <c r="N86" s="213"/>
-      <c r="O86" s="219"/>
+      <c r="A86" s="179"/>
+      <c r="B86" s="180"/>
+      <c r="C86" s="180"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="180"/>
+      <c r="F86" s="180"/>
+      <c r="G86" s="181"/>
+      <c r="H86" s="179"/>
+      <c r="I86" s="180"/>
+      <c r="J86" s="180"/>
+      <c r="K86" s="180"/>
+      <c r="L86" s="180"/>
+      <c r="M86" s="180"/>
+      <c r="N86" s="180"/>
+      <c r="O86" s="186"/>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="212"/>
-      <c r="B87" s="213"/>
-      <c r="C87" s="213"/>
-      <c r="D87" s="213"/>
-      <c r="E87" s="213"/>
-      <c r="F87" s="213"/>
-      <c r="G87" s="214"/>
-      <c r="H87" s="212"/>
-      <c r="I87" s="213"/>
-      <c r="J87" s="213"/>
-      <c r="K87" s="213"/>
-      <c r="L87" s="213"/>
-      <c r="M87" s="213"/>
-      <c r="N87" s="213"/>
-      <c r="O87" s="219"/>
+      <c r="A87" s="179"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
+      <c r="F87" s="180"/>
+      <c r="G87" s="181"/>
+      <c r="H87" s="179"/>
+      <c r="I87" s="180"/>
+      <c r="J87" s="180"/>
+      <c r="K87" s="180"/>
+      <c r="L87" s="180"/>
+      <c r="M87" s="180"/>
+      <c r="N87" s="180"/>
+      <c r="O87" s="186"/>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="212"/>
-      <c r="B88" s="213"/>
-      <c r="C88" s="213"/>
-      <c r="D88" s="213"/>
-      <c r="E88" s="213"/>
-      <c r="F88" s="213"/>
-      <c r="G88" s="214"/>
-      <c r="H88" s="212"/>
-      <c r="I88" s="213"/>
-      <c r="J88" s="213"/>
-      <c r="K88" s="213"/>
-      <c r="L88" s="213"/>
-      <c r="M88" s="213"/>
-      <c r="N88" s="213"/>
-      <c r="O88" s="219"/>
+      <c r="A88" s="179"/>
+      <c r="B88" s="180"/>
+      <c r="C88" s="180"/>
+      <c r="D88" s="180"/>
+      <c r="E88" s="180"/>
+      <c r="F88" s="180"/>
+      <c r="G88" s="181"/>
+      <c r="H88" s="179"/>
+      <c r="I88" s="180"/>
+      <c r="J88" s="180"/>
+      <c r="K88" s="180"/>
+      <c r="L88" s="180"/>
+      <c r="M88" s="180"/>
+      <c r="N88" s="180"/>
+      <c r="O88" s="186"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="212"/>
-      <c r="B89" s="213"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="213"/>
-      <c r="F89" s="213"/>
-      <c r="G89" s="214"/>
-      <c r="H89" s="212"/>
-      <c r="I89" s="213"/>
-      <c r="J89" s="213"/>
-      <c r="K89" s="213"/>
-      <c r="L89" s="213"/>
-      <c r="M89" s="213"/>
-      <c r="N89" s="213"/>
-      <c r="O89" s="219"/>
+      <c r="A89" s="179"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="180"/>
+      <c r="D89" s="180"/>
+      <c r="E89" s="180"/>
+      <c r="F89" s="180"/>
+      <c r="G89" s="181"/>
+      <c r="H89" s="179"/>
+      <c r="I89" s="180"/>
+      <c r="J89" s="180"/>
+      <c r="K89" s="180"/>
+      <c r="L89" s="180"/>
+      <c r="M89" s="180"/>
+      <c r="N89" s="180"/>
+      <c r="O89" s="186"/>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="212"/>
-      <c r="B90" s="213"/>
-      <c r="C90" s="213"/>
-      <c r="D90" s="213"/>
-      <c r="E90" s="213"/>
-      <c r="F90" s="213"/>
-      <c r="G90" s="214"/>
-      <c r="H90" s="212"/>
-      <c r="I90" s="213"/>
-      <c r="J90" s="213"/>
-      <c r="K90" s="213"/>
-      <c r="L90" s="213"/>
-      <c r="M90" s="213"/>
-      <c r="N90" s="213"/>
-      <c r="O90" s="219"/>
+      <c r="A90" s="179"/>
+      <c r="B90" s="180"/>
+      <c r="C90" s="180"/>
+      <c r="D90" s="180"/>
+      <c r="E90" s="180"/>
+      <c r="F90" s="180"/>
+      <c r="G90" s="181"/>
+      <c r="H90" s="179"/>
+      <c r="I90" s="180"/>
+      <c r="J90" s="180"/>
+      <c r="K90" s="180"/>
+      <c r="L90" s="180"/>
+      <c r="M90" s="180"/>
+      <c r="N90" s="180"/>
+      <c r="O90" s="186"/>
     </row>
     <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="212"/>
-      <c r="B91" s="213"/>
-      <c r="C91" s="213"/>
-      <c r="D91" s="213"/>
-      <c r="E91" s="213"/>
-      <c r="F91" s="213"/>
-      <c r="G91" s="214"/>
-      <c r="H91" s="212"/>
-      <c r="I91" s="213"/>
-      <c r="J91" s="213"/>
-      <c r="K91" s="213"/>
-      <c r="L91" s="213"/>
-      <c r="M91" s="213"/>
-      <c r="N91" s="213"/>
-      <c r="O91" s="219"/>
+      <c r="A91" s="179"/>
+      <c r="B91" s="180"/>
+      <c r="C91" s="180"/>
+      <c r="D91" s="180"/>
+      <c r="E91" s="180"/>
+      <c r="F91" s="180"/>
+      <c r="G91" s="181"/>
+      <c r="H91" s="179"/>
+      <c r="I91" s="180"/>
+      <c r="J91" s="180"/>
+      <c r="K91" s="180"/>
+      <c r="L91" s="180"/>
+      <c r="M91" s="180"/>
+      <c r="N91" s="180"/>
+      <c r="O91" s="186"/>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="215"/>
-      <c r="B92" s="216"/>
-      <c r="C92" s="216"/>
-      <c r="D92" s="216"/>
-      <c r="E92" s="216"/>
-      <c r="F92" s="216"/>
-      <c r="G92" s="217"/>
-      <c r="H92" s="215"/>
-      <c r="I92" s="216"/>
-      <c r="J92" s="216"/>
-      <c r="K92" s="216"/>
-      <c r="L92" s="216"/>
-      <c r="M92" s="216"/>
-      <c r="N92" s="216"/>
-      <c r="O92" s="220"/>
+      <c r="A92" s="182"/>
+      <c r="B92" s="183"/>
+      <c r="C92" s="183"/>
+      <c r="D92" s="183"/>
+      <c r="E92" s="183"/>
+      <c r="F92" s="183"/>
+      <c r="G92" s="184"/>
+      <c r="H92" s="182"/>
+      <c r="I92" s="183"/>
+      <c r="J92" s="183"/>
+      <c r="K92" s="183"/>
+      <c r="L92" s="183"/>
+      <c r="M92" s="183"/>
+      <c r="N92" s="183"/>
+      <c r="O92" s="187"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="191" t="s">
+      <c r="A93" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="191"/>
-      <c r="C93" s="191"/>
-      <c r="D93" s="191"/>
-      <c r="E93" s="191"/>
-      <c r="F93" s="191"/>
-      <c r="G93" s="191"/>
-      <c r="H93" s="191"/>
-      <c r="I93" s="191"/>
-      <c r="J93" s="191"/>
-      <c r="K93" s="191"/>
-      <c r="L93" s="191"/>
-      <c r="M93" s="191"/>
-      <c r="N93" s="191"/>
-      <c r="O93" s="191"/>
+      <c r="B93" s="170"/>
+      <c r="C93" s="170"/>
+      <c r="D93" s="170"/>
+      <c r="E93" s="170"/>
+      <c r="F93" s="170"/>
+      <c r="G93" s="170"/>
+      <c r="H93" s="170"/>
+      <c r="I93" s="170"/>
+      <c r="J93" s="170"/>
+      <c r="K93" s="170"/>
+      <c r="L93" s="170"/>
+      <c r="M93" s="170"/>
+      <c r="N93" s="170"/>
+      <c r="O93" s="170"/>
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="192" t="s">
+      <c r="A94" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="193"/>
-      <c r="C94" s="193"/>
-      <c r="D94" s="193"/>
-      <c r="E94" s="193"/>
-      <c r="F94" s="193"/>
-      <c r="G94" s="193"/>
-      <c r="H94" s="192" t="s">
+      <c r="B94" s="159"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="159"/>
+      <c r="E94" s="159"/>
+      <c r="F94" s="159"/>
+      <c r="G94" s="159"/>
+      <c r="H94" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="I94" s="193"/>
-      <c r="J94" s="193"/>
-      <c r="K94" s="193"/>
-      <c r="L94" s="193"/>
-      <c r="M94" s="193"/>
-      <c r="N94" s="193"/>
-      <c r="O94" s="194"/>
+      <c r="I94" s="159"/>
+      <c r="J94" s="159"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="159"/>
+      <c r="M94" s="159"/>
+      <c r="N94" s="159"/>
+      <c r="O94" s="160"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="195"/>
-      <c r="B95" s="196"/>
-      <c r="C95" s="196"/>
-      <c r="D95" s="196"/>
-      <c r="E95" s="196"/>
-      <c r="F95" s="196"/>
-      <c r="G95" s="197"/>
-      <c r="H95" s="195"/>
-      <c r="I95" s="196"/>
-      <c r="J95" s="196"/>
-      <c r="K95" s="196"/>
-      <c r="L95" s="196"/>
-      <c r="M95" s="196"/>
-      <c r="N95" s="196"/>
-      <c r="O95" s="197"/>
+      <c r="A95" s="161"/>
+      <c r="B95" s="162"/>
+      <c r="C95" s="162"/>
+      <c r="D95" s="162"/>
+      <c r="E95" s="162"/>
+      <c r="F95" s="162"/>
+      <c r="G95" s="163"/>
+      <c r="H95" s="161"/>
+      <c r="I95" s="162"/>
+      <c r="J95" s="162"/>
+      <c r="K95" s="162"/>
+      <c r="L95" s="162"/>
+      <c r="M95" s="162"/>
+      <c r="N95" s="162"/>
+      <c r="O95" s="163"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="198"/>
-      <c r="B96" s="199"/>
-      <c r="C96" s="199"/>
-      <c r="D96" s="199"/>
-      <c r="E96" s="199"/>
-      <c r="F96" s="199"/>
-      <c r="G96" s="200"/>
-      <c r="H96" s="198"/>
-      <c r="I96" s="199"/>
-      <c r="J96" s="199"/>
-      <c r="K96" s="199"/>
-      <c r="L96" s="199"/>
-      <c r="M96" s="199"/>
-      <c r="N96" s="199"/>
-      <c r="O96" s="200"/>
+      <c r="A96" s="164"/>
+      <c r="B96" s="165"/>
+      <c r="C96" s="165"/>
+      <c r="D96" s="165"/>
+      <c r="E96" s="165"/>
+      <c r="F96" s="165"/>
+      <c r="G96" s="166"/>
+      <c r="H96" s="164"/>
+      <c r="I96" s="165"/>
+      <c r="J96" s="165"/>
+      <c r="K96" s="165"/>
+      <c r="L96" s="165"/>
+      <c r="M96" s="165"/>
+      <c r="N96" s="165"/>
+      <c r="O96" s="166"/>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="198"/>
-      <c r="B97" s="199"/>
-      <c r="C97" s="199"/>
-      <c r="D97" s="199"/>
-      <c r="E97" s="199"/>
-      <c r="F97" s="199"/>
-      <c r="G97" s="200"/>
-      <c r="H97" s="198"/>
-      <c r="I97" s="199"/>
-      <c r="J97" s="199"/>
-      <c r="K97" s="199"/>
-      <c r="L97" s="199"/>
-      <c r="M97" s="199"/>
-      <c r="N97" s="199"/>
-      <c r="O97" s="200"/>
+      <c r="A97" s="164"/>
+      <c r="B97" s="165"/>
+      <c r="C97" s="165"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="165"/>
+      <c r="F97" s="165"/>
+      <c r="G97" s="166"/>
+      <c r="H97" s="164"/>
+      <c r="I97" s="165"/>
+      <c r="J97" s="165"/>
+      <c r="K97" s="165"/>
+      <c r="L97" s="165"/>
+      <c r="M97" s="165"/>
+      <c r="N97" s="165"/>
+      <c r="O97" s="166"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="198"/>
-      <c r="B98" s="199"/>
-      <c r="C98" s="199"/>
-      <c r="D98" s="199"/>
-      <c r="E98" s="199"/>
-      <c r="F98" s="199"/>
-      <c r="G98" s="200"/>
-      <c r="H98" s="198"/>
-      <c r="I98" s="199"/>
-      <c r="J98" s="199"/>
-      <c r="K98" s="199"/>
-      <c r="L98" s="199"/>
-      <c r="M98" s="199"/>
-      <c r="N98" s="199"/>
-      <c r="O98" s="200"/>
+      <c r="A98" s="164"/>
+      <c r="B98" s="165"/>
+      <c r="C98" s="165"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="165"/>
+      <c r="F98" s="165"/>
+      <c r="G98" s="166"/>
+      <c r="H98" s="164"/>
+      <c r="I98" s="165"/>
+      <c r="J98" s="165"/>
+      <c r="K98" s="165"/>
+      <c r="L98" s="165"/>
+      <c r="M98" s="165"/>
+      <c r="N98" s="165"/>
+      <c r="O98" s="166"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="198"/>
-      <c r="B99" s="199"/>
-      <c r="C99" s="199"/>
-      <c r="D99" s="199"/>
-      <c r="E99" s="199"/>
-      <c r="F99" s="199"/>
-      <c r="G99" s="200"/>
-      <c r="H99" s="198"/>
-      <c r="I99" s="199"/>
-      <c r="J99" s="199"/>
-      <c r="K99" s="199"/>
-      <c r="L99" s="199"/>
-      <c r="M99" s="199"/>
-      <c r="N99" s="199"/>
-      <c r="O99" s="200"/>
+      <c r="A99" s="164"/>
+      <c r="B99" s="165"/>
+      <c r="C99" s="165"/>
+      <c r="D99" s="165"/>
+      <c r="E99" s="165"/>
+      <c r="F99" s="165"/>
+      <c r="G99" s="166"/>
+      <c r="H99" s="164"/>
+      <c r="I99" s="165"/>
+      <c r="J99" s="165"/>
+      <c r="K99" s="165"/>
+      <c r="L99" s="165"/>
+      <c r="M99" s="165"/>
+      <c r="N99" s="165"/>
+      <c r="O99" s="166"/>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="198"/>
-      <c r="B100" s="199"/>
-      <c r="C100" s="199"/>
-      <c r="D100" s="199"/>
-      <c r="E100" s="199"/>
-      <c r="F100" s="199"/>
-      <c r="G100" s="200"/>
-      <c r="H100" s="198"/>
-      <c r="I100" s="199"/>
-      <c r="J100" s="199"/>
-      <c r="K100" s="199"/>
-      <c r="L100" s="199"/>
-      <c r="M100" s="199"/>
-      <c r="N100" s="199"/>
-      <c r="O100" s="200"/>
+      <c r="A100" s="164"/>
+      <c r="B100" s="165"/>
+      <c r="C100" s="165"/>
+      <c r="D100" s="165"/>
+      <c r="E100" s="165"/>
+      <c r="F100" s="165"/>
+      <c r="G100" s="166"/>
+      <c r="H100" s="164"/>
+      <c r="I100" s="165"/>
+      <c r="J100" s="165"/>
+      <c r="K100" s="165"/>
+      <c r="L100" s="165"/>
+      <c r="M100" s="165"/>
+      <c r="N100" s="165"/>
+      <c r="O100" s="166"/>
     </row>
     <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="198"/>
-      <c r="B101" s="199"/>
-      <c r="C101" s="199"/>
-      <c r="D101" s="199"/>
-      <c r="E101" s="199"/>
-      <c r="F101" s="199"/>
-      <c r="G101" s="200"/>
-      <c r="H101" s="198"/>
-      <c r="I101" s="199"/>
-      <c r="J101" s="199"/>
-      <c r="K101" s="199"/>
-      <c r="L101" s="199"/>
-      <c r="M101" s="199"/>
-      <c r="N101" s="199"/>
-      <c r="O101" s="200"/>
+      <c r="A101" s="164"/>
+      <c r="B101" s="165"/>
+      <c r="C101" s="165"/>
+      <c r="D101" s="165"/>
+      <c r="E101" s="165"/>
+      <c r="F101" s="165"/>
+      <c r="G101" s="166"/>
+      <c r="H101" s="164"/>
+      <c r="I101" s="165"/>
+      <c r="J101" s="165"/>
+      <c r="K101" s="165"/>
+      <c r="L101" s="165"/>
+      <c r="M101" s="165"/>
+      <c r="N101" s="165"/>
+      <c r="O101" s="166"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="198"/>
-      <c r="B102" s="199"/>
-      <c r="C102" s="199"/>
-      <c r="D102" s="199"/>
-      <c r="E102" s="199"/>
-      <c r="F102" s="199"/>
-      <c r="G102" s="200"/>
-      <c r="H102" s="198"/>
-      <c r="I102" s="199"/>
-      <c r="J102" s="199"/>
-      <c r="K102" s="199"/>
-      <c r="L102" s="199"/>
-      <c r="M102" s="199"/>
-      <c r="N102" s="199"/>
-      <c r="O102" s="200"/>
+      <c r="A102" s="164"/>
+      <c r="B102" s="165"/>
+      <c r="C102" s="165"/>
+      <c r="D102" s="165"/>
+      <c r="E102" s="165"/>
+      <c r="F102" s="165"/>
+      <c r="G102" s="166"/>
+      <c r="H102" s="164"/>
+      <c r="I102" s="165"/>
+      <c r="J102" s="165"/>
+      <c r="K102" s="165"/>
+      <c r="L102" s="165"/>
+      <c r="M102" s="165"/>
+      <c r="N102" s="165"/>
+      <c r="O102" s="166"/>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="198"/>
-      <c r="B103" s="199"/>
-      <c r="C103" s="199"/>
-      <c r="D103" s="199"/>
-      <c r="E103" s="199"/>
-      <c r="F103" s="199"/>
-      <c r="G103" s="200"/>
-      <c r="H103" s="198"/>
-      <c r="I103" s="199"/>
-      <c r="J103" s="199"/>
-      <c r="K103" s="199"/>
-      <c r="L103" s="199"/>
-      <c r="M103" s="199"/>
-      <c r="N103" s="199"/>
-      <c r="O103" s="200"/>
+      <c r="A103" s="164"/>
+      <c r="B103" s="165"/>
+      <c r="C103" s="165"/>
+      <c r="D103" s="165"/>
+      <c r="E103" s="165"/>
+      <c r="F103" s="165"/>
+      <c r="G103" s="166"/>
+      <c r="H103" s="164"/>
+      <c r="I103" s="165"/>
+      <c r="J103" s="165"/>
+      <c r="K103" s="165"/>
+      <c r="L103" s="165"/>
+      <c r="M103" s="165"/>
+      <c r="N103" s="165"/>
+      <c r="O103" s="166"/>
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="198"/>
-      <c r="B104" s="199"/>
-      <c r="C104" s="199"/>
-      <c r="D104" s="199"/>
-      <c r="E104" s="199"/>
-      <c r="F104" s="199"/>
-      <c r="G104" s="200"/>
-      <c r="H104" s="198"/>
-      <c r="I104" s="199"/>
-      <c r="J104" s="199"/>
-      <c r="K104" s="199"/>
-      <c r="L104" s="199"/>
-      <c r="M104" s="199"/>
-      <c r="N104" s="199"/>
-      <c r="O104" s="200"/>
+      <c r="A104" s="164"/>
+      <c r="B104" s="165"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="166"/>
+      <c r="H104" s="164"/>
+      <c r="I104" s="165"/>
+      <c r="J104" s="165"/>
+      <c r="K104" s="165"/>
+      <c r="L104" s="165"/>
+      <c r="M104" s="165"/>
+      <c r="N104" s="165"/>
+      <c r="O104" s="166"/>
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="198"/>
-      <c r="B105" s="199"/>
-      <c r="C105" s="199"/>
-      <c r="D105" s="199"/>
-      <c r="E105" s="199"/>
-      <c r="F105" s="199"/>
-      <c r="G105" s="200"/>
-      <c r="H105" s="198"/>
-      <c r="I105" s="199"/>
-      <c r="J105" s="199"/>
-      <c r="K105" s="199"/>
-      <c r="L105" s="199"/>
-      <c r="M105" s="199"/>
-      <c r="N105" s="199"/>
-      <c r="O105" s="200"/>
+      <c r="A105" s="164"/>
+      <c r="B105" s="165"/>
+      <c r="C105" s="165"/>
+      <c r="D105" s="165"/>
+      <c r="E105" s="165"/>
+      <c r="F105" s="165"/>
+      <c r="G105" s="166"/>
+      <c r="H105" s="164"/>
+      <c r="I105" s="165"/>
+      <c r="J105" s="165"/>
+      <c r="K105" s="165"/>
+      <c r="L105" s="165"/>
+      <c r="M105" s="165"/>
+      <c r="N105" s="165"/>
+      <c r="O105" s="166"/>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="201"/>
-      <c r="B106" s="202"/>
-      <c r="C106" s="202"/>
-      <c r="D106" s="202"/>
-      <c r="E106" s="202"/>
-      <c r="F106" s="202"/>
-      <c r="G106" s="203"/>
-      <c r="H106" s="201"/>
-      <c r="I106" s="202"/>
-      <c r="J106" s="202"/>
-      <c r="K106" s="202"/>
-      <c r="L106" s="202"/>
-      <c r="M106" s="202"/>
-      <c r="N106" s="202"/>
-      <c r="O106" s="203"/>
+      <c r="A106" s="167"/>
+      <c r="B106" s="168"/>
+      <c r="C106" s="168"/>
+      <c r="D106" s="168"/>
+      <c r="E106" s="168"/>
+      <c r="F106" s="168"/>
+      <c r="G106" s="169"/>
+      <c r="H106" s="167"/>
+      <c r="I106" s="168"/>
+      <c r="J106" s="168"/>
+      <c r="K106" s="168"/>
+      <c r="L106" s="168"/>
+      <c r="M106" s="168"/>
+      <c r="N106" s="168"/>
+      <c r="O106" s="169"/>
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="191" t="s">
+      <c r="A107" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="B107" s="191"/>
-      <c r="C107" s="191"/>
-      <c r="D107" s="191"/>
-      <c r="E107" s="191"/>
-      <c r="F107" s="191"/>
-      <c r="G107" s="191"/>
-      <c r="H107" s="191"/>
-      <c r="I107" s="191"/>
-      <c r="J107" s="191"/>
-      <c r="K107" s="191"/>
-      <c r="L107" s="191"/>
-      <c r="M107" s="191"/>
-      <c r="N107" s="191"/>
-      <c r="O107" s="191"/>
+      <c r="B107" s="170"/>
+      <c r="C107" s="170"/>
+      <c r="D107" s="170"/>
+      <c r="E107" s="170"/>
+      <c r="F107" s="170"/>
+      <c r="G107" s="170"/>
+      <c r="H107" s="170"/>
+      <c r="I107" s="170"/>
+      <c r="J107" s="170"/>
+      <c r="K107" s="170"/>
+      <c r="L107" s="170"/>
+      <c r="M107" s="170"/>
+      <c r="N107" s="170"/>
+      <c r="O107" s="170"/>
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="192" t="s">
+      <c r="A108" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="B108" s="193"/>
-      <c r="C108" s="193"/>
-      <c r="D108" s="193"/>
-      <c r="E108" s="193"/>
-      <c r="F108" s="193"/>
-      <c r="G108" s="193"/>
-      <c r="H108" s="192" t="s">
+      <c r="B108" s="159"/>
+      <c r="C108" s="159"/>
+      <c r="D108" s="159"/>
+      <c r="E108" s="159"/>
+      <c r="F108" s="159"/>
+      <c r="G108" s="159"/>
+      <c r="H108" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="I108" s="193"/>
-      <c r="J108" s="193"/>
-      <c r="K108" s="193"/>
-      <c r="L108" s="193"/>
-      <c r="M108" s="193"/>
-      <c r="N108" s="193"/>
-      <c r="O108" s="194"/>
+      <c r="I108" s="159"/>
+      <c r="J108" s="159"/>
+      <c r="K108" s="159"/>
+      <c r="L108" s="159"/>
+      <c r="M108" s="159"/>
+      <c r="N108" s="159"/>
+      <c r="O108" s="160"/>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="195"/>
-      <c r="B109" s="196"/>
-      <c r="C109" s="196"/>
-      <c r="D109" s="196"/>
-      <c r="E109" s="196"/>
-      <c r="F109" s="196"/>
-      <c r="G109" s="197"/>
-      <c r="H109" s="195"/>
-      <c r="I109" s="196"/>
-      <c r="J109" s="196"/>
-      <c r="K109" s="196"/>
-      <c r="L109" s="196"/>
-      <c r="M109" s="196"/>
-      <c r="N109" s="196"/>
-      <c r="O109" s="197"/>
+      <c r="A109" s="161"/>
+      <c r="B109" s="162"/>
+      <c r="C109" s="162"/>
+      <c r="D109" s="162"/>
+      <c r="E109" s="162"/>
+      <c r="F109" s="162"/>
+      <c r="G109" s="163"/>
+      <c r="H109" s="161"/>
+      <c r="I109" s="162"/>
+      <c r="J109" s="162"/>
+      <c r="K109" s="162"/>
+      <c r="L109" s="162"/>
+      <c r="M109" s="162"/>
+      <c r="N109" s="162"/>
+      <c r="O109" s="163"/>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="198"/>
-      <c r="B110" s="199"/>
-      <c r="C110" s="199"/>
-      <c r="D110" s="199"/>
-      <c r="E110" s="199"/>
-      <c r="F110" s="199"/>
-      <c r="G110" s="200"/>
-      <c r="H110" s="198"/>
-      <c r="I110" s="199"/>
-      <c r="J110" s="199"/>
-      <c r="K110" s="199"/>
-      <c r="L110" s="199"/>
-      <c r="M110" s="199"/>
-      <c r="N110" s="199"/>
-      <c r="O110" s="200"/>
+      <c r="A110" s="164"/>
+      <c r="B110" s="165"/>
+      <c r="C110" s="165"/>
+      <c r="D110" s="165"/>
+      <c r="E110" s="165"/>
+      <c r="F110" s="165"/>
+      <c r="G110" s="166"/>
+      <c r="H110" s="164"/>
+      <c r="I110" s="165"/>
+      <c r="J110" s="165"/>
+      <c r="K110" s="165"/>
+      <c r="L110" s="165"/>
+      <c r="M110" s="165"/>
+      <c r="N110" s="165"/>
+      <c r="O110" s="166"/>
     </row>
     <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="198"/>
-      <c r="B111" s="199"/>
-      <c r="C111" s="199"/>
-      <c r="D111" s="199"/>
-      <c r="E111" s="199"/>
-      <c r="F111" s="199"/>
-      <c r="G111" s="200"/>
-      <c r="H111" s="198"/>
-      <c r="I111" s="199"/>
-      <c r="J111" s="199"/>
-      <c r="K111" s="199"/>
-      <c r="L111" s="199"/>
-      <c r="M111" s="199"/>
-      <c r="N111" s="199"/>
-      <c r="O111" s="200"/>
+      <c r="A111" s="164"/>
+      <c r="B111" s="165"/>
+      <c r="C111" s="165"/>
+      <c r="D111" s="165"/>
+      <c r="E111" s="165"/>
+      <c r="F111" s="165"/>
+      <c r="G111" s="166"/>
+      <c r="H111" s="164"/>
+      <c r="I111" s="165"/>
+      <c r="J111" s="165"/>
+      <c r="K111" s="165"/>
+      <c r="L111" s="165"/>
+      <c r="M111" s="165"/>
+      <c r="N111" s="165"/>
+      <c r="O111" s="166"/>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="198"/>
-      <c r="B112" s="199"/>
-      <c r="C112" s="199"/>
-      <c r="D112" s="199"/>
-      <c r="E112" s="199"/>
-      <c r="F112" s="199"/>
-      <c r="G112" s="200"/>
-      <c r="H112" s="198"/>
-      <c r="I112" s="199"/>
-      <c r="J112" s="199"/>
-      <c r="K112" s="199"/>
-      <c r="L112" s="199"/>
-      <c r="M112" s="199"/>
-      <c r="N112" s="199"/>
-      <c r="O112" s="200"/>
+      <c r="A112" s="164"/>
+      <c r="B112" s="165"/>
+      <c r="C112" s="165"/>
+      <c r="D112" s="165"/>
+      <c r="E112" s="165"/>
+      <c r="F112" s="165"/>
+      <c r="G112" s="166"/>
+      <c r="H112" s="164"/>
+      <c r="I112" s="165"/>
+      <c r="J112" s="165"/>
+      <c r="K112" s="165"/>
+      <c r="L112" s="165"/>
+      <c r="M112" s="165"/>
+      <c r="N112" s="165"/>
+      <c r="O112" s="166"/>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="198"/>
-      <c r="B113" s="199"/>
-      <c r="C113" s="199"/>
-      <c r="D113" s="199"/>
-      <c r="E113" s="199"/>
-      <c r="F113" s="199"/>
-      <c r="G113" s="200"/>
-      <c r="H113" s="198"/>
-      <c r="I113" s="199"/>
-      <c r="J113" s="199"/>
-      <c r="K113" s="199"/>
-      <c r="L113" s="199"/>
-      <c r="M113" s="199"/>
-      <c r="N113" s="199"/>
-      <c r="O113" s="200"/>
+      <c r="A113" s="164"/>
+      <c r="B113" s="165"/>
+      <c r="C113" s="165"/>
+      <c r="D113" s="165"/>
+      <c r="E113" s="165"/>
+      <c r="F113" s="165"/>
+      <c r="G113" s="166"/>
+      <c r="H113" s="164"/>
+      <c r="I113" s="165"/>
+      <c r="J113" s="165"/>
+      <c r="K113" s="165"/>
+      <c r="L113" s="165"/>
+      <c r="M113" s="165"/>
+      <c r="N113" s="165"/>
+      <c r="O113" s="166"/>
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="198"/>
-      <c r="B114" s="199"/>
-      <c r="C114" s="199"/>
-      <c r="D114" s="199"/>
-      <c r="E114" s="199"/>
-      <c r="F114" s="199"/>
-      <c r="G114" s="200"/>
-      <c r="H114" s="198"/>
-      <c r="I114" s="199"/>
-      <c r="J114" s="199"/>
-      <c r="K114" s="199"/>
-      <c r="L114" s="199"/>
-      <c r="M114" s="199"/>
-      <c r="N114" s="199"/>
-      <c r="O114" s="200"/>
+      <c r="A114" s="164"/>
+      <c r="B114" s="165"/>
+      <c r="C114" s="165"/>
+      <c r="D114" s="165"/>
+      <c r="E114" s="165"/>
+      <c r="F114" s="165"/>
+      <c r="G114" s="166"/>
+      <c r="H114" s="164"/>
+      <c r="I114" s="165"/>
+      <c r="J114" s="165"/>
+      <c r="K114" s="165"/>
+      <c r="L114" s="165"/>
+      <c r="M114" s="165"/>
+      <c r="N114" s="165"/>
+      <c r="O114" s="166"/>
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="198"/>
-      <c r="B115" s="199"/>
-      <c r="C115" s="199"/>
-      <c r="D115" s="199"/>
-      <c r="E115" s="199"/>
-      <c r="F115" s="199"/>
-      <c r="G115" s="200"/>
-      <c r="H115" s="198"/>
-      <c r="I115" s="199"/>
-      <c r="J115" s="199"/>
-      <c r="K115" s="199"/>
-      <c r="L115" s="199"/>
-      <c r="M115" s="199"/>
-      <c r="N115" s="199"/>
-      <c r="O115" s="200"/>
+      <c r="A115" s="164"/>
+      <c r="B115" s="165"/>
+      <c r="C115" s="165"/>
+      <c r="D115" s="165"/>
+      <c r="E115" s="165"/>
+      <c r="F115" s="165"/>
+      <c r="G115" s="166"/>
+      <c r="H115" s="164"/>
+      <c r="I115" s="165"/>
+      <c r="J115" s="165"/>
+      <c r="K115" s="165"/>
+      <c r="L115" s="165"/>
+      <c r="M115" s="165"/>
+      <c r="N115" s="165"/>
+      <c r="O115" s="166"/>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="198"/>
-      <c r="B116" s="199"/>
-      <c r="C116" s="199"/>
-      <c r="D116" s="199"/>
-      <c r="E116" s="199"/>
-      <c r="F116" s="199"/>
-      <c r="G116" s="200"/>
-      <c r="H116" s="198"/>
-      <c r="I116" s="199"/>
-      <c r="J116" s="199"/>
-      <c r="K116" s="199"/>
-      <c r="L116" s="199"/>
-      <c r="M116" s="199"/>
-      <c r="N116" s="199"/>
-      <c r="O116" s="200"/>
+      <c r="A116" s="164"/>
+      <c r="B116" s="165"/>
+      <c r="C116" s="165"/>
+      <c r="D116" s="165"/>
+      <c r="E116" s="165"/>
+      <c r="F116" s="165"/>
+      <c r="G116" s="166"/>
+      <c r="H116" s="164"/>
+      <c r="I116" s="165"/>
+      <c r="J116" s="165"/>
+      <c r="K116" s="165"/>
+      <c r="L116" s="165"/>
+      <c r="M116" s="165"/>
+      <c r="N116" s="165"/>
+      <c r="O116" s="166"/>
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="198"/>
-      <c r="B117" s="199"/>
-      <c r="C117" s="199"/>
-      <c r="D117" s="199"/>
-      <c r="E117" s="199"/>
-      <c r="F117" s="199"/>
-      <c r="G117" s="200"/>
-      <c r="H117" s="198"/>
-      <c r="I117" s="199"/>
-      <c r="J117" s="199"/>
-      <c r="K117" s="199"/>
-      <c r="L117" s="199"/>
-      <c r="M117" s="199"/>
-      <c r="N117" s="199"/>
-      <c r="O117" s="200"/>
+      <c r="A117" s="164"/>
+      <c r="B117" s="165"/>
+      <c r="C117" s="165"/>
+      <c r="D117" s="165"/>
+      <c r="E117" s="165"/>
+      <c r="F117" s="165"/>
+      <c r="G117" s="166"/>
+      <c r="H117" s="164"/>
+      <c r="I117" s="165"/>
+      <c r="J117" s="165"/>
+      <c r="K117" s="165"/>
+      <c r="L117" s="165"/>
+      <c r="M117" s="165"/>
+      <c r="N117" s="165"/>
+      <c r="O117" s="166"/>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="198"/>
-      <c r="B118" s="199"/>
-      <c r="C118" s="199"/>
-      <c r="D118" s="199"/>
-      <c r="E118" s="199"/>
-      <c r="F118" s="199"/>
-      <c r="G118" s="200"/>
-      <c r="H118" s="198"/>
-      <c r="I118" s="199"/>
-      <c r="J118" s="199"/>
-      <c r="K118" s="199"/>
-      <c r="L118" s="199"/>
-      <c r="M118" s="199"/>
-      <c r="N118" s="199"/>
-      <c r="O118" s="200"/>
+      <c r="A118" s="164"/>
+      <c r="B118" s="165"/>
+      <c r="C118" s="165"/>
+      <c r="D118" s="165"/>
+      <c r="E118" s="165"/>
+      <c r="F118" s="165"/>
+      <c r="G118" s="166"/>
+      <c r="H118" s="164"/>
+      <c r="I118" s="165"/>
+      <c r="J118" s="165"/>
+      <c r="K118" s="165"/>
+      <c r="L118" s="165"/>
+      <c r="M118" s="165"/>
+      <c r="N118" s="165"/>
+      <c r="O118" s="166"/>
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="198"/>
-      <c r="B119" s="199"/>
-      <c r="C119" s="199"/>
-      <c r="D119" s="199"/>
-      <c r="E119" s="199"/>
-      <c r="F119" s="199"/>
-      <c r="G119" s="200"/>
-      <c r="H119" s="198"/>
-      <c r="I119" s="199"/>
-      <c r="J119" s="199"/>
-      <c r="K119" s="199"/>
-      <c r="L119" s="199"/>
-      <c r="M119" s="199"/>
-      <c r="N119" s="199"/>
-      <c r="O119" s="200"/>
+      <c r="A119" s="164"/>
+      <c r="B119" s="165"/>
+      <c r="C119" s="165"/>
+      <c r="D119" s="165"/>
+      <c r="E119" s="165"/>
+      <c r="F119" s="165"/>
+      <c r="G119" s="166"/>
+      <c r="H119" s="164"/>
+      <c r="I119" s="165"/>
+      <c r="J119" s="165"/>
+      <c r="K119" s="165"/>
+      <c r="L119" s="165"/>
+      <c r="M119" s="165"/>
+      <c r="N119" s="165"/>
+      <c r="O119" s="166"/>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="198"/>
-      <c r="B120" s="199"/>
-      <c r="C120" s="199"/>
-      <c r="D120" s="199"/>
-      <c r="E120" s="199"/>
-      <c r="F120" s="199"/>
-      <c r="G120" s="200"/>
-      <c r="H120" s="198"/>
-      <c r="I120" s="199"/>
-      <c r="J120" s="199"/>
-      <c r="K120" s="199"/>
-      <c r="L120" s="199"/>
-      <c r="M120" s="199"/>
-      <c r="N120" s="199"/>
-      <c r="O120" s="200"/>
+      <c r="A120" s="164"/>
+      <c r="B120" s="165"/>
+      <c r="C120" s="165"/>
+      <c r="D120" s="165"/>
+      <c r="E120" s="165"/>
+      <c r="F120" s="165"/>
+      <c r="G120" s="166"/>
+      <c r="H120" s="164"/>
+      <c r="I120" s="165"/>
+      <c r="J120" s="165"/>
+      <c r="K120" s="165"/>
+      <c r="L120" s="165"/>
+      <c r="M120" s="165"/>
+      <c r="N120" s="165"/>
+      <c r="O120" s="166"/>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="201"/>
-      <c r="B121" s="202"/>
-      <c r="C121" s="202"/>
-      <c r="D121" s="202"/>
-      <c r="E121" s="202"/>
-      <c r="F121" s="202"/>
-      <c r="G121" s="203"/>
-      <c r="H121" s="201"/>
-      <c r="I121" s="202"/>
-      <c r="J121" s="202"/>
-      <c r="K121" s="202"/>
-      <c r="L121" s="202"/>
-      <c r="M121" s="202"/>
-      <c r="N121" s="202"/>
-      <c r="O121" s="203"/>
+      <c r="A121" s="167"/>
+      <c r="B121" s="168"/>
+      <c r="C121" s="168"/>
+      <c r="D121" s="168"/>
+      <c r="E121" s="168"/>
+      <c r="F121" s="168"/>
+      <c r="G121" s="169"/>
+      <c r="H121" s="167"/>
+      <c r="I121" s="168"/>
+      <c r="J121" s="168"/>
+      <c r="K121" s="168"/>
+      <c r="L121" s="168"/>
+      <c r="M121" s="168"/>
+      <c r="N121" s="168"/>
+      <c r="O121" s="169"/>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="192" t="s">
+      <c r="A122" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="B122" s="193"/>
-      <c r="C122" s="193"/>
-      <c r="D122" s="193"/>
-      <c r="E122" s="193"/>
-      <c r="F122" s="193"/>
-      <c r="G122" s="194"/>
-      <c r="H122" s="192" t="s">
+      <c r="B122" s="159"/>
+      <c r="C122" s="159"/>
+      <c r="D122" s="159"/>
+      <c r="E122" s="159"/>
+      <c r="F122" s="159"/>
+      <c r="G122" s="160"/>
+      <c r="H122" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="I122" s="193"/>
-      <c r="J122" s="193"/>
-      <c r="K122" s="193"/>
-      <c r="L122" s="193"/>
-      <c r="M122" s="193"/>
-      <c r="N122" s="193"/>
-      <c r="O122" s="194"/>
+      <c r="I122" s="159"/>
+      <c r="J122" s="159"/>
+      <c r="K122" s="159"/>
+      <c r="L122" s="159"/>
+      <c r="M122" s="159"/>
+      <c r="N122" s="159"/>
+      <c r="O122" s="160"/>
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="221" t="s">
+      <c r="A123" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B123" s="222"/>
-      <c r="C123" s="222"/>
-      <c r="D123" s="222"/>
-      <c r="E123" s="222"/>
-      <c r="F123" s="222"/>
-      <c r="G123" s="223"/>
-      <c r="H123" s="221" t="s">
+      <c r="B123" s="150"/>
+      <c r="C123" s="150"/>
+      <c r="D123" s="150"/>
+      <c r="E123" s="150"/>
+      <c r="F123" s="150"/>
+      <c r="G123" s="151"/>
+      <c r="H123" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="I123" s="222"/>
-      <c r="J123" s="222"/>
-      <c r="K123" s="222"/>
-      <c r="L123" s="222"/>
-      <c r="M123" s="222"/>
-      <c r="N123" s="222"/>
-      <c r="O123" s="223"/>
+      <c r="I123" s="150"/>
+      <c r="J123" s="150"/>
+      <c r="K123" s="150"/>
+      <c r="L123" s="150"/>
+      <c r="M123" s="150"/>
+      <c r="N123" s="150"/>
+      <c r="O123" s="151"/>
     </row>
     <row r="124" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="221"/>
-      <c r="B124" s="222"/>
-      <c r="C124" s="222"/>
-      <c r="D124" s="222"/>
-      <c r="E124" s="222"/>
-      <c r="F124" s="222"/>
-      <c r="G124" s="223"/>
-      <c r="H124" s="221"/>
-      <c r="I124" s="222"/>
-      <c r="J124" s="222"/>
-      <c r="K124" s="222"/>
-      <c r="L124" s="222"/>
-      <c r="M124" s="222"/>
-      <c r="N124" s="222"/>
-      <c r="O124" s="223"/>
+      <c r="A124" s="149"/>
+      <c r="B124" s="150"/>
+      <c r="C124" s="150"/>
+      <c r="D124" s="150"/>
+      <c r="E124" s="150"/>
+      <c r="F124" s="150"/>
+      <c r="G124" s="151"/>
+      <c r="H124" s="149"/>
+      <c r="I124" s="150"/>
+      <c r="J124" s="150"/>
+      <c r="K124" s="150"/>
+      <c r="L124" s="150"/>
+      <c r="M124" s="150"/>
+      <c r="N124" s="150"/>
+      <c r="O124" s="151"/>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="224" t="s">
+      <c r="A125" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="B125" s="225"/>
-      <c r="C125" s="225"/>
-      <c r="D125" s="225"/>
-      <c r="E125" s="225"/>
-      <c r="F125" s="225"/>
-      <c r="G125" s="226"/>
-      <c r="H125" s="224" t="s">
+      <c r="B125" s="153"/>
+      <c r="C125" s="153"/>
+      <c r="D125" s="153"/>
+      <c r="E125" s="153"/>
+      <c r="F125" s="153"/>
+      <c r="G125" s="154"/>
+      <c r="H125" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="I125" s="227"/>
-      <c r="J125" s="227"/>
-      <c r="K125" s="228"/>
-      <c r="L125" s="228"/>
-      <c r="M125" s="228"/>
-      <c r="N125" s="228"/>
-      <c r="O125" s="229"/>
+      <c r="I125" s="155"/>
+      <c r="J125" s="155"/>
+      <c r="K125" s="156"/>
+      <c r="L125" s="156"/>
+      <c r="M125" s="156"/>
+      <c r="N125" s="156"/>
+      <c r="O125" s="157"/>
     </row>
     <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="224"/>
-      <c r="B126" s="225"/>
-      <c r="C126" s="225"/>
-      <c r="D126" s="225"/>
-      <c r="E126" s="225"/>
-      <c r="F126" s="225"/>
-      <c r="G126" s="226"/>
-      <c r="H126" s="224"/>
-      <c r="I126" s="227"/>
-      <c r="J126" s="227"/>
-      <c r="K126" s="228"/>
-      <c r="L126" s="228"/>
-      <c r="M126" s="228"/>
-      <c r="N126" s="228"/>
-      <c r="O126" s="229"/>
+      <c r="A126" s="152"/>
+      <c r="B126" s="153"/>
+      <c r="C126" s="153"/>
+      <c r="D126" s="153"/>
+      <c r="E126" s="153"/>
+      <c r="F126" s="153"/>
+      <c r="G126" s="154"/>
+      <c r="H126" s="152"/>
+      <c r="I126" s="155"/>
+      <c r="J126" s="155"/>
+      <c r="K126" s="156"/>
+      <c r="L126" s="156"/>
+      <c r="M126" s="156"/>
+      <c r="N126" s="156"/>
+      <c r="O126" s="157"/>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B127" s="241"/>
-      <c r="C127" s="241"/>
-      <c r="D127" s="241"/>
-      <c r="E127" s="241"/>
-      <c r="F127" s="241"/>
-      <c r="G127" s="242"/>
-      <c r="H127" s="243" t="s">
+      <c r="B127" s="143"/>
+      <c r="C127" s="143"/>
+      <c r="D127" s="143"/>
+      <c r="E127" s="143"/>
+      <c r="F127" s="143"/>
+      <c r="G127" s="144"/>
+      <c r="H127" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="I127" s="244"/>
-      <c r="J127" s="245"/>
-      <c r="K127" s="245"/>
-      <c r="L127" s="245"/>
-      <c r="M127" s="245"/>
-      <c r="N127" s="245"/>
-      <c r="O127" s="246"/>
+      <c r="I127" s="146"/>
+      <c r="J127" s="147"/>
+      <c r="K127" s="147"/>
+      <c r="L127" s="147"/>
+      <c r="M127" s="147"/>
+      <c r="N127" s="147"/>
+      <c r="O127" s="148"/>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B128" s="241"/>
-      <c r="C128" s="241"/>
-      <c r="D128" s="241"/>
-      <c r="E128" s="241"/>
-      <c r="F128" s="241"/>
-      <c r="G128" s="242"/>
-      <c r="H128" s="243" t="s">
+      <c r="B128" s="143"/>
+      <c r="C128" s="143"/>
+      <c r="D128" s="143"/>
+      <c r="E128" s="143"/>
+      <c r="F128" s="143"/>
+      <c r="G128" s="144"/>
+      <c r="H128" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="I128" s="244"/>
-      <c r="J128" s="245"/>
-      <c r="K128" s="245"/>
-      <c r="L128" s="245"/>
-      <c r="M128" s="245"/>
-      <c r="N128" s="245"/>
-      <c r="O128" s="246"/>
+      <c r="I128" s="146"/>
+      <c r="J128" s="147"/>
+      <c r="K128" s="147"/>
+      <c r="L128" s="147"/>
+      <c r="M128" s="147"/>
+      <c r="N128" s="147"/>
+      <c r="O128" s="148"/>
     </row>
     <row r="129" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B129" s="230" t="s">
+      <c r="B129" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C129" s="230"/>
-      <c r="D129" s="230"/>
-      <c r="E129" s="231" t="s">
+      <c r="C129" s="137"/>
+      <c r="D129" s="137"/>
+      <c r="E129" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="F129" s="231"/>
-      <c r="G129" s="232"/>
-      <c r="H129" s="233" t="s">
+      <c r="F129" s="138"/>
+      <c r="G129" s="139"/>
+      <c r="H129" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="I129" s="234"/>
-      <c r="J129" s="230" t="s">
+      <c r="I129" s="141"/>
+      <c r="J129" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="K129" s="230"/>
-      <c r="L129" s="230"/>
-      <c r="M129" s="230"/>
-      <c r="N129" s="230"/>
-      <c r="O129" s="235"/>
+      <c r="K129" s="137"/>
+      <c r="L129" s="137"/>
+      <c r="M129" s="137"/>
+      <c r="N129" s="137"/>
+      <c r="O129" s="142"/>
     </row>
     <row r="130" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="236" t="s">
+      <c r="A130" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="B130" s="237"/>
-      <c r="C130" s="237"/>
-      <c r="D130" s="237"/>
-      <c r="E130" s="237"/>
-      <c r="F130" s="237"/>
-      <c r="G130" s="237"/>
-      <c r="H130" s="237"/>
-      <c r="I130" s="237"/>
-      <c r="J130" s="237"/>
-      <c r="K130" s="237"/>
-      <c r="L130" s="237"/>
-      <c r="M130" s="238"/>
-      <c r="N130" s="239"/>
-      <c r="O130" s="240"/>
+      <c r="B130" s="106"/>
+      <c r="C130" s="106"/>
+      <c r="D130" s="106"/>
+      <c r="E130" s="106"/>
+      <c r="F130" s="106"/>
+      <c r="G130" s="106"/>
+      <c r="H130" s="106"/>
+      <c r="I130" s="106"/>
+      <c r="J130" s="106"/>
+      <c r="K130" s="106"/>
+      <c r="L130" s="106"/>
+      <c r="M130" s="107"/>
+      <c r="N130" s="108"/>
+      <c r="O130" s="109"/>
     </row>
     <row r="131" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="236" t="s">
+      <c r="A131" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B131" s="237"/>
-      <c r="C131" s="237"/>
-      <c r="D131" s="237"/>
-      <c r="E131" s="237"/>
-      <c r="F131" s="237"/>
-      <c r="G131" s="237"/>
-      <c r="H131" s="237"/>
-      <c r="I131" s="237"/>
-      <c r="J131" s="237"/>
-      <c r="K131" s="237"/>
-      <c r="L131" s="237"/>
-      <c r="M131" s="238"/>
-      <c r="N131" s="239"/>
-      <c r="O131" s="240"/>
+      <c r="B131" s="106"/>
+      <c r="C131" s="106"/>
+      <c r="D131" s="106"/>
+      <c r="E131" s="106"/>
+      <c r="F131" s="106"/>
+      <c r="G131" s="106"/>
+      <c r="H131" s="106"/>
+      <c r="I131" s="106"/>
+      <c r="J131" s="106"/>
+      <c r="K131" s="106"/>
+      <c r="L131" s="106"/>
+      <c r="M131" s="107"/>
+      <c r="N131" s="108"/>
+      <c r="O131" s="109"/>
     </row>
     <row r="132" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="46"/>
       <c r="B132" s="47"/>
-      <c r="C132" s="253" t="s">
+      <c r="C132" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D132" s="254"/>
-      <c r="E132" s="254"/>
-      <c r="F132" s="254"/>
-      <c r="G132" s="254"/>
-      <c r="H132" s="254"/>
-      <c r="I132" s="254"/>
-      <c r="J132" s="254"/>
-      <c r="K132" s="254"/>
-      <c r="L132" s="254"/>
-      <c r="M132" s="254"/>
-      <c r="N132" s="254"/>
-      <c r="O132" s="254"/>
-      <c r="P132" s="254"/>
-      <c r="Q132" s="255"/>
+      <c r="D132" s="120"/>
+      <c r="E132" s="120"/>
+      <c r="F132" s="120"/>
+      <c r="G132" s="120"/>
+      <c r="H132" s="120"/>
+      <c r="I132" s="120"/>
+      <c r="J132" s="120"/>
+      <c r="K132" s="120"/>
+      <c r="L132" s="120"/>
+      <c r="M132" s="120"/>
+      <c r="N132" s="120"/>
+      <c r="O132" s="120"/>
+      <c r="P132" s="120"/>
+      <c r="Q132" s="121"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="48"/>
       <c r="B133" s="49"/>
-      <c r="C133" s="256"/>
-      <c r="D133" s="257"/>
-      <c r="E133" s="257"/>
-      <c r="F133" s="257"/>
-      <c r="G133" s="257"/>
-      <c r="H133" s="257"/>
-      <c r="I133" s="257"/>
-      <c r="J133" s="257"/>
-      <c r="K133" s="257"/>
-      <c r="L133" s="257"/>
-      <c r="M133" s="257"/>
-      <c r="N133" s="257"/>
-      <c r="O133" s="257"/>
-      <c r="P133" s="257"/>
-      <c r="Q133" s="258"/>
+      <c r="C133" s="122"/>
+      <c r="D133" s="123"/>
+      <c r="E133" s="123"/>
+      <c r="F133" s="123"/>
+      <c r="G133" s="123"/>
+      <c r="H133" s="123"/>
+      <c r="I133" s="123"/>
+      <c r="J133" s="123"/>
+      <c r="K133" s="123"/>
+      <c r="L133" s="123"/>
+      <c r="M133" s="123"/>
+      <c r="N133" s="123"/>
+      <c r="O133" s="123"/>
+      <c r="P133" s="123"/>
+      <c r="Q133" s="124"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="48"/>
       <c r="B134" s="49"/>
-      <c r="C134" s="116" t="s">
+      <c r="C134" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="D134" s="117"/>
-      <c r="E134" s="117"/>
-      <c r="F134" s="117"/>
-      <c r="G134" s="117"/>
-      <c r="H134" s="117"/>
-      <c r="I134" s="117"/>
-      <c r="J134" s="117"/>
-      <c r="K134" s="117"/>
-      <c r="L134" s="117"/>
-      <c r="M134" s="117"/>
-      <c r="N134" s="117"/>
-      <c r="O134" s="117"/>
-      <c r="P134" s="117"/>
-      <c r="Q134" s="118"/>
+      <c r="D134" s="126"/>
+      <c r="E134" s="126"/>
+      <c r="F134" s="126"/>
+      <c r="G134" s="126"/>
+      <c r="H134" s="126"/>
+      <c r="I134" s="126"/>
+      <c r="J134" s="126"/>
+      <c r="K134" s="126"/>
+      <c r="L134" s="126"/>
+      <c r="M134" s="126"/>
+      <c r="N134" s="126"/>
+      <c r="O134" s="126"/>
+      <c r="P134" s="126"/>
+      <c r="Q134" s="127"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="50"/>
       <c r="B135" s="51"/>
-      <c r="C135" s="119"/>
-      <c r="D135" s="120"/>
-      <c r="E135" s="120"/>
-      <c r="F135" s="120"/>
-      <c r="G135" s="120"/>
-      <c r="H135" s="120"/>
-      <c r="I135" s="120"/>
-      <c r="J135" s="120"/>
-      <c r="K135" s="120"/>
-      <c r="L135" s="120"/>
-      <c r="M135" s="120"/>
-      <c r="N135" s="120"/>
-      <c r="O135" s="120"/>
-      <c r="P135" s="120"/>
-      <c r="Q135" s="121"/>
+      <c r="C135" s="128"/>
+      <c r="D135" s="129"/>
+      <c r="E135" s="129"/>
+      <c r="F135" s="129"/>
+      <c r="G135" s="129"/>
+      <c r="H135" s="129"/>
+      <c r="I135" s="129"/>
+      <c r="J135" s="129"/>
+      <c r="K135" s="129"/>
+      <c r="L135" s="129"/>
+      <c r="M135" s="129"/>
+      <c r="N135" s="129"/>
+      <c r="O135" s="129"/>
+      <c r="P135" s="129"/>
+      <c r="Q135" s="130"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="259" t="s">
+      <c r="A136" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B136" s="260"/>
-      <c r="C136" s="261">
+      <c r="B136" s="132"/>
+      <c r="C136" s="133">
         <f>$G$18</f>
         <v>0</v>
       </c>
-      <c r="D136" s="261"/>
-      <c r="E136" s="261"/>
-      <c r="F136" s="261"/>
-      <c r="G136" s="261"/>
-      <c r="H136" s="261"/>
-      <c r="I136" s="261"/>
-      <c r="J136" s="262" t="s">
+      <c r="D136" s="133"/>
+      <c r="E136" s="133"/>
+      <c r="F136" s="133"/>
+      <c r="G136" s="133"/>
+      <c r="H136" s="133"/>
+      <c r="I136" s="133"/>
+      <c r="J136" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="K136" s="262"/>
-      <c r="L136" s="262"/>
-      <c r="M136" s="263"/>
-      <c r="N136" s="263"/>
-      <c r="O136" s="263"/>
-      <c r="P136" s="263"/>
-      <c r="Q136" s="264"/>
+      <c r="K136" s="134"/>
+      <c r="L136" s="134"/>
+      <c r="M136" s="135"/>
+      <c r="N136" s="135"/>
+      <c r="O136" s="135"/>
+      <c r="P136" s="135"/>
+      <c r="Q136" s="136"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137" s="247" t="s">
+      <c r="A137" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="B137" s="248"/>
-      <c r="C137" s="269"/>
-      <c r="D137" s="269"/>
-      <c r="E137" s="269"/>
-      <c r="F137" s="269"/>
-      <c r="G137" s="269"/>
-      <c r="H137" s="269"/>
-      <c r="I137" s="269"/>
-      <c r="J137" s="250" t="s">
+      <c r="B137" s="111"/>
+      <c r="C137" s="112"/>
+      <c r="D137" s="112"/>
+      <c r="E137" s="112"/>
+      <c r="F137" s="112"/>
+      <c r="G137" s="112"/>
+      <c r="H137" s="112"/>
+      <c r="I137" s="112"/>
+      <c r="J137" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="K137" s="250"/>
-      <c r="L137" s="250"/>
-      <c r="M137" s="270"/>
-      <c r="N137" s="270"/>
-      <c r="O137" s="270"/>
-      <c r="P137" s="270"/>
-      <c r="Q137" s="271"/>
+      <c r="K137" s="113"/>
+      <c r="L137" s="113"/>
+      <c r="M137" s="114"/>
+      <c r="N137" s="114"/>
+      <c r="O137" s="114"/>
+      <c r="P137" s="114"/>
+      <c r="Q137" s="115"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="247" t="s">
+      <c r="A138" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="248"/>
-      <c r="C138" s="249">
+      <c r="B138" s="111"/>
+      <c r="C138" s="116">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="D138" s="249"/>
-      <c r="E138" s="249"/>
-      <c r="F138" s="249"/>
-      <c r="G138" s="249"/>
-      <c r="H138" s="249"/>
-      <c r="I138" s="249"/>
-      <c r="J138" s="250" t="s">
+      <c r="D138" s="116"/>
+      <c r="E138" s="116"/>
+      <c r="F138" s="116"/>
+      <c r="G138" s="116"/>
+      <c r="H138" s="116"/>
+      <c r="I138" s="116"/>
+      <c r="J138" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="K138" s="250"/>
-      <c r="L138" s="250"/>
-      <c r="M138" s="251">
+      <c r="K138" s="113"/>
+      <c r="L138" s="113"/>
+      <c r="M138" s="117">
         <f>K5</f>
         <v>0</v>
       </c>
-      <c r="N138" s="251"/>
-      <c r="O138" s="251"/>
-      <c r="P138" s="251"/>
-      <c r="Q138" s="252"/>
+      <c r="N138" s="117"/>
+      <c r="O138" s="117"/>
+      <c r="P138" s="117"/>
+      <c r="Q138" s="118"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" s="265" t="s">
+      <c r="A139" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="266"/>
-      <c r="C139" s="267">
+      <c r="B139" s="102"/>
+      <c r="C139" s="103">
         <f>K3</f>
         <v>0</v>
       </c>
-      <c r="D139" s="267"/>
-      <c r="E139" s="267"/>
-      <c r="F139" s="267"/>
-      <c r="G139" s="267"/>
-      <c r="H139" s="267"/>
-      <c r="I139" s="267"/>
-      <c r="J139" s="267"/>
-      <c r="K139" s="267"/>
-      <c r="L139" s="267"/>
-      <c r="M139" s="267"/>
-      <c r="N139" s="267"/>
-      <c r="O139" s="267"/>
-      <c r="P139" s="267"/>
-      <c r="Q139" s="268"/>
+      <c r="D139" s="103"/>
+      <c r="E139" s="103"/>
+      <c r="F139" s="103"/>
+      <c r="G139" s="103"/>
+      <c r="H139" s="103"/>
+      <c r="I139" s="103"/>
+      <c r="J139" s="103"/>
+      <c r="K139" s="103"/>
+      <c r="L139" s="103"/>
+      <c r="M139" s="103"/>
+      <c r="N139" s="103"/>
+      <c r="O139" s="103"/>
+      <c r="P139" s="103"/>
+      <c r="Q139" s="104"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="54"/>
@@ -9275,181 +8720,181 @@
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="46"/>
       <c r="B196" s="47"/>
-      <c r="C196" s="253" t="s">
+      <c r="C196" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="254"/>
-      <c r="E196" s="254"/>
-      <c r="F196" s="254"/>
-      <c r="G196" s="254"/>
-      <c r="H196" s="254"/>
-      <c r="I196" s="254"/>
-      <c r="J196" s="254"/>
-      <c r="K196" s="254"/>
-      <c r="L196" s="254"/>
-      <c r="M196" s="254"/>
-      <c r="N196" s="254"/>
-      <c r="O196" s="254"/>
-      <c r="P196" s="254"/>
-      <c r="Q196" s="255"/>
+      <c r="D196" s="120"/>
+      <c r="E196" s="120"/>
+      <c r="F196" s="120"/>
+      <c r="G196" s="120"/>
+      <c r="H196" s="120"/>
+      <c r="I196" s="120"/>
+      <c r="J196" s="120"/>
+      <c r="K196" s="120"/>
+      <c r="L196" s="120"/>
+      <c r="M196" s="120"/>
+      <c r="N196" s="120"/>
+      <c r="O196" s="120"/>
+      <c r="P196" s="120"/>
+      <c r="Q196" s="121"/>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="48"/>
       <c r="B197" s="49"/>
-      <c r="C197" s="256"/>
-      <c r="D197" s="257"/>
-      <c r="E197" s="257"/>
-      <c r="F197" s="257"/>
-      <c r="G197" s="257"/>
-      <c r="H197" s="257"/>
-      <c r="I197" s="257"/>
-      <c r="J197" s="257"/>
-      <c r="K197" s="257"/>
-      <c r="L197" s="257"/>
-      <c r="M197" s="257"/>
-      <c r="N197" s="257"/>
-      <c r="O197" s="257"/>
-      <c r="P197" s="257"/>
-      <c r="Q197" s="258"/>
+      <c r="C197" s="122"/>
+      <c r="D197" s="123"/>
+      <c r="E197" s="123"/>
+      <c r="F197" s="123"/>
+      <c r="G197" s="123"/>
+      <c r="H197" s="123"/>
+      <c r="I197" s="123"/>
+      <c r="J197" s="123"/>
+      <c r="K197" s="123"/>
+      <c r="L197" s="123"/>
+      <c r="M197" s="123"/>
+      <c r="N197" s="123"/>
+      <c r="O197" s="123"/>
+      <c r="P197" s="123"/>
+      <c r="Q197" s="124"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="48"/>
       <c r="B198" s="49"/>
-      <c r="C198" s="116" t="s">
+      <c r="C198" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="D198" s="117"/>
-      <c r="E198" s="117"/>
-      <c r="F198" s="117"/>
-      <c r="G198" s="117"/>
-      <c r="H198" s="117"/>
-      <c r="I198" s="117"/>
-      <c r="J198" s="117"/>
-      <c r="K198" s="117"/>
-      <c r="L198" s="117"/>
-      <c r="M198" s="117"/>
-      <c r="N198" s="117"/>
-      <c r="O198" s="117"/>
-      <c r="P198" s="117"/>
-      <c r="Q198" s="118"/>
+      <c r="D198" s="126"/>
+      <c r="E198" s="126"/>
+      <c r="F198" s="126"/>
+      <c r="G198" s="126"/>
+      <c r="H198" s="126"/>
+      <c r="I198" s="126"/>
+      <c r="J198" s="126"/>
+      <c r="K198" s="126"/>
+      <c r="L198" s="126"/>
+      <c r="M198" s="126"/>
+      <c r="N198" s="126"/>
+      <c r="O198" s="126"/>
+      <c r="P198" s="126"/>
+      <c r="Q198" s="127"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="50"/>
       <c r="B199" s="51"/>
-      <c r="C199" s="119"/>
-      <c r="D199" s="120"/>
-      <c r="E199" s="120"/>
-      <c r="F199" s="120"/>
-      <c r="G199" s="120"/>
-      <c r="H199" s="120"/>
-      <c r="I199" s="120"/>
-      <c r="J199" s="120"/>
-      <c r="K199" s="120"/>
-      <c r="L199" s="120"/>
-      <c r="M199" s="120"/>
-      <c r="N199" s="120"/>
-      <c r="O199" s="120"/>
-      <c r="P199" s="120"/>
-      <c r="Q199" s="121"/>
+      <c r="C199" s="128"/>
+      <c r="D199" s="129"/>
+      <c r="E199" s="129"/>
+      <c r="F199" s="129"/>
+      <c r="G199" s="129"/>
+      <c r="H199" s="129"/>
+      <c r="I199" s="129"/>
+      <c r="J199" s="129"/>
+      <c r="K199" s="129"/>
+      <c r="L199" s="129"/>
+      <c r="M199" s="129"/>
+      <c r="N199" s="129"/>
+      <c r="O199" s="129"/>
+      <c r="P199" s="129"/>
+      <c r="Q199" s="130"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A200" s="259" t="s">
+      <c r="A200" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B200" s="260"/>
-      <c r="C200" s="261"/>
-      <c r="D200" s="261"/>
-      <c r="E200" s="261"/>
-      <c r="F200" s="261"/>
-      <c r="G200" s="261"/>
-      <c r="H200" s="261"/>
-      <c r="I200" s="261"/>
-      <c r="J200" s="262" t="s">
+      <c r="B200" s="132"/>
+      <c r="C200" s="133"/>
+      <c r="D200" s="133"/>
+      <c r="E200" s="133"/>
+      <c r="F200" s="133"/>
+      <c r="G200" s="133"/>
+      <c r="H200" s="133"/>
+      <c r="I200" s="133"/>
+      <c r="J200" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="K200" s="262"/>
-      <c r="L200" s="262"/>
-      <c r="M200" s="263"/>
-      <c r="N200" s="263"/>
-      <c r="O200" s="263"/>
-      <c r="P200" s="263"/>
-      <c r="Q200" s="264"/>
+      <c r="K200" s="134"/>
+      <c r="L200" s="134"/>
+      <c r="M200" s="135"/>
+      <c r="N200" s="135"/>
+      <c r="O200" s="135"/>
+      <c r="P200" s="135"/>
+      <c r="Q200" s="136"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A201" s="247" t="s">
+      <c r="A201" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="B201" s="248"/>
-      <c r="C201" s="269"/>
-      <c r="D201" s="269"/>
-      <c r="E201" s="269"/>
-      <c r="F201" s="269"/>
-      <c r="G201" s="269"/>
-      <c r="H201" s="269"/>
-      <c r="I201" s="269"/>
-      <c r="J201" s="250" t="s">
+      <c r="B201" s="111"/>
+      <c r="C201" s="112"/>
+      <c r="D201" s="112"/>
+      <c r="E201" s="112"/>
+      <c r="F201" s="112"/>
+      <c r="G201" s="112"/>
+      <c r="H201" s="112"/>
+      <c r="I201" s="112"/>
+      <c r="J201" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="K201" s="250"/>
-      <c r="L201" s="250"/>
-      <c r="M201" s="270"/>
-      <c r="N201" s="270"/>
-      <c r="O201" s="270"/>
-      <c r="P201" s="270"/>
-      <c r="Q201" s="271"/>
+      <c r="K201" s="113"/>
+      <c r="L201" s="113"/>
+      <c r="M201" s="114"/>
+      <c r="N201" s="114"/>
+      <c r="O201" s="114"/>
+      <c r="P201" s="114"/>
+      <c r="Q201" s="115"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A202" s="247" t="s">
+      <c r="A202" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B202" s="248"/>
-      <c r="C202" s="249">
+      <c r="B202" s="111"/>
+      <c r="C202" s="116">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="D202" s="249"/>
-      <c r="E202" s="249"/>
-      <c r="F202" s="249"/>
-      <c r="G202" s="249"/>
-      <c r="H202" s="249"/>
-      <c r="I202" s="249"/>
-      <c r="J202" s="250" t="s">
+      <c r="D202" s="116"/>
+      <c r="E202" s="116"/>
+      <c r="F202" s="116"/>
+      <c r="G202" s="116"/>
+      <c r="H202" s="116"/>
+      <c r="I202" s="116"/>
+      <c r="J202" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="K202" s="250"/>
-      <c r="L202" s="250"/>
-      <c r="M202" s="251">
+      <c r="K202" s="113"/>
+      <c r="L202" s="113"/>
+      <c r="M202" s="117">
         <f>K5</f>
         <v>0</v>
       </c>
-      <c r="N202" s="251"/>
-      <c r="O202" s="251"/>
-      <c r="P202" s="251"/>
-      <c r="Q202" s="252"/>
+      <c r="N202" s="117"/>
+      <c r="O202" s="117"/>
+      <c r="P202" s="117"/>
+      <c r="Q202" s="118"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A203" s="265" t="s">
+      <c r="A203" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="266"/>
-      <c r="C203" s="267">
+      <c r="B203" s="102"/>
+      <c r="C203" s="103">
         <f>K3</f>
         <v>0</v>
       </c>
-      <c r="D203" s="267"/>
-      <c r="E203" s="267"/>
-      <c r="F203" s="267"/>
-      <c r="G203" s="267"/>
-      <c r="H203" s="267"/>
-      <c r="I203" s="267"/>
-      <c r="J203" s="267"/>
-      <c r="K203" s="267"/>
-      <c r="L203" s="267"/>
-      <c r="M203" s="267"/>
-      <c r="N203" s="267"/>
-      <c r="O203" s="267"/>
-      <c r="P203" s="267"/>
-      <c r="Q203" s="268"/>
+      <c r="D203" s="103"/>
+      <c r="E203" s="103"/>
+      <c r="F203" s="103"/>
+      <c r="G203" s="103"/>
+      <c r="H203" s="103"/>
+      <c r="I203" s="103"/>
+      <c r="J203" s="103"/>
+      <c r="K203" s="103"/>
+      <c r="L203" s="103"/>
+      <c r="M203" s="103"/>
+      <c r="N203" s="103"/>
+      <c r="O203" s="103"/>
+      <c r="P203" s="103"/>
+      <c r="Q203" s="104"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="54"/>
@@ -10483,6 +9928,125 @@
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="C1:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="A23:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D29"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A43:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D49"/>
+    <mergeCell ref="A50:O50"/>
+    <mergeCell ref="A52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:O53"/>
+    <mergeCell ref="A31:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:O63"/>
+    <mergeCell ref="B64:O64"/>
+    <mergeCell ref="C65:O66"/>
+    <mergeCell ref="C67:O67"/>
+    <mergeCell ref="C68:O69"/>
+    <mergeCell ref="A54:B57"/>
+    <mergeCell ref="C54:O57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:O59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:O61"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:O74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="A93:O93"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="H94:O94"/>
+    <mergeCell ref="A95:G106"/>
+    <mergeCell ref="H95:O106"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A79:O79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="A81:G92"/>
+    <mergeCell ref="H81:O92"/>
+    <mergeCell ref="A123:G124"/>
+    <mergeCell ref="H123:O124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:G126"/>
+    <mergeCell ref="H125:J126"/>
+    <mergeCell ref="K125:O126"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="H108:O108"/>
+    <mergeCell ref="A109:G121"/>
+    <mergeCell ref="H109:O121"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="H122:O122"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:O129"/>
+    <mergeCell ref="A131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:O127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J128:O128"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:I138"/>
+    <mergeCell ref="J138:L138"/>
+    <mergeCell ref="M138:Q138"/>
+    <mergeCell ref="C132:Q133"/>
+    <mergeCell ref="C134:Q135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:I136"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="M136:Q136"/>
     <mergeCell ref="A203:B203"/>
     <mergeCell ref="C203:Q203"/>
     <mergeCell ref="A130:M130"/>
@@ -10507,125 +10071,6 @@
     <mergeCell ref="C137:I137"/>
     <mergeCell ref="J137:L137"/>
     <mergeCell ref="M137:Q137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:I138"/>
-    <mergeCell ref="J138:L138"/>
-    <mergeCell ref="M138:Q138"/>
-    <mergeCell ref="C132:Q133"/>
-    <mergeCell ref="C134:Q135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:I136"/>
-    <mergeCell ref="J136:L136"/>
-    <mergeCell ref="M136:Q136"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:O129"/>
-    <mergeCell ref="A131:M131"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:O127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="J128:O128"/>
-    <mergeCell ref="A123:G124"/>
-    <mergeCell ref="H123:O124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:G126"/>
-    <mergeCell ref="H125:J126"/>
-    <mergeCell ref="K125:O126"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="H108:O108"/>
-    <mergeCell ref="A109:G121"/>
-    <mergeCell ref="H109:O121"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="H122:O122"/>
-    <mergeCell ref="A93:O93"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="H94:O94"/>
-    <mergeCell ref="A95:G106"/>
-    <mergeCell ref="H95:O106"/>
-    <mergeCell ref="A107:O107"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A79:O79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="A81:G92"/>
-    <mergeCell ref="H81:O92"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:O73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:O74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:O71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:O72"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:O63"/>
-    <mergeCell ref="B64:O64"/>
-    <mergeCell ref="C65:O66"/>
-    <mergeCell ref="C67:O67"/>
-    <mergeCell ref="C68:O69"/>
-    <mergeCell ref="A54:B57"/>
-    <mergeCell ref="C54:O57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:O59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:O61"/>
-    <mergeCell ref="A43:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D49"/>
-    <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:O53"/>
-    <mergeCell ref="A31:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="A23:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D29"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:O10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -10836,18 +10281,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10870,14 +10315,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12F65BC-A18D-4574-83DA-6AE092DB43C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13F3D0F-B9A2-4C7B-8A21-2E04B543F8EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -10892,4 +10329,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12F65BC-A18D-4574-83DA-6AE092DB43C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormG1G2.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormG1G2.xlsx
@@ -1409,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1671,6 +1671,498 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1683,506 +2175,32 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2222,7 +2240,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="JKRS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E5C8BC-0BD0-41E9-8FA7-62DC2A6773EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98E5C8BC-0BD0-41E9-8FA7-62DC2A6773EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2314,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA49169-B5CC-4698-BF84-0E109733337A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BA49169-B5CC-4698-BF84-0E109733337A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2364,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23143EB-3B39-4842-958D-E0D24870184C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C23143EB-3B39-4842-958D-E0D24870184C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2435,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5953691B-6A2B-4C07-80C0-779AA8DF0E4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5953691B-6A2B-4C07-80C0-779AA8DF0E4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2479,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1D6820-0446-4332-9F6B-C2B836E3E766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F1D6820-0446-4332-9F6B-C2B836E3E766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2558,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECBE155-BC6A-491B-8C9B-95A584E8BED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ECBE155-BC6A-491B-8C9B-95A584E8BED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2602,7 @@
         <xdr:cNvPr id="8" name="Picture 7" descr="JKRS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6289039C-70A4-451E-9781-6EFEF17791D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6289039C-70A4-451E-9781-6EFEF17791D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2671,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D11811-549B-4935-A72F-0B393799DE94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6D11811-549B-4935-A72F-0B393799DE94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2742,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E2871-C9C8-476A-9779-2736198C0F78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2E2871-C9C8-476A-9779-2736198C0F78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2808,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87338735-7A46-4C61-A3F1-97B97AC8BA05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87338735-7A46-4C61-A3F1-97B97AC8BA05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2874,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1B44EB-1B6A-4539-AF68-691B17EFB342}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C1B44EB-1B6A-4539-AF68-691B17EFB342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2945,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03129D8-E5FD-4B6C-BFC6-63DF18288873}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A03129D8-E5FD-4B6C-BFC6-63DF18288873}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +3011,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517DF727-90B1-4354-BBB7-0543B568BF00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{517DF727-90B1-4354-BBB7-0543B568BF00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3082,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7711CB8F-D332-4AAA-BBC2-5C6A32FF22E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7711CB8F-D332-4AAA-BBC2-5C6A32FF22E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,7 +3148,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CBA5C1-0327-45A1-994E-62E119BAB980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8CBA5C1-0327-45A1-994E-62E119BAB980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3214,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35570473-9A1D-41FD-AD63-8D6330032751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35570473-9A1D-41FD-AD63-8D6330032751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3285,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27598E07-3819-49AB-ACEC-664896D7BA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27598E07-3819-49AB-ACEC-664896D7BA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3338,7 +3356,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DA963D-E39F-4914-B3D9-D8BC8AC43AD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4DA963D-E39F-4914-B3D9-D8BC8AC43AD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3422,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740D17B0-B6F0-4D2C-84EC-40D6F9D0C232}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{740D17B0-B6F0-4D2C-84EC-40D6F9D0C232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,7 +3488,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DECEA42-EB73-4188-900C-C957BFC85811}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DECEA42-EB73-4188-900C-C957BFC85811}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3558,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1873FF98-7C73-48C7-ABAF-FE2D48BF153B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1873FF98-7C73-48C7-ABAF-FE2D48BF153B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3628,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="JKRS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C71AB6-9400-4DF0-802C-CACAD58E45FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77C71AB6-9400-4DF0-802C-CACAD58E45FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3697,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560343A2-593F-4A34-8C45-3206BFD385FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{560343A2-593F-4A34-8C45-3206BFD385FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3772,7 @@
         <xdr:cNvPr id="27" name="TextBox 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162DB110-6631-47AB-B458-FCDA454A4B60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{162DB110-6631-47AB-B458-FCDA454A4B60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +3847,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734C47DB-B483-4743-849A-E7EBA0C47986}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{734C47DB-B483-4743-849A-E7EBA0C47986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3895,7 +3913,7 @@
         <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749D1F13-0EA8-49D0-A703-61F9C1775BBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{749D1F13-0EA8-49D0-A703-61F9C1775BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3961,7 +3979,7 @@
         <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF064074-5F7B-41E7-8023-8192A5B12A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF064074-5F7B-41E7-8023-8192A5B12A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4045,7 @@
         <xdr:cNvPr id="34" name="Picture 33" descr="JKRS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786B6B58-5C1B-4809-8F28-347AC262C141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{786B6B58-5C1B-4809-8F28-347AC262C141}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4096,7 +4114,7 @@
         <xdr:cNvPr id="35" name="Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF713FFA-8B11-4BFA-93E3-057255BBFC73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF713FFA-8B11-4BFA-93E3-057255BBFC73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4162,7 +4180,7 @@
         <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28E7F66-0361-4F38-AB86-32510AB1C119}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E28E7F66-0361-4F38-AB86-32510AB1C119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4233,7 +4251,7 @@
         <xdr:cNvPr id="37" name="Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C48D15-0E83-4883-82D3-408EB9441D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37C48D15-0E83-4883-82D3-408EB9441D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4299,7 +4317,7 @@
         <xdr:cNvPr id="38" name="TextBox 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748D3F70-892E-4C69-90CE-AB62A2A17E4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{748D3F70-892E-4C69-90CE-AB62A2A17E4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4370,7 +4388,7 @@
         <xdr:cNvPr id="41" name="TextBox 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E27B393-2AF1-4E81-9ED9-4655743149BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E27B393-2AF1-4E81-9ED9-4655743149BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,7 +4459,7 @@
         <xdr:cNvPr id="42" name="TextBox 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF297D50-25EB-488E-B645-D3FE0EB2B2FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF297D50-25EB-488E-B645-D3FE0EB2B2FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4512,7 +4530,7 @@
         <xdr:cNvPr id="44" name="TextBox 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723C1622-CC12-4E75-95C7-582F703E1C0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723C1622-CC12-4E75-95C7-582F703E1C0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4583,7 +4601,7 @@
         <xdr:cNvPr id="45" name="Rectangle 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FB7CE9-6B2E-45E2-BA48-F61721DB21B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62FB7CE9-6B2E-45E2-BA48-F61721DB21B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +4667,7 @@
         <xdr:cNvPr id="46" name="TextBox 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21773E2-A75D-43DC-A1D9-1CC2D9E2DA5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A21773E2-A75D-43DC-A1D9-1CC2D9E2DA5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5004,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A124" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A138" sqref="A137:B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5018,95 +5036,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="264"/>
-      <c r="B1" s="265"/>
-      <c r="C1" s="210" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="212"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="266"/>
-      <c r="B2" s="267"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="215"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="266"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="216" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="218"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:17" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="266"/>
-      <c r="B4" s="267"/>
-      <c r="C4" s="125" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="127"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
     </row>
     <row r="5" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="268"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="130"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -5126,91 +5144,91 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="270" t="s">
+      <c r="A7" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="260" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="260"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="194"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="126"/>
       <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="259"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="260" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="260"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="194"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="126"/>
       <c r="Q8" s="97"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="259"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="261" t="s">
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="261"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="262"/>
-      <c r="L9" s="262"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="262"/>
-      <c r="O9" s="263"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="129"/>
       <c r="Q9" s="97"/>
     </row>
     <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="270" t="s">
+      <c r="A10" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="271"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="261" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="261"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="262"/>
-      <c r="L10" s="262"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="263"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="129"/>
       <c r="Q10" s="97"/>
     </row>
     <row r="11" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,36 +5250,36 @@
       <c r="Q11" s="97"/>
     </row>
     <row r="12" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="253" t="s">
+      <c r="A12" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="254"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="256" t="s">
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="257"/>
-      <c r="F12" s="257"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="257"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="257"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="257"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="258"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
       <c r="Q12" s="97"/>
     </row>
     <row r="13" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="239" t="s">
+      <c r="B13" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="240"/>
-      <c r="D13" s="241" t="s">
+      <c r="C13" s="150"/>
+      <c r="D13" s="151" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -5282,11 +5300,11 @@
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="243" t="s">
+      <c r="B14" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="244"/>
-      <c r="D14" s="241"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="12" t="s">
         <v>18</v>
       </c>
@@ -5305,11 +5323,11 @@
       <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="245" t="s">
+      <c r="B15" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="246"/>
-      <c r="D15" s="242"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="17" t="s">
         <v>20</v>
       </c>
@@ -5325,34 +5343,34 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="247" t="s">
+      <c r="A16" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="248"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="251" t="s">
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="235" t="s">
+      <c r="F16" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="235"/>
-      <c r="K16" s="235"/>
-      <c r="L16" s="235"/>
-      <c r="M16" s="235"/>
-      <c r="N16" s="235"/>
-      <c r="O16" s="236"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
     </row>
     <row r="17" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="249"/>
-      <c r="B17" s="250"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="252"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="21">
         <v>1</v>
       </c>
@@ -5385,12 +5403,12 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="237" t="s">
+      <c r="A18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="238"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="23" t="s">
         <v>25</v>
       </c>
@@ -5406,12 +5424,12 @@
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="223" t="s">
+      <c r="A19" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="224"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
       <c r="E19" s="27" t="s">
         <v>27</v>
       </c>
@@ -5427,10 +5445,10 @@
       <c r="O19" s="30"/>
     </row>
     <row r="20" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="223"/>
-      <c r="B20" s="224"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="27" t="s">
         <v>28</v>
       </c>
@@ -5446,10 +5464,10 @@
       <c r="O20" s="30"/>
     </row>
     <row r="21" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="225"/>
-      <c r="B21" s="226"/>
-      <c r="C21" s="226"/>
-      <c r="D21" s="226"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="31" t="s">
         <v>29</v>
       </c>
@@ -5486,12 +5504,12 @@
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="223" t="s">
+      <c r="A23" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="224"/>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="27" t="s">
         <v>27</v>
       </c>
@@ -5507,10 +5525,10 @@
       <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="223"/>
-      <c r="B24" s="224"/>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="27" t="s">
         <v>28</v>
       </c>
@@ -5526,10 +5544,10 @@
       <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="225"/>
-      <c r="B25" s="226"/>
-      <c r="C25" s="226"/>
-      <c r="D25" s="226"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="31" t="s">
         <v>29</v>
       </c>
@@ -5545,12 +5563,12 @@
       <c r="O25" s="34"/>
     </row>
     <row r="26" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="227" t="s">
+      <c r="A26" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="228"/>
-      <c r="C26" s="228"/>
-      <c r="D26" s="228"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
       <c r="E26" s="23" t="s">
         <v>25</v>
       </c>
@@ -5566,12 +5584,12 @@
       <c r="O26" s="26"/>
     </row>
     <row r="27" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="223" t="s">
+      <c r="A27" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
-      <c r="D27" s="224"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
       <c r="E27" s="27" t="s">
         <v>27</v>
       </c>
@@ -5587,10 +5605,10 @@
       <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="223"/>
-      <c r="B28" s="224"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
       <c r="E28" s="27" t="s">
         <v>28</v>
       </c>
@@ -5606,10 +5624,10 @@
       <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="225"/>
-      <c r="B29" s="226"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="226"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
       <c r="E29" s="31" t="s">
         <v>29</v>
       </c>
@@ -5646,12 +5664,12 @@
       <c r="O30" s="26"/>
     </row>
     <row r="31" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="224"/>
-      <c r="C31" s="224"/>
-      <c r="D31" s="224"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
       <c r="E31" s="27" t="s">
         <v>27</v>
       </c>
@@ -5667,10 +5685,10 @@
       <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="223"/>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
       <c r="E32" s="27" t="s">
         <v>28</v>
       </c>
@@ -5686,10 +5704,10 @@
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="225"/>
-      <c r="B33" s="226"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
       <c r="E33" s="31" t="s">
         <v>29</v>
       </c>
@@ -5705,12 +5723,12 @@
       <c r="O33" s="34"/>
     </row>
     <row r="34" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="227" t="s">
+      <c r="A34" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="228"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="228"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
       <c r="E34" s="23" t="s">
         <v>25</v>
       </c>
@@ -5726,12 +5744,12 @@
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="223" t="s">
+      <c r="A35" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="224"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="224"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
       <c r="E35" s="27" t="s">
         <v>27</v>
       </c>
@@ -5747,10 +5765,10 @@
       <c r="O35" s="30"/>
     </row>
     <row r="36" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="223"/>
-      <c r="B36" s="224"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="224"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
       <c r="E36" s="27" t="s">
         <v>28</v>
       </c>
@@ -5766,10 +5784,10 @@
       <c r="O36" s="30"/>
     </row>
     <row r="37" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="225"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
       <c r="E37" s="31" t="s">
         <v>29</v>
       </c>
@@ -5785,12 +5803,12 @@
       <c r="O37" s="34"/>
     </row>
     <row r="38" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="227" t="s">
+      <c r="A38" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="228"/>
-      <c r="C38" s="228"/>
-      <c r="D38" s="228"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="23" t="s">
         <v>25</v>
       </c>
@@ -5806,12 +5824,12 @@
       <c r="O38" s="26"/>
     </row>
     <row r="39" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="223" t="s">
+      <c r="A39" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="224"/>
-      <c r="C39" s="224"/>
-      <c r="D39" s="224"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
       <c r="E39" s="27" t="s">
         <v>27</v>
       </c>
@@ -5827,10 +5845,10 @@
       <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="223"/>
-      <c r="B40" s="224"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
+      <c r="A40" s="143"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
       <c r="E40" s="27" t="s">
         <v>28</v>
       </c>
@@ -5846,10 +5864,10 @@
       <c r="O40" s="30"/>
     </row>
     <row r="41" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="225"/>
-      <c r="B41" s="226"/>
-      <c r="C41" s="226"/>
-      <c r="D41" s="226"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
       <c r="E41" s="31" t="s">
         <v>29</v>
       </c>
@@ -5865,12 +5883,12 @@
       <c r="O41" s="34"/>
     </row>
     <row r="42" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="227" t="s">
+      <c r="A42" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="228"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
       <c r="E42" s="23" t="s">
         <v>25</v>
       </c>
@@ -5886,12 +5904,12 @@
       <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="223" t="s">
+      <c r="A43" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="224"/>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
       <c r="E43" s="27" t="s">
         <v>27</v>
       </c>
@@ -5907,10 +5925,10 @@
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="223"/>
-      <c r="B44" s="224"/>
-      <c r="C44" s="224"/>
-      <c r="D44" s="224"/>
+      <c r="A44" s="143"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
       <c r="E44" s="27" t="s">
         <v>28</v>
       </c>
@@ -5926,10 +5944,10 @@
       <c r="O44" s="30"/>
     </row>
     <row r="45" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="225"/>
-      <c r="B45" s="226"/>
-      <c r="C45" s="226"/>
-      <c r="D45" s="226"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
       <c r="E45" s="31" t="s">
         <v>29</v>
       </c>
@@ -5945,12 +5963,12 @@
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="227" t="s">
+      <c r="A46" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="228"/>
-      <c r="C46" s="228"/>
-      <c r="D46" s="228"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
       <c r="E46" s="23" t="s">
         <v>25</v>
       </c>
@@ -5966,12 +5984,12 @@
       <c r="O46" s="26"/>
     </row>
     <row r="47" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="223" t="s">
+      <c r="A47" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="224"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
       <c r="E47" s="27" t="s">
         <v>27</v>
       </c>
@@ -5987,10 +6005,10 @@
       <c r="O47" s="30"/>
     </row>
     <row r="48" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="223"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224"/>
+      <c r="A48" s="143"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
       <c r="E48" s="27" t="s">
         <v>28</v>
       </c>
@@ -6006,10 +6024,10 @@
       <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="225"/>
-      <c r="B49" s="226"/>
-      <c r="C49" s="226"/>
-      <c r="D49" s="226"/>
+      <c r="A49" s="145"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="146"/>
       <c r="E49" s="31" t="s">
         <v>29</v>
       </c>
@@ -6025,23 +6043,23 @@
       <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="229" t="s">
+      <c r="A50" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="229"/>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
-      <c r="E50" s="229"/>
-      <c r="F50" s="229"/>
-      <c r="G50" s="229"/>
-      <c r="H50" s="229"/>
-      <c r="I50" s="229"/>
-      <c r="J50" s="229"/>
-      <c r="K50" s="229"/>
-      <c r="L50" s="229"/>
-      <c r="M50" s="229"/>
-      <c r="N50" s="229"/>
-      <c r="O50" s="229"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="163"/>
+      <c r="I50" s="163"/>
+      <c r="J50" s="163"/>
+      <c r="K50" s="163"/>
+      <c r="L50" s="163"/>
+      <c r="M50" s="163"/>
+      <c r="N50" s="163"/>
+      <c r="O50" s="163"/>
     </row>
     <row r="51" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
@@ -6061,430 +6079,430 @@
       <c r="O51" s="43"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="230" t="s">
+      <c r="A52" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="230"/>
-      <c r="C52" s="230"/>
-      <c r="D52" s="230"/>
-      <c r="E52" s="230"/>
-      <c r="F52" s="230"/>
-      <c r="G52" s="230"/>
-      <c r="H52" s="230"/>
-      <c r="I52" s="230"/>
-      <c r="J52" s="230"/>
-      <c r="K52" s="230"/>
-      <c r="L52" s="230"/>
-      <c r="M52" s="230"/>
-      <c r="N52" s="230"/>
-      <c r="O52" s="230"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="164"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="231" t="s">
+      <c r="A53" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="232"/>
-      <c r="C53" s="233" t="s">
+      <c r="B53" s="166"/>
+      <c r="C53" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="233"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="233"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="233"/>
-      <c r="I53" s="233"/>
-      <c r="J53" s="233"/>
-      <c r="K53" s="233"/>
-      <c r="L53" s="233"/>
-      <c r="M53" s="233"/>
-      <c r="N53" s="233"/>
-      <c r="O53" s="234"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="167"/>
+      <c r="J53" s="167"/>
+      <c r="K53" s="167"/>
+      <c r="L53" s="167"/>
+      <c r="M53" s="167"/>
+      <c r="N53" s="167"/>
+      <c r="O53" s="168"/>
     </row>
     <row r="54" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="219" t="s">
+      <c r="A54" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="220"/>
-      <c r="C54" s="221" t="s">
+      <c r="B54" s="179"/>
+      <c r="C54" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="221"/>
-      <c r="E54" s="221"/>
-      <c r="F54" s="221"/>
-      <c r="G54" s="221"/>
-      <c r="H54" s="221"/>
-      <c r="I54" s="221"/>
-      <c r="J54" s="221"/>
-      <c r="K54" s="221"/>
-      <c r="L54" s="221"/>
-      <c r="M54" s="221"/>
-      <c r="N54" s="221"/>
-      <c r="O54" s="222"/>
+      <c r="D54" s="180"/>
+      <c r="E54" s="180"/>
+      <c r="F54" s="180"/>
+      <c r="G54" s="180"/>
+      <c r="H54" s="180"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="180"/>
+      <c r="K54" s="180"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="180"/>
+      <c r="N54" s="180"/>
+      <c r="O54" s="181"/>
     </row>
     <row r="55" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="201"/>
-      <c r="B55" s="202"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
-      <c r="O55" s="206"/>
+      <c r="A55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="173"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="173"/>
+      <c r="K55" s="173"/>
+      <c r="L55" s="173"/>
+      <c r="M55" s="173"/>
+      <c r="N55" s="173"/>
+      <c r="O55" s="174"/>
     </row>
     <row r="56" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="201"/>
-      <c r="B56" s="202"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
-      <c r="O56" s="206"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="173"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="173"/>
+      <c r="F56" s="173"/>
+      <c r="G56" s="173"/>
+      <c r="H56" s="173"/>
+      <c r="I56" s="173"/>
+      <c r="J56" s="173"/>
+      <c r="K56" s="173"/>
+      <c r="L56" s="173"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="173"/>
+      <c r="O56" s="174"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="201"/>
-      <c r="B57" s="202"/>
-      <c r="C57" s="205"/>
-      <c r="D57" s="205"/>
-      <c r="E57" s="205"/>
-      <c r="F57" s="205"/>
-      <c r="G57" s="205"/>
-      <c r="H57" s="205"/>
-      <c r="I57" s="205"/>
-      <c r="J57" s="205"/>
-      <c r="K57" s="205"/>
-      <c r="L57" s="205"/>
-      <c r="M57" s="205"/>
-      <c r="N57" s="205"/>
-      <c r="O57" s="206"/>
+      <c r="A57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="173"/>
+      <c r="F57" s="173"/>
+      <c r="G57" s="173"/>
+      <c r="H57" s="173"/>
+      <c r="I57" s="173"/>
+      <c r="J57" s="173"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="173"/>
+      <c r="M57" s="173"/>
+      <c r="N57" s="173"/>
+      <c r="O57" s="174"/>
     </row>
     <row r="58" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="201" t="s">
+      <c r="A58" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="202"/>
-      <c r="C58" s="205" t="s">
+      <c r="B58" s="170"/>
+      <c r="C58" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="205"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
-      <c r="I58" s="205"/>
-      <c r="J58" s="205"/>
-      <c r="K58" s="205"/>
-      <c r="L58" s="205"/>
-      <c r="M58" s="205"/>
-      <c r="N58" s="205"/>
-      <c r="O58" s="206"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="173"/>
+      <c r="F58" s="173"/>
+      <c r="G58" s="173"/>
+      <c r="H58" s="173"/>
+      <c r="I58" s="173"/>
+      <c r="J58" s="173"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="173"/>
+      <c r="M58" s="173"/>
+      <c r="N58" s="173"/>
+      <c r="O58" s="174"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="201"/>
-      <c r="B59" s="202"/>
-      <c r="C59" s="205"/>
-      <c r="D59" s="205"/>
-      <c r="E59" s="205"/>
-      <c r="F59" s="205"/>
-      <c r="G59" s="205"/>
-      <c r="H59" s="205"/>
-      <c r="I59" s="205"/>
-      <c r="J59" s="205"/>
-      <c r="K59" s="205"/>
-      <c r="L59" s="205"/>
-      <c r="M59" s="205"/>
-      <c r="N59" s="205"/>
-      <c r="O59" s="206"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="173"/>
+      <c r="F59" s="173"/>
+      <c r="G59" s="173"/>
+      <c r="H59" s="173"/>
+      <c r="I59" s="173"/>
+      <c r="J59" s="173"/>
+      <c r="K59" s="173"/>
+      <c r="L59" s="173"/>
+      <c r="M59" s="173"/>
+      <c r="N59" s="173"/>
+      <c r="O59" s="174"/>
     </row>
     <row r="60" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="201" t="s">
+      <c r="A60" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="202"/>
-      <c r="C60" s="205" t="s">
+      <c r="B60" s="170"/>
+      <c r="C60" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="205"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="205"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="205"/>
-      <c r="I60" s="205"/>
-      <c r="J60" s="205"/>
-      <c r="K60" s="205"/>
-      <c r="L60" s="205"/>
-      <c r="M60" s="205"/>
-      <c r="N60" s="205"/>
-      <c r="O60" s="206"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="173"/>
+      <c r="F60" s="173"/>
+      <c r="G60" s="173"/>
+      <c r="H60" s="173"/>
+      <c r="I60" s="173"/>
+      <c r="J60" s="173"/>
+      <c r="K60" s="173"/>
+      <c r="L60" s="173"/>
+      <c r="M60" s="173"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="174"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="201"/>
-      <c r="B61" s="202"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="205"/>
-      <c r="G61" s="205"/>
-      <c r="H61" s="205"/>
-      <c r="I61" s="205"/>
-      <c r="J61" s="205"/>
-      <c r="K61" s="205"/>
-      <c r="L61" s="205"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="205"/>
-      <c r="O61" s="206"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="173"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="173"/>
+      <c r="I61" s="173"/>
+      <c r="J61" s="173"/>
+      <c r="K61" s="173"/>
+      <c r="L61" s="173"/>
+      <c r="M61" s="173"/>
+      <c r="N61" s="173"/>
+      <c r="O61" s="174"/>
     </row>
     <row r="62" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="201" t="s">
+      <c r="A62" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="202"/>
-      <c r="C62" s="205" t="s">
+      <c r="B62" s="170"/>
+      <c r="C62" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="205"/>
-      <c r="E62" s="205"/>
-      <c r="F62" s="205"/>
-      <c r="G62" s="205"/>
-      <c r="H62" s="205"/>
-      <c r="I62" s="205"/>
-      <c r="J62" s="205"/>
-      <c r="K62" s="205"/>
-      <c r="L62" s="205"/>
-      <c r="M62" s="205"/>
-      <c r="N62" s="205"/>
-      <c r="O62" s="206"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="173"/>
+      <c r="F62" s="173"/>
+      <c r="G62" s="173"/>
+      <c r="H62" s="173"/>
+      <c r="I62" s="173"/>
+      <c r="J62" s="173"/>
+      <c r="K62" s="173"/>
+      <c r="L62" s="173"/>
+      <c r="M62" s="173"/>
+      <c r="N62" s="173"/>
+      <c r="O62" s="174"/>
     </row>
     <row r="63" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="203"/>
-      <c r="B63" s="204"/>
-      <c r="C63" s="207"/>
-      <c r="D63" s="207"/>
-      <c r="E63" s="207"/>
-      <c r="F63" s="207"/>
-      <c r="G63" s="207"/>
-      <c r="H63" s="207"/>
-      <c r="I63" s="207"/>
-      <c r="J63" s="207"/>
-      <c r="K63" s="207"/>
-      <c r="L63" s="207"/>
-      <c r="M63" s="207"/>
-      <c r="N63" s="207"/>
-      <c r="O63" s="208"/>
+      <c r="A63" s="171"/>
+      <c r="B63" s="172"/>
+      <c r="C63" s="175"/>
+      <c r="D63" s="175"/>
+      <c r="E63" s="175"/>
+      <c r="F63" s="175"/>
+      <c r="G63" s="175"/>
+      <c r="H63" s="175"/>
+      <c r="I63" s="175"/>
+      <c r="J63" s="175"/>
+      <c r="K63" s="175"/>
+      <c r="L63" s="175"/>
+      <c r="M63" s="175"/>
+      <c r="N63" s="175"/>
+      <c r="O63" s="176"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="45"/>
-      <c r="B64" s="209"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
-      <c r="E64" s="209"/>
-      <c r="F64" s="209"/>
-      <c r="G64" s="209"/>
-      <c r="H64" s="209"/>
-      <c r="I64" s="209"/>
-      <c r="J64" s="209"/>
-      <c r="K64" s="209"/>
-      <c r="L64" s="209"/>
-      <c r="M64" s="209"/>
-      <c r="N64" s="209"/>
-      <c r="O64" s="209"/>
+      <c r="B64" s="177"/>
+      <c r="C64" s="177"/>
+      <c r="D64" s="177"/>
+      <c r="E64" s="177"/>
+      <c r="F64" s="177"/>
+      <c r="G64" s="177"/>
+      <c r="H64" s="177"/>
+      <c r="I64" s="177"/>
+      <c r="J64" s="177"/>
+      <c r="K64" s="177"/>
+      <c r="L64" s="177"/>
+      <c r="M64" s="177"/>
+      <c r="N64" s="177"/>
+      <c r="O64" s="177"/>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46"/>
       <c r="B65" s="47"/>
-      <c r="C65" s="210" t="s">
+      <c r="C65" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="211"/>
-      <c r="E65" s="211"/>
-      <c r="F65" s="211"/>
-      <c r="G65" s="211"/>
-      <c r="H65" s="211"/>
-      <c r="I65" s="211"/>
-      <c r="J65" s="211"/>
-      <c r="K65" s="211"/>
-      <c r="L65" s="211"/>
-      <c r="M65" s="211"/>
-      <c r="N65" s="211"/>
-      <c r="O65" s="212"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="109"/>
     </row>
     <row r="66" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="49"/>
-      <c r="C66" s="213"/>
-      <c r="D66" s="214"/>
-      <c r="E66" s="214"/>
-      <c r="F66" s="214"/>
-      <c r="G66" s="214"/>
-      <c r="H66" s="214"/>
-      <c r="I66" s="214"/>
-      <c r="J66" s="214"/>
-      <c r="K66" s="214"/>
-      <c r="L66" s="214"/>
-      <c r="M66" s="214"/>
-      <c r="N66" s="214"/>
-      <c r="O66" s="215"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="111"/>
+      <c r="K66" s="111"/>
+      <c r="L66" s="111"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="112"/>
     </row>
     <row r="67" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
       <c r="B67" s="49"/>
-      <c r="C67" s="216" t="s">
+      <c r="C67" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="217"/>
-      <c r="E67" s="217"/>
-      <c r="F67" s="217"/>
-      <c r="G67" s="217"/>
-      <c r="H67" s="217"/>
-      <c r="I67" s="217"/>
-      <c r="J67" s="217"/>
-      <c r="K67" s="217"/>
-      <c r="L67" s="217"/>
-      <c r="M67" s="217"/>
-      <c r="N67" s="217"/>
-      <c r="O67" s="218"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="114"/>
+      <c r="O67" s="115"/>
     </row>
     <row r="68" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" s="49"/>
-      <c r="C68" s="125" t="s">
+      <c r="C68" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
-      <c r="M68" s="126"/>
-      <c r="N68" s="126"/>
-      <c r="O68" s="127"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
     </row>
     <row r="69" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50"/>
       <c r="B69" s="51"/>
-      <c r="C69" s="128"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="129"/>
-      <c r="G69" s="129"/>
-      <c r="H69" s="129"/>
-      <c r="I69" s="129"/>
-      <c r="J69" s="129"/>
-      <c r="K69" s="129"/>
-      <c r="L69" s="129"/>
-      <c r="M69" s="129"/>
-      <c r="N69" s="129"/>
-      <c r="O69" s="130"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
     </row>
     <row r="70" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="195" t="s">
+      <c r="A71" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="196"/>
-      <c r="C71" s="197"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="197"/>
-      <c r="F71" s="197"/>
-      <c r="G71" s="197"/>
-      <c r="H71" s="198" t="s">
+      <c r="B71" s="186"/>
+      <c r="C71" s="187"/>
+      <c r="D71" s="187"/>
+      <c r="E71" s="187"/>
+      <c r="F71" s="187"/>
+      <c r="G71" s="187"/>
+      <c r="H71" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="198"/>
-      <c r="J71" s="198"/>
-      <c r="K71" s="199"/>
-      <c r="L71" s="199"/>
-      <c r="M71" s="199"/>
-      <c r="N71" s="199"/>
-      <c r="O71" s="200"/>
+      <c r="I71" s="188"/>
+      <c r="J71" s="188"/>
+      <c r="K71" s="189"/>
+      <c r="L71" s="189"/>
+      <c r="M71" s="189"/>
+      <c r="N71" s="189"/>
+      <c r="O71" s="190"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="97"/>
       <c r="R71" s="97"/>
     </row>
     <row r="72" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="188" t="s">
+      <c r="A72" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="189"/>
-      <c r="C72" s="190"/>
-      <c r="D72" s="190"/>
-      <c r="E72" s="190"/>
-      <c r="F72" s="190"/>
-      <c r="G72" s="190"/>
-      <c r="H72" s="191" t="s">
+      <c r="B72" s="182"/>
+      <c r="C72" s="138"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="138"/>
+      <c r="F72" s="138"/>
+      <c r="G72" s="138"/>
+      <c r="H72" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="I72" s="191"/>
-      <c r="J72" s="191"/>
-      <c r="K72" s="190"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="190"/>
-      <c r="N72" s="190"/>
-      <c r="O72" s="192"/>
+      <c r="I72" s="183"/>
+      <c r="J72" s="183"/>
+      <c r="K72" s="138"/>
+      <c r="L72" s="138"/>
+      <c r="M72" s="138"/>
+      <c r="N72" s="138"/>
+      <c r="O72" s="184"/>
       <c r="P72" s="96"/>
       <c r="Q72" s="97"/>
       <c r="R72" s="97"/>
     </row>
     <row r="73" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="188" t="s">
+      <c r="A73" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="189"/>
-      <c r="C73" s="190"/>
-      <c r="D73" s="190"/>
-      <c r="E73" s="190"/>
-      <c r="F73" s="190"/>
-      <c r="G73" s="190"/>
-      <c r="H73" s="191" t="s">
+      <c r="B73" s="182"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="138"/>
+      <c r="F73" s="138"/>
+      <c r="G73" s="138"/>
+      <c r="H73" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="I73" s="191"/>
-      <c r="J73" s="191"/>
-      <c r="K73" s="190"/>
-      <c r="L73" s="190"/>
-      <c r="M73" s="190"/>
-      <c r="N73" s="190"/>
-      <c r="O73" s="192"/>
+      <c r="I73" s="183"/>
+      <c r="J73" s="183"/>
+      <c r="K73" s="138"/>
+      <c r="L73" s="138"/>
+      <c r="M73" s="138"/>
+      <c r="N73" s="138"/>
+      <c r="O73" s="184"/>
       <c r="P73" s="96"/>
       <c r="Q73" s="97"/>
       <c r="R73" s="97"/>
     </row>
     <row r="74" spans="1:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="188" t="s">
+      <c r="A74" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="189"/>
-      <c r="C74" s="193"/>
-      <c r="D74" s="193"/>
-      <c r="E74" s="193"/>
-      <c r="F74" s="193"/>
-      <c r="G74" s="193"/>
-      <c r="H74" s="193"/>
-      <c r="I74" s="193"/>
-      <c r="J74" s="193"/>
-      <c r="K74" s="193"/>
-      <c r="L74" s="193"/>
-      <c r="M74" s="193"/>
-      <c r="N74" s="193"/>
-      <c r="O74" s="194"/>
+      <c r="B74" s="182"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="124"/>
+      <c r="N74" s="124"/>
+      <c r="O74" s="126"/>
       <c r="P74" s="96"/>
       <c r="Q74" s="97"/>
       <c r="R74" s="97"/>
@@ -6530,1162 +6548,1162 @@
       <c r="R76" s="97"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="171" t="s">
+      <c r="A77" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="171"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
-      <c r="E77" s="171"/>
-      <c r="F77" s="171"/>
-      <c r="G77" s="171"/>
-      <c r="H77" s="171"/>
-      <c r="I77" s="171"/>
-      <c r="J77" s="171"/>
-      <c r="K77" s="171"/>
-      <c r="L77" s="171"/>
-      <c r="M77" s="171"/>
-      <c r="N77" s="171"/>
-      <c r="O77" s="171"/>
+      <c r="B77" s="204"/>
+      <c r="C77" s="204"/>
+      <c r="D77" s="204"/>
+      <c r="E77" s="204"/>
+      <c r="F77" s="204"/>
+      <c r="G77" s="204"/>
+      <c r="H77" s="204"/>
+      <c r="I77" s="204"/>
+      <c r="J77" s="204"/>
+      <c r="K77" s="204"/>
+      <c r="L77" s="204"/>
+      <c r="M77" s="204"/>
+      <c r="N77" s="204"/>
+      <c r="O77" s="204"/>
       <c r="P77" s="96"/>
       <c r="Q77" s="97"/>
       <c r="R77" s="97"/>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="170" t="s">
+      <c r="A79" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="170"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="170"/>
-      <c r="G79" s="170"/>
-      <c r="H79" s="170"/>
-      <c r="I79" s="170"/>
-      <c r="J79" s="170"/>
-      <c r="K79" s="170"/>
-      <c r="L79" s="170"/>
-      <c r="M79" s="170"/>
-      <c r="N79" s="170"/>
-      <c r="O79" s="170"/>
+      <c r="B79" s="191"/>
+      <c r="C79" s="191"/>
+      <c r="D79" s="191"/>
+      <c r="E79" s="191"/>
+      <c r="F79" s="191"/>
+      <c r="G79" s="191"/>
+      <c r="H79" s="191"/>
+      <c r="I79" s="191"/>
+      <c r="J79" s="191"/>
+      <c r="K79" s="191"/>
+      <c r="L79" s="191"/>
+      <c r="M79" s="191"/>
+      <c r="N79" s="191"/>
+      <c r="O79" s="191"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="172" t="s">
+      <c r="A80" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
-      <c r="E80" s="173"/>
-      <c r="F80" s="173"/>
-      <c r="G80" s="174"/>
-      <c r="H80" s="172" t="s">
+      <c r="B80" s="206"/>
+      <c r="C80" s="206"/>
+      <c r="D80" s="206"/>
+      <c r="E80" s="206"/>
+      <c r="F80" s="206"/>
+      <c r="G80" s="207"/>
+      <c r="H80" s="205" t="s">
         <v>64</v>
       </c>
-      <c r="I80" s="173"/>
-      <c r="J80" s="173"/>
-      <c r="K80" s="173"/>
-      <c r="L80" s="173"/>
-      <c r="M80" s="173"/>
-      <c r="N80" s="173"/>
-      <c r="O80" s="175"/>
+      <c r="I80" s="206"/>
+      <c r="J80" s="206"/>
+      <c r="K80" s="206"/>
+      <c r="L80" s="206"/>
+      <c r="M80" s="206"/>
+      <c r="N80" s="206"/>
+      <c r="O80" s="208"/>
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="176"/>
-      <c r="B81" s="177"/>
-      <c r="C81" s="177"/>
-      <c r="D81" s="177"/>
-      <c r="E81" s="177"/>
-      <c r="F81" s="177"/>
-      <c r="G81" s="178"/>
-      <c r="H81" s="176"/>
-      <c r="I81" s="177"/>
-      <c r="J81" s="177"/>
-      <c r="K81" s="177"/>
-      <c r="L81" s="177"/>
-      <c r="M81" s="177"/>
-      <c r="N81" s="177"/>
-      <c r="O81" s="185"/>
+      <c r="A81" s="209"/>
+      <c r="B81" s="210"/>
+      <c r="C81" s="210"/>
+      <c r="D81" s="210"/>
+      <c r="E81" s="210"/>
+      <c r="F81" s="210"/>
+      <c r="G81" s="211"/>
+      <c r="H81" s="209"/>
+      <c r="I81" s="210"/>
+      <c r="J81" s="210"/>
+      <c r="K81" s="210"/>
+      <c r="L81" s="210"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="210"/>
+      <c r="O81" s="218"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="179"/>
-      <c r="B82" s="180"/>
-      <c r="C82" s="180"/>
-      <c r="D82" s="180"/>
-      <c r="E82" s="180"/>
-      <c r="F82" s="180"/>
-      <c r="G82" s="181"/>
-      <c r="H82" s="179"/>
-      <c r="I82" s="180"/>
-      <c r="J82" s="180"/>
-      <c r="K82" s="180"/>
-      <c r="L82" s="180"/>
-      <c r="M82" s="180"/>
-      <c r="N82" s="180"/>
-      <c r="O82" s="186"/>
+      <c r="A82" s="212"/>
+      <c r="B82" s="213"/>
+      <c r="C82" s="213"/>
+      <c r="D82" s="213"/>
+      <c r="E82" s="213"/>
+      <c r="F82" s="213"/>
+      <c r="G82" s="214"/>
+      <c r="H82" s="212"/>
+      <c r="I82" s="213"/>
+      <c r="J82" s="213"/>
+      <c r="K82" s="213"/>
+      <c r="L82" s="213"/>
+      <c r="M82" s="213"/>
+      <c r="N82" s="213"/>
+      <c r="O82" s="219"/>
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="179"/>
-      <c r="B83" s="180"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
-      <c r="E83" s="180"/>
-      <c r="F83" s="180"/>
-      <c r="G83" s="181"/>
-      <c r="H83" s="179"/>
-      <c r="I83" s="180"/>
-      <c r="J83" s="180"/>
-      <c r="K83" s="180"/>
-      <c r="L83" s="180"/>
-      <c r="M83" s="180"/>
-      <c r="N83" s="180"/>
-      <c r="O83" s="186"/>
+      <c r="A83" s="212"/>
+      <c r="B83" s="213"/>
+      <c r="C83" s="213"/>
+      <c r="D83" s="213"/>
+      <c r="E83" s="213"/>
+      <c r="F83" s="213"/>
+      <c r="G83" s="214"/>
+      <c r="H83" s="212"/>
+      <c r="I83" s="213"/>
+      <c r="J83" s="213"/>
+      <c r="K83" s="213"/>
+      <c r="L83" s="213"/>
+      <c r="M83" s="213"/>
+      <c r="N83" s="213"/>
+      <c r="O83" s="219"/>
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="179"/>
-      <c r="B84" s="180"/>
-      <c r="C84" s="180"/>
-      <c r="D84" s="180"/>
-      <c r="E84" s="180"/>
-      <c r="F84" s="180"/>
-      <c r="G84" s="181"/>
-      <c r="H84" s="179"/>
-      <c r="I84" s="180"/>
-      <c r="J84" s="180"/>
-      <c r="K84" s="180"/>
-      <c r="L84" s="180"/>
-      <c r="M84" s="180"/>
-      <c r="N84" s="180"/>
-      <c r="O84" s="186"/>
+      <c r="A84" s="212"/>
+      <c r="B84" s="213"/>
+      <c r="C84" s="213"/>
+      <c r="D84" s="213"/>
+      <c r="E84" s="213"/>
+      <c r="F84" s="213"/>
+      <c r="G84" s="214"/>
+      <c r="H84" s="212"/>
+      <c r="I84" s="213"/>
+      <c r="J84" s="213"/>
+      <c r="K84" s="213"/>
+      <c r="L84" s="213"/>
+      <c r="M84" s="213"/>
+      <c r="N84" s="213"/>
+      <c r="O84" s="219"/>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="179"/>
-      <c r="B85" s="180"/>
-      <c r="C85" s="180"/>
-      <c r="D85" s="180"/>
-      <c r="E85" s="180"/>
-      <c r="F85" s="180"/>
-      <c r="G85" s="181"/>
-      <c r="H85" s="179"/>
-      <c r="I85" s="180"/>
-      <c r="J85" s="180"/>
-      <c r="K85" s="180"/>
-      <c r="L85" s="180"/>
-      <c r="M85" s="180"/>
-      <c r="N85" s="180"/>
-      <c r="O85" s="186"/>
+      <c r="A85" s="212"/>
+      <c r="B85" s="213"/>
+      <c r="C85" s="213"/>
+      <c r="D85" s="213"/>
+      <c r="E85" s="213"/>
+      <c r="F85" s="213"/>
+      <c r="G85" s="214"/>
+      <c r="H85" s="212"/>
+      <c r="I85" s="213"/>
+      <c r="J85" s="213"/>
+      <c r="K85" s="213"/>
+      <c r="L85" s="213"/>
+      <c r="M85" s="213"/>
+      <c r="N85" s="213"/>
+      <c r="O85" s="219"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="179"/>
-      <c r="B86" s="180"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="180"/>
-      <c r="F86" s="180"/>
-      <c r="G86" s="181"/>
-      <c r="H86" s="179"/>
-      <c r="I86" s="180"/>
-      <c r="J86" s="180"/>
-      <c r="K86" s="180"/>
-      <c r="L86" s="180"/>
-      <c r="M86" s="180"/>
-      <c r="N86" s="180"/>
-      <c r="O86" s="186"/>
+      <c r="A86" s="212"/>
+      <c r="B86" s="213"/>
+      <c r="C86" s="213"/>
+      <c r="D86" s="213"/>
+      <c r="E86" s="213"/>
+      <c r="F86" s="213"/>
+      <c r="G86" s="214"/>
+      <c r="H86" s="212"/>
+      <c r="I86" s="213"/>
+      <c r="J86" s="213"/>
+      <c r="K86" s="213"/>
+      <c r="L86" s="213"/>
+      <c r="M86" s="213"/>
+      <c r="N86" s="213"/>
+      <c r="O86" s="219"/>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="179"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
-      <c r="F87" s="180"/>
-      <c r="G87" s="181"/>
-      <c r="H87" s="179"/>
-      <c r="I87" s="180"/>
-      <c r="J87" s="180"/>
-      <c r="K87" s="180"/>
-      <c r="L87" s="180"/>
-      <c r="M87" s="180"/>
-      <c r="N87" s="180"/>
-      <c r="O87" s="186"/>
+      <c r="A87" s="212"/>
+      <c r="B87" s="213"/>
+      <c r="C87" s="213"/>
+      <c r="D87" s="213"/>
+      <c r="E87" s="213"/>
+      <c r="F87" s="213"/>
+      <c r="G87" s="214"/>
+      <c r="H87" s="212"/>
+      <c r="I87" s="213"/>
+      <c r="J87" s="213"/>
+      <c r="K87" s="213"/>
+      <c r="L87" s="213"/>
+      <c r="M87" s="213"/>
+      <c r="N87" s="213"/>
+      <c r="O87" s="219"/>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="179"/>
-      <c r="B88" s="180"/>
-      <c r="C88" s="180"/>
-      <c r="D88" s="180"/>
-      <c r="E88" s="180"/>
-      <c r="F88" s="180"/>
-      <c r="G88" s="181"/>
-      <c r="H88" s="179"/>
-      <c r="I88" s="180"/>
-      <c r="J88" s="180"/>
-      <c r="K88" s="180"/>
-      <c r="L88" s="180"/>
-      <c r="M88" s="180"/>
-      <c r="N88" s="180"/>
-      <c r="O88" s="186"/>
+      <c r="A88" s="212"/>
+      <c r="B88" s="213"/>
+      <c r="C88" s="213"/>
+      <c r="D88" s="213"/>
+      <c r="E88" s="213"/>
+      <c r="F88" s="213"/>
+      <c r="G88" s="214"/>
+      <c r="H88" s="212"/>
+      <c r="I88" s="213"/>
+      <c r="J88" s="213"/>
+      <c r="K88" s="213"/>
+      <c r="L88" s="213"/>
+      <c r="M88" s="213"/>
+      <c r="N88" s="213"/>
+      <c r="O88" s="219"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="179"/>
-      <c r="B89" s="180"/>
-      <c r="C89" s="180"/>
-      <c r="D89" s="180"/>
-      <c r="E89" s="180"/>
-      <c r="F89" s="180"/>
-      <c r="G89" s="181"/>
-      <c r="H89" s="179"/>
-      <c r="I89" s="180"/>
-      <c r="J89" s="180"/>
-      <c r="K89" s="180"/>
-      <c r="L89" s="180"/>
-      <c r="M89" s="180"/>
-      <c r="N89" s="180"/>
-      <c r="O89" s="186"/>
+      <c r="A89" s="212"/>
+      <c r="B89" s="213"/>
+      <c r="C89" s="213"/>
+      <c r="D89" s="213"/>
+      <c r="E89" s="213"/>
+      <c r="F89" s="213"/>
+      <c r="G89" s="214"/>
+      <c r="H89" s="212"/>
+      <c r="I89" s="213"/>
+      <c r="J89" s="213"/>
+      <c r="K89" s="213"/>
+      <c r="L89" s="213"/>
+      <c r="M89" s="213"/>
+      <c r="N89" s="213"/>
+      <c r="O89" s="219"/>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="179"/>
-      <c r="B90" s="180"/>
-      <c r="C90" s="180"/>
-      <c r="D90" s="180"/>
-      <c r="E90" s="180"/>
-      <c r="F90" s="180"/>
-      <c r="G90" s="181"/>
-      <c r="H90" s="179"/>
-      <c r="I90" s="180"/>
-      <c r="J90" s="180"/>
-      <c r="K90" s="180"/>
-      <c r="L90" s="180"/>
-      <c r="M90" s="180"/>
-      <c r="N90" s="180"/>
-      <c r="O90" s="186"/>
+      <c r="A90" s="212"/>
+      <c r="B90" s="213"/>
+      <c r="C90" s="213"/>
+      <c r="D90" s="213"/>
+      <c r="E90" s="213"/>
+      <c r="F90" s="213"/>
+      <c r="G90" s="214"/>
+      <c r="H90" s="212"/>
+      <c r="I90" s="213"/>
+      <c r="J90" s="213"/>
+      <c r="K90" s="213"/>
+      <c r="L90" s="213"/>
+      <c r="M90" s="213"/>
+      <c r="N90" s="213"/>
+      <c r="O90" s="219"/>
     </row>
     <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="179"/>
-      <c r="B91" s="180"/>
-      <c r="C91" s="180"/>
-      <c r="D91" s="180"/>
-      <c r="E91" s="180"/>
-      <c r="F91" s="180"/>
-      <c r="G91" s="181"/>
-      <c r="H91" s="179"/>
-      <c r="I91" s="180"/>
-      <c r="J91" s="180"/>
-      <c r="K91" s="180"/>
-      <c r="L91" s="180"/>
-      <c r="M91" s="180"/>
-      <c r="N91" s="180"/>
-      <c r="O91" s="186"/>
+      <c r="A91" s="212"/>
+      <c r="B91" s="213"/>
+      <c r="C91" s="213"/>
+      <c r="D91" s="213"/>
+      <c r="E91" s="213"/>
+      <c r="F91" s="213"/>
+      <c r="G91" s="214"/>
+      <c r="H91" s="212"/>
+      <c r="I91" s="213"/>
+      <c r="J91" s="213"/>
+      <c r="K91" s="213"/>
+      <c r="L91" s="213"/>
+      <c r="M91" s="213"/>
+      <c r="N91" s="213"/>
+      <c r="O91" s="219"/>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="182"/>
-      <c r="B92" s="183"/>
-      <c r="C92" s="183"/>
-      <c r="D92" s="183"/>
-      <c r="E92" s="183"/>
-      <c r="F92" s="183"/>
-      <c r="G92" s="184"/>
-      <c r="H92" s="182"/>
-      <c r="I92" s="183"/>
-      <c r="J92" s="183"/>
-      <c r="K92" s="183"/>
-      <c r="L92" s="183"/>
-      <c r="M92" s="183"/>
-      <c r="N92" s="183"/>
-      <c r="O92" s="187"/>
+      <c r="A92" s="215"/>
+      <c r="B92" s="216"/>
+      <c r="C92" s="216"/>
+      <c r="D92" s="216"/>
+      <c r="E92" s="216"/>
+      <c r="F92" s="216"/>
+      <c r="G92" s="217"/>
+      <c r="H92" s="215"/>
+      <c r="I92" s="216"/>
+      <c r="J92" s="216"/>
+      <c r="K92" s="216"/>
+      <c r="L92" s="216"/>
+      <c r="M92" s="216"/>
+      <c r="N92" s="216"/>
+      <c r="O92" s="220"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="170" t="s">
+      <c r="A93" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="170"/>
-      <c r="C93" s="170"/>
-      <c r="D93" s="170"/>
-      <c r="E93" s="170"/>
-      <c r="F93" s="170"/>
-      <c r="G93" s="170"/>
-      <c r="H93" s="170"/>
-      <c r="I93" s="170"/>
-      <c r="J93" s="170"/>
-      <c r="K93" s="170"/>
-      <c r="L93" s="170"/>
-      <c r="M93" s="170"/>
-      <c r="N93" s="170"/>
-      <c r="O93" s="170"/>
+      <c r="B93" s="191"/>
+      <c r="C93" s="191"/>
+      <c r="D93" s="191"/>
+      <c r="E93" s="191"/>
+      <c r="F93" s="191"/>
+      <c r="G93" s="191"/>
+      <c r="H93" s="191"/>
+      <c r="I93" s="191"/>
+      <c r="J93" s="191"/>
+      <c r="K93" s="191"/>
+      <c r="L93" s="191"/>
+      <c r="M93" s="191"/>
+      <c r="N93" s="191"/>
+      <c r="O93" s="191"/>
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="158" t="s">
+      <c r="A94" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="159"/>
-      <c r="C94" s="159"/>
-      <c r="D94" s="159"/>
-      <c r="E94" s="159"/>
-      <c r="F94" s="159"/>
-      <c r="G94" s="159"/>
-      <c r="H94" s="158" t="s">
+      <c r="B94" s="193"/>
+      <c r="C94" s="193"/>
+      <c r="D94" s="193"/>
+      <c r="E94" s="193"/>
+      <c r="F94" s="193"/>
+      <c r="G94" s="193"/>
+      <c r="H94" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="I94" s="159"/>
-      <c r="J94" s="159"/>
-      <c r="K94" s="159"/>
-      <c r="L94" s="159"/>
-      <c r="M94" s="159"/>
-      <c r="N94" s="159"/>
-      <c r="O94" s="160"/>
+      <c r="I94" s="193"/>
+      <c r="J94" s="193"/>
+      <c r="K94" s="193"/>
+      <c r="L94" s="193"/>
+      <c r="M94" s="193"/>
+      <c r="N94" s="193"/>
+      <c r="O94" s="194"/>
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="161"/>
-      <c r="B95" s="162"/>
-      <c r="C95" s="162"/>
-      <c r="D95" s="162"/>
-      <c r="E95" s="162"/>
-      <c r="F95" s="162"/>
-      <c r="G95" s="163"/>
-      <c r="H95" s="161"/>
-      <c r="I95" s="162"/>
-      <c r="J95" s="162"/>
-      <c r="K95" s="162"/>
-      <c r="L95" s="162"/>
-      <c r="M95" s="162"/>
-      <c r="N95" s="162"/>
-      <c r="O95" s="163"/>
+      <c r="A95" s="195"/>
+      <c r="B95" s="196"/>
+      <c r="C95" s="196"/>
+      <c r="D95" s="196"/>
+      <c r="E95" s="196"/>
+      <c r="F95" s="196"/>
+      <c r="G95" s="197"/>
+      <c r="H95" s="195"/>
+      <c r="I95" s="196"/>
+      <c r="J95" s="196"/>
+      <c r="K95" s="196"/>
+      <c r="L95" s="196"/>
+      <c r="M95" s="196"/>
+      <c r="N95" s="196"/>
+      <c r="O95" s="197"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="164"/>
-      <c r="B96" s="165"/>
-      <c r="C96" s="165"/>
-      <c r="D96" s="165"/>
-      <c r="E96" s="165"/>
-      <c r="F96" s="165"/>
-      <c r="G96" s="166"/>
-      <c r="H96" s="164"/>
-      <c r="I96" s="165"/>
-      <c r="J96" s="165"/>
-      <c r="K96" s="165"/>
-      <c r="L96" s="165"/>
-      <c r="M96" s="165"/>
-      <c r="N96" s="165"/>
-      <c r="O96" s="166"/>
+      <c r="A96" s="198"/>
+      <c r="B96" s="199"/>
+      <c r="C96" s="199"/>
+      <c r="D96" s="199"/>
+      <c r="E96" s="199"/>
+      <c r="F96" s="199"/>
+      <c r="G96" s="200"/>
+      <c r="H96" s="198"/>
+      <c r="I96" s="199"/>
+      <c r="J96" s="199"/>
+      <c r="K96" s="199"/>
+      <c r="L96" s="199"/>
+      <c r="M96" s="199"/>
+      <c r="N96" s="199"/>
+      <c r="O96" s="200"/>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="164"/>
-      <c r="B97" s="165"/>
-      <c r="C97" s="165"/>
-      <c r="D97" s="165"/>
-      <c r="E97" s="165"/>
-      <c r="F97" s="165"/>
-      <c r="G97" s="166"/>
-      <c r="H97" s="164"/>
-      <c r="I97" s="165"/>
-      <c r="J97" s="165"/>
-      <c r="K97" s="165"/>
-      <c r="L97" s="165"/>
-      <c r="M97" s="165"/>
-      <c r="N97" s="165"/>
-      <c r="O97" s="166"/>
+      <c r="A97" s="198"/>
+      <c r="B97" s="199"/>
+      <c r="C97" s="199"/>
+      <c r="D97" s="199"/>
+      <c r="E97" s="199"/>
+      <c r="F97" s="199"/>
+      <c r="G97" s="200"/>
+      <c r="H97" s="198"/>
+      <c r="I97" s="199"/>
+      <c r="J97" s="199"/>
+      <c r="K97" s="199"/>
+      <c r="L97" s="199"/>
+      <c r="M97" s="199"/>
+      <c r="N97" s="199"/>
+      <c r="O97" s="200"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="164"/>
-      <c r="B98" s="165"/>
-      <c r="C98" s="165"/>
-      <c r="D98" s="165"/>
-      <c r="E98" s="165"/>
-      <c r="F98" s="165"/>
-      <c r="G98" s="166"/>
-      <c r="H98" s="164"/>
-      <c r="I98" s="165"/>
-      <c r="J98" s="165"/>
-      <c r="K98" s="165"/>
-      <c r="L98" s="165"/>
-      <c r="M98" s="165"/>
-      <c r="N98" s="165"/>
-      <c r="O98" s="166"/>
+      <c r="A98" s="198"/>
+      <c r="B98" s="199"/>
+      <c r="C98" s="199"/>
+      <c r="D98" s="199"/>
+      <c r="E98" s="199"/>
+      <c r="F98" s="199"/>
+      <c r="G98" s="200"/>
+      <c r="H98" s="198"/>
+      <c r="I98" s="199"/>
+      <c r="J98" s="199"/>
+      <c r="K98" s="199"/>
+      <c r="L98" s="199"/>
+      <c r="M98" s="199"/>
+      <c r="N98" s="199"/>
+      <c r="O98" s="200"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="164"/>
-      <c r="B99" s="165"/>
-      <c r="C99" s="165"/>
-      <c r="D99" s="165"/>
-      <c r="E99" s="165"/>
-      <c r="F99" s="165"/>
-      <c r="G99" s="166"/>
-      <c r="H99" s="164"/>
-      <c r="I99" s="165"/>
-      <c r="J99" s="165"/>
-      <c r="K99" s="165"/>
-      <c r="L99" s="165"/>
-      <c r="M99" s="165"/>
-      <c r="N99" s="165"/>
-      <c r="O99" s="166"/>
+      <c r="A99" s="198"/>
+      <c r="B99" s="199"/>
+      <c r="C99" s="199"/>
+      <c r="D99" s="199"/>
+      <c r="E99" s="199"/>
+      <c r="F99" s="199"/>
+      <c r="G99" s="200"/>
+      <c r="H99" s="198"/>
+      <c r="I99" s="199"/>
+      <c r="J99" s="199"/>
+      <c r="K99" s="199"/>
+      <c r="L99" s="199"/>
+      <c r="M99" s="199"/>
+      <c r="N99" s="199"/>
+      <c r="O99" s="200"/>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="164"/>
-      <c r="B100" s="165"/>
-      <c r="C100" s="165"/>
-      <c r="D100" s="165"/>
-      <c r="E100" s="165"/>
-      <c r="F100" s="165"/>
-      <c r="G100" s="166"/>
-      <c r="H100" s="164"/>
-      <c r="I100" s="165"/>
-      <c r="J100" s="165"/>
-      <c r="K100" s="165"/>
-      <c r="L100" s="165"/>
-      <c r="M100" s="165"/>
-      <c r="N100" s="165"/>
-      <c r="O100" s="166"/>
+      <c r="A100" s="198"/>
+      <c r="B100" s="199"/>
+      <c r="C100" s="199"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="199"/>
+      <c r="F100" s="199"/>
+      <c r="G100" s="200"/>
+      <c r="H100" s="198"/>
+      <c r="I100" s="199"/>
+      <c r="J100" s="199"/>
+      <c r="K100" s="199"/>
+      <c r="L100" s="199"/>
+      <c r="M100" s="199"/>
+      <c r="N100" s="199"/>
+      <c r="O100" s="200"/>
     </row>
     <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="164"/>
-      <c r="B101" s="165"/>
-      <c r="C101" s="165"/>
-      <c r="D101" s="165"/>
-      <c r="E101" s="165"/>
-      <c r="F101" s="165"/>
-      <c r="G101" s="166"/>
-      <c r="H101" s="164"/>
-      <c r="I101" s="165"/>
-      <c r="J101" s="165"/>
-      <c r="K101" s="165"/>
-      <c r="L101" s="165"/>
-      <c r="M101" s="165"/>
-      <c r="N101" s="165"/>
-      <c r="O101" s="166"/>
+      <c r="A101" s="198"/>
+      <c r="B101" s="199"/>
+      <c r="C101" s="199"/>
+      <c r="D101" s="199"/>
+      <c r="E101" s="199"/>
+      <c r="F101" s="199"/>
+      <c r="G101" s="200"/>
+      <c r="H101" s="198"/>
+      <c r="I101" s="199"/>
+      <c r="J101" s="199"/>
+      <c r="K101" s="199"/>
+      <c r="L101" s="199"/>
+      <c r="M101" s="199"/>
+      <c r="N101" s="199"/>
+      <c r="O101" s="200"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="164"/>
-      <c r="B102" s="165"/>
-      <c r="C102" s="165"/>
-      <c r="D102" s="165"/>
-      <c r="E102" s="165"/>
-      <c r="F102" s="165"/>
-      <c r="G102" s="166"/>
-      <c r="H102" s="164"/>
-      <c r="I102" s="165"/>
-      <c r="J102" s="165"/>
-      <c r="K102" s="165"/>
-      <c r="L102" s="165"/>
-      <c r="M102" s="165"/>
-      <c r="N102" s="165"/>
-      <c r="O102" s="166"/>
+      <c r="A102" s="198"/>
+      <c r="B102" s="199"/>
+      <c r="C102" s="199"/>
+      <c r="D102" s="199"/>
+      <c r="E102" s="199"/>
+      <c r="F102" s="199"/>
+      <c r="G102" s="200"/>
+      <c r="H102" s="198"/>
+      <c r="I102" s="199"/>
+      <c r="J102" s="199"/>
+      <c r="K102" s="199"/>
+      <c r="L102" s="199"/>
+      <c r="M102" s="199"/>
+      <c r="N102" s="199"/>
+      <c r="O102" s="200"/>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="164"/>
-      <c r="B103" s="165"/>
-      <c r="C103" s="165"/>
-      <c r="D103" s="165"/>
-      <c r="E103" s="165"/>
-      <c r="F103" s="165"/>
-      <c r="G103" s="166"/>
-      <c r="H103" s="164"/>
-      <c r="I103" s="165"/>
-      <c r="J103" s="165"/>
-      <c r="K103" s="165"/>
-      <c r="L103" s="165"/>
-      <c r="M103" s="165"/>
-      <c r="N103" s="165"/>
-      <c r="O103" s="166"/>
+      <c r="A103" s="198"/>
+      <c r="B103" s="199"/>
+      <c r="C103" s="199"/>
+      <c r="D103" s="199"/>
+      <c r="E103" s="199"/>
+      <c r="F103" s="199"/>
+      <c r="G103" s="200"/>
+      <c r="H103" s="198"/>
+      <c r="I103" s="199"/>
+      <c r="J103" s="199"/>
+      <c r="K103" s="199"/>
+      <c r="L103" s="199"/>
+      <c r="M103" s="199"/>
+      <c r="N103" s="199"/>
+      <c r="O103" s="200"/>
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="164"/>
-      <c r="B104" s="165"/>
-      <c r="C104" s="165"/>
-      <c r="D104" s="165"/>
-      <c r="E104" s="165"/>
-      <c r="F104" s="165"/>
-      <c r="G104" s="166"/>
-      <c r="H104" s="164"/>
-      <c r="I104" s="165"/>
-      <c r="J104" s="165"/>
-      <c r="K104" s="165"/>
-      <c r="L104" s="165"/>
-      <c r="M104" s="165"/>
-      <c r="N104" s="165"/>
-      <c r="O104" s="166"/>
+      <c r="A104" s="198"/>
+      <c r="B104" s="199"/>
+      <c r="C104" s="199"/>
+      <c r="D104" s="199"/>
+      <c r="E104" s="199"/>
+      <c r="F104" s="199"/>
+      <c r="G104" s="200"/>
+      <c r="H104" s="198"/>
+      <c r="I104" s="199"/>
+      <c r="J104" s="199"/>
+      <c r="K104" s="199"/>
+      <c r="L104" s="199"/>
+      <c r="M104" s="199"/>
+      <c r="N104" s="199"/>
+      <c r="O104" s="200"/>
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="164"/>
-      <c r="B105" s="165"/>
-      <c r="C105" s="165"/>
-      <c r="D105" s="165"/>
-      <c r="E105" s="165"/>
-      <c r="F105" s="165"/>
-      <c r="G105" s="166"/>
-      <c r="H105" s="164"/>
-      <c r="I105" s="165"/>
-      <c r="J105" s="165"/>
-      <c r="K105" s="165"/>
-      <c r="L105" s="165"/>
-      <c r="M105" s="165"/>
-      <c r="N105" s="165"/>
-      <c r="O105" s="166"/>
+      <c r="A105" s="198"/>
+      <c r="B105" s="199"/>
+      <c r="C105" s="199"/>
+      <c r="D105" s="199"/>
+      <c r="E105" s="199"/>
+      <c r="F105" s="199"/>
+      <c r="G105" s="200"/>
+      <c r="H105" s="198"/>
+      <c r="I105" s="199"/>
+      <c r="J105" s="199"/>
+      <c r="K105" s="199"/>
+      <c r="L105" s="199"/>
+      <c r="M105" s="199"/>
+      <c r="N105" s="199"/>
+      <c r="O105" s="200"/>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="167"/>
-      <c r="B106" s="168"/>
-      <c r="C106" s="168"/>
-      <c r="D106" s="168"/>
-      <c r="E106" s="168"/>
-      <c r="F106" s="168"/>
-      <c r="G106" s="169"/>
-      <c r="H106" s="167"/>
-      <c r="I106" s="168"/>
-      <c r="J106" s="168"/>
-      <c r="K106" s="168"/>
-      <c r="L106" s="168"/>
-      <c r="M106" s="168"/>
-      <c r="N106" s="168"/>
-      <c r="O106" s="169"/>
+      <c r="A106" s="201"/>
+      <c r="B106" s="202"/>
+      <c r="C106" s="202"/>
+      <c r="D106" s="202"/>
+      <c r="E106" s="202"/>
+      <c r="F106" s="202"/>
+      <c r="G106" s="203"/>
+      <c r="H106" s="201"/>
+      <c r="I106" s="202"/>
+      <c r="J106" s="202"/>
+      <c r="K106" s="202"/>
+      <c r="L106" s="202"/>
+      <c r="M106" s="202"/>
+      <c r="N106" s="202"/>
+      <c r="O106" s="203"/>
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="170" t="s">
+      <c r="A107" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="B107" s="170"/>
-      <c r="C107" s="170"/>
-      <c r="D107" s="170"/>
-      <c r="E107" s="170"/>
-      <c r="F107" s="170"/>
-      <c r="G107" s="170"/>
-      <c r="H107" s="170"/>
-      <c r="I107" s="170"/>
-      <c r="J107" s="170"/>
-      <c r="K107" s="170"/>
-      <c r="L107" s="170"/>
-      <c r="M107" s="170"/>
-      <c r="N107" s="170"/>
-      <c r="O107" s="170"/>
+      <c r="B107" s="191"/>
+      <c r="C107" s="191"/>
+      <c r="D107" s="191"/>
+      <c r="E107" s="191"/>
+      <c r="F107" s="191"/>
+      <c r="G107" s="191"/>
+      <c r="H107" s="191"/>
+      <c r="I107" s="191"/>
+      <c r="J107" s="191"/>
+      <c r="K107" s="191"/>
+      <c r="L107" s="191"/>
+      <c r="M107" s="191"/>
+      <c r="N107" s="191"/>
+      <c r="O107" s="191"/>
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="158" t="s">
+      <c r="A108" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="B108" s="159"/>
-      <c r="C108" s="159"/>
-      <c r="D108" s="159"/>
-      <c r="E108" s="159"/>
-      <c r="F108" s="159"/>
-      <c r="G108" s="159"/>
-      <c r="H108" s="158" t="s">
+      <c r="B108" s="193"/>
+      <c r="C108" s="193"/>
+      <c r="D108" s="193"/>
+      <c r="E108" s="193"/>
+      <c r="F108" s="193"/>
+      <c r="G108" s="193"/>
+      <c r="H108" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="I108" s="159"/>
-      <c r="J108" s="159"/>
-      <c r="K108" s="159"/>
-      <c r="L108" s="159"/>
-      <c r="M108" s="159"/>
-      <c r="N108" s="159"/>
-      <c r="O108" s="160"/>
+      <c r="I108" s="193"/>
+      <c r="J108" s="193"/>
+      <c r="K108" s="193"/>
+      <c r="L108" s="193"/>
+      <c r="M108" s="193"/>
+      <c r="N108" s="193"/>
+      <c r="O108" s="194"/>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="161"/>
-      <c r="B109" s="162"/>
-      <c r="C109" s="162"/>
-      <c r="D109" s="162"/>
-      <c r="E109" s="162"/>
-      <c r="F109" s="162"/>
-      <c r="G109" s="163"/>
-      <c r="H109" s="161"/>
-      <c r="I109" s="162"/>
-      <c r="J109" s="162"/>
-      <c r="K109" s="162"/>
-      <c r="L109" s="162"/>
-      <c r="M109" s="162"/>
-      <c r="N109" s="162"/>
-      <c r="O109" s="163"/>
+      <c r="A109" s="195"/>
+      <c r="B109" s="196"/>
+      <c r="C109" s="196"/>
+      <c r="D109" s="196"/>
+      <c r="E109" s="196"/>
+      <c r="F109" s="196"/>
+      <c r="G109" s="197"/>
+      <c r="H109" s="195"/>
+      <c r="I109" s="196"/>
+      <c r="J109" s="196"/>
+      <c r="K109" s="196"/>
+      <c r="L109" s="196"/>
+      <c r="M109" s="196"/>
+      <c r="N109" s="196"/>
+      <c r="O109" s="197"/>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="164"/>
-      <c r="B110" s="165"/>
-      <c r="C110" s="165"/>
-      <c r="D110" s="165"/>
-      <c r="E110" s="165"/>
-      <c r="F110" s="165"/>
-      <c r="G110" s="166"/>
-      <c r="H110" s="164"/>
-      <c r="I110" s="165"/>
-      <c r="J110" s="165"/>
-      <c r="K110" s="165"/>
-      <c r="L110" s="165"/>
-      <c r="M110" s="165"/>
-      <c r="N110" s="165"/>
-      <c r="O110" s="166"/>
+      <c r="A110" s="198"/>
+      <c r="B110" s="199"/>
+      <c r="C110" s="199"/>
+      <c r="D110" s="199"/>
+      <c r="E110" s="199"/>
+      <c r="F110" s="199"/>
+      <c r="G110" s="200"/>
+      <c r="H110" s="198"/>
+      <c r="I110" s="199"/>
+      <c r="J110" s="199"/>
+      <c r="K110" s="199"/>
+      <c r="L110" s="199"/>
+      <c r="M110" s="199"/>
+      <c r="N110" s="199"/>
+      <c r="O110" s="200"/>
     </row>
     <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="164"/>
-      <c r="B111" s="165"/>
-      <c r="C111" s="165"/>
-      <c r="D111" s="165"/>
-      <c r="E111" s="165"/>
-      <c r="F111" s="165"/>
-      <c r="G111" s="166"/>
-      <c r="H111" s="164"/>
-      <c r="I111" s="165"/>
-      <c r="J111" s="165"/>
-      <c r="K111" s="165"/>
-      <c r="L111" s="165"/>
-      <c r="M111" s="165"/>
-      <c r="N111" s="165"/>
-      <c r="O111" s="166"/>
+      <c r="A111" s="198"/>
+      <c r="B111" s="199"/>
+      <c r="C111" s="199"/>
+      <c r="D111" s="199"/>
+      <c r="E111" s="199"/>
+      <c r="F111" s="199"/>
+      <c r="G111" s="200"/>
+      <c r="H111" s="198"/>
+      <c r="I111" s="199"/>
+      <c r="J111" s="199"/>
+      <c r="K111" s="199"/>
+      <c r="L111" s="199"/>
+      <c r="M111" s="199"/>
+      <c r="N111" s="199"/>
+      <c r="O111" s="200"/>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="164"/>
-      <c r="B112" s="165"/>
-      <c r="C112" s="165"/>
-      <c r="D112" s="165"/>
-      <c r="E112" s="165"/>
-      <c r="F112" s="165"/>
-      <c r="G112" s="166"/>
-      <c r="H112" s="164"/>
-      <c r="I112" s="165"/>
-      <c r="J112" s="165"/>
-      <c r="K112" s="165"/>
-      <c r="L112" s="165"/>
-      <c r="M112" s="165"/>
-      <c r="N112" s="165"/>
-      <c r="O112" s="166"/>
+      <c r="A112" s="198"/>
+      <c r="B112" s="199"/>
+      <c r="C112" s="199"/>
+      <c r="D112" s="199"/>
+      <c r="E112" s="199"/>
+      <c r="F112" s="199"/>
+      <c r="G112" s="200"/>
+      <c r="H112" s="198"/>
+      <c r="I112" s="199"/>
+      <c r="J112" s="199"/>
+      <c r="K112" s="199"/>
+      <c r="L112" s="199"/>
+      <c r="M112" s="199"/>
+      <c r="N112" s="199"/>
+      <c r="O112" s="200"/>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="164"/>
-      <c r="B113" s="165"/>
-      <c r="C113" s="165"/>
-      <c r="D113" s="165"/>
-      <c r="E113" s="165"/>
-      <c r="F113" s="165"/>
-      <c r="G113" s="166"/>
-      <c r="H113" s="164"/>
-      <c r="I113" s="165"/>
-      <c r="J113" s="165"/>
-      <c r="K113" s="165"/>
-      <c r="L113" s="165"/>
-      <c r="M113" s="165"/>
-      <c r="N113" s="165"/>
-      <c r="O113" s="166"/>
+      <c r="A113" s="198"/>
+      <c r="B113" s="199"/>
+      <c r="C113" s="199"/>
+      <c r="D113" s="199"/>
+      <c r="E113" s="199"/>
+      <c r="F113" s="199"/>
+      <c r="G113" s="200"/>
+      <c r="H113" s="198"/>
+      <c r="I113" s="199"/>
+      <c r="J113" s="199"/>
+      <c r="K113" s="199"/>
+      <c r="L113" s="199"/>
+      <c r="M113" s="199"/>
+      <c r="N113" s="199"/>
+      <c r="O113" s="200"/>
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="164"/>
-      <c r="B114" s="165"/>
-      <c r="C114" s="165"/>
-      <c r="D114" s="165"/>
-      <c r="E114" s="165"/>
-      <c r="F114" s="165"/>
-      <c r="G114" s="166"/>
-      <c r="H114" s="164"/>
-      <c r="I114" s="165"/>
-      <c r="J114" s="165"/>
-      <c r="K114" s="165"/>
-      <c r="L114" s="165"/>
-      <c r="M114" s="165"/>
-      <c r="N114" s="165"/>
-      <c r="O114" s="166"/>
+      <c r="A114" s="198"/>
+      <c r="B114" s="199"/>
+      <c r="C114" s="199"/>
+      <c r="D114" s="199"/>
+      <c r="E114" s="199"/>
+      <c r="F114" s="199"/>
+      <c r="G114" s="200"/>
+      <c r="H114" s="198"/>
+      <c r="I114" s="199"/>
+      <c r="J114" s="199"/>
+      <c r="K114" s="199"/>
+      <c r="L114" s="199"/>
+      <c r="M114" s="199"/>
+      <c r="N114" s="199"/>
+      <c r="O114" s="200"/>
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="164"/>
-      <c r="B115" s="165"/>
-      <c r="C115" s="165"/>
-      <c r="D115" s="165"/>
-      <c r="E115" s="165"/>
-      <c r="F115" s="165"/>
-      <c r="G115" s="166"/>
-      <c r="H115" s="164"/>
-      <c r="I115" s="165"/>
-      <c r="J115" s="165"/>
-      <c r="K115" s="165"/>
-      <c r="L115" s="165"/>
-      <c r="M115" s="165"/>
-      <c r="N115" s="165"/>
-      <c r="O115" s="166"/>
+      <c r="A115" s="198"/>
+      <c r="B115" s="199"/>
+      <c r="C115" s="199"/>
+      <c r="D115" s="199"/>
+      <c r="E115" s="199"/>
+      <c r="F115" s="199"/>
+      <c r="G115" s="200"/>
+      <c r="H115" s="198"/>
+      <c r="I115" s="199"/>
+      <c r="J115" s="199"/>
+      <c r="K115" s="199"/>
+      <c r="L115" s="199"/>
+      <c r="M115" s="199"/>
+      <c r="N115" s="199"/>
+      <c r="O115" s="200"/>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="164"/>
-      <c r="B116" s="165"/>
-      <c r="C116" s="165"/>
-      <c r="D116" s="165"/>
-      <c r="E116" s="165"/>
-      <c r="F116" s="165"/>
-      <c r="G116" s="166"/>
-      <c r="H116" s="164"/>
-      <c r="I116" s="165"/>
-      <c r="J116" s="165"/>
-      <c r="K116" s="165"/>
-      <c r="L116" s="165"/>
-      <c r="M116" s="165"/>
-      <c r="N116" s="165"/>
-      <c r="O116" s="166"/>
+      <c r="A116" s="198"/>
+      <c r="B116" s="199"/>
+      <c r="C116" s="199"/>
+      <c r="D116" s="199"/>
+      <c r="E116" s="199"/>
+      <c r="F116" s="199"/>
+      <c r="G116" s="200"/>
+      <c r="H116" s="198"/>
+      <c r="I116" s="199"/>
+      <c r="J116" s="199"/>
+      <c r="K116" s="199"/>
+      <c r="L116" s="199"/>
+      <c r="M116" s="199"/>
+      <c r="N116" s="199"/>
+      <c r="O116" s="200"/>
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="164"/>
-      <c r="B117" s="165"/>
-      <c r="C117" s="165"/>
-      <c r="D117" s="165"/>
-      <c r="E117" s="165"/>
-      <c r="F117" s="165"/>
-      <c r="G117" s="166"/>
-      <c r="H117" s="164"/>
-      <c r="I117" s="165"/>
-      <c r="J117" s="165"/>
-      <c r="K117" s="165"/>
-      <c r="L117" s="165"/>
-      <c r="M117" s="165"/>
-      <c r="N117" s="165"/>
-      <c r="O117" s="166"/>
+      <c r="A117" s="198"/>
+      <c r="B117" s="199"/>
+      <c r="C117" s="199"/>
+      <c r="D117" s="199"/>
+      <c r="E117" s="199"/>
+      <c r="F117" s="199"/>
+      <c r="G117" s="200"/>
+      <c r="H117" s="198"/>
+      <c r="I117" s="199"/>
+      <c r="J117" s="199"/>
+      <c r="K117" s="199"/>
+      <c r="L117" s="199"/>
+      <c r="M117" s="199"/>
+      <c r="N117" s="199"/>
+      <c r="O117" s="200"/>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="164"/>
-      <c r="B118" s="165"/>
-      <c r="C118" s="165"/>
-      <c r="D118" s="165"/>
-      <c r="E118" s="165"/>
-      <c r="F118" s="165"/>
-      <c r="G118" s="166"/>
-      <c r="H118" s="164"/>
-      <c r="I118" s="165"/>
-      <c r="J118" s="165"/>
-      <c r="K118" s="165"/>
-      <c r="L118" s="165"/>
-      <c r="M118" s="165"/>
-      <c r="N118" s="165"/>
-      <c r="O118" s="166"/>
+      <c r="A118" s="198"/>
+      <c r="B118" s="199"/>
+      <c r="C118" s="199"/>
+      <c r="D118" s="199"/>
+      <c r="E118" s="199"/>
+      <c r="F118" s="199"/>
+      <c r="G118" s="200"/>
+      <c r="H118" s="198"/>
+      <c r="I118" s="199"/>
+      <c r="J118" s="199"/>
+      <c r="K118" s="199"/>
+      <c r="L118" s="199"/>
+      <c r="M118" s="199"/>
+      <c r="N118" s="199"/>
+      <c r="O118" s="200"/>
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="164"/>
-      <c r="B119" s="165"/>
-      <c r="C119" s="165"/>
-      <c r="D119" s="165"/>
-      <c r="E119" s="165"/>
-      <c r="F119" s="165"/>
-      <c r="G119" s="166"/>
-      <c r="H119" s="164"/>
-      <c r="I119" s="165"/>
-      <c r="J119" s="165"/>
-      <c r="K119" s="165"/>
-      <c r="L119" s="165"/>
-      <c r="M119" s="165"/>
-      <c r="N119" s="165"/>
-      <c r="O119" s="166"/>
+      <c r="A119" s="198"/>
+      <c r="B119" s="199"/>
+      <c r="C119" s="199"/>
+      <c r="D119" s="199"/>
+      <c r="E119" s="199"/>
+      <c r="F119" s="199"/>
+      <c r="G119" s="200"/>
+      <c r="H119" s="198"/>
+      <c r="I119" s="199"/>
+      <c r="J119" s="199"/>
+      <c r="K119" s="199"/>
+      <c r="L119" s="199"/>
+      <c r="M119" s="199"/>
+      <c r="N119" s="199"/>
+      <c r="O119" s="200"/>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="164"/>
-      <c r="B120" s="165"/>
-      <c r="C120" s="165"/>
-      <c r="D120" s="165"/>
-      <c r="E120" s="165"/>
-      <c r="F120" s="165"/>
-      <c r="G120" s="166"/>
-      <c r="H120" s="164"/>
-      <c r="I120" s="165"/>
-      <c r="J120" s="165"/>
-      <c r="K120" s="165"/>
-      <c r="L120" s="165"/>
-      <c r="M120" s="165"/>
-      <c r="N120" s="165"/>
-      <c r="O120" s="166"/>
+      <c r="A120" s="198"/>
+      <c r="B120" s="199"/>
+      <c r="C120" s="199"/>
+      <c r="D120" s="199"/>
+      <c r="E120" s="199"/>
+      <c r="F120" s="199"/>
+      <c r="G120" s="200"/>
+      <c r="H120" s="198"/>
+      <c r="I120" s="199"/>
+      <c r="J120" s="199"/>
+      <c r="K120" s="199"/>
+      <c r="L120" s="199"/>
+      <c r="M120" s="199"/>
+      <c r="N120" s="199"/>
+      <c r="O120" s="200"/>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="167"/>
-      <c r="B121" s="168"/>
-      <c r="C121" s="168"/>
-      <c r="D121" s="168"/>
-      <c r="E121" s="168"/>
-      <c r="F121" s="168"/>
-      <c r="G121" s="169"/>
-      <c r="H121" s="167"/>
-      <c r="I121" s="168"/>
-      <c r="J121" s="168"/>
-      <c r="K121" s="168"/>
-      <c r="L121" s="168"/>
-      <c r="M121" s="168"/>
-      <c r="N121" s="168"/>
-      <c r="O121" s="169"/>
+      <c r="A121" s="201"/>
+      <c r="B121" s="202"/>
+      <c r="C121" s="202"/>
+      <c r="D121" s="202"/>
+      <c r="E121" s="202"/>
+      <c r="F121" s="202"/>
+      <c r="G121" s="203"/>
+      <c r="H121" s="201"/>
+      <c r="I121" s="202"/>
+      <c r="J121" s="202"/>
+      <c r="K121" s="202"/>
+      <c r="L121" s="202"/>
+      <c r="M121" s="202"/>
+      <c r="N121" s="202"/>
+      <c r="O121" s="203"/>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="158" t="s">
+      <c r="A122" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="B122" s="159"/>
-      <c r="C122" s="159"/>
-      <c r="D122" s="159"/>
-      <c r="E122" s="159"/>
-      <c r="F122" s="159"/>
-      <c r="G122" s="160"/>
-      <c r="H122" s="158" t="s">
+      <c r="B122" s="193"/>
+      <c r="C122" s="193"/>
+      <c r="D122" s="193"/>
+      <c r="E122" s="193"/>
+      <c r="F122" s="193"/>
+      <c r="G122" s="194"/>
+      <c r="H122" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="I122" s="159"/>
-      <c r="J122" s="159"/>
-      <c r="K122" s="159"/>
-      <c r="L122" s="159"/>
-      <c r="M122" s="159"/>
-      <c r="N122" s="159"/>
-      <c r="O122" s="160"/>
+      <c r="I122" s="193"/>
+      <c r="J122" s="193"/>
+      <c r="K122" s="193"/>
+      <c r="L122" s="193"/>
+      <c r="M122" s="193"/>
+      <c r="N122" s="193"/>
+      <c r="O122" s="194"/>
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="149" t="s">
+      <c r="A123" s="221" t="s">
         <v>67</v>
       </c>
-      <c r="B123" s="150"/>
-      <c r="C123" s="150"/>
-      <c r="D123" s="150"/>
-      <c r="E123" s="150"/>
-      <c r="F123" s="150"/>
-      <c r="G123" s="151"/>
-      <c r="H123" s="149" t="s">
+      <c r="B123" s="222"/>
+      <c r="C123" s="222"/>
+      <c r="D123" s="222"/>
+      <c r="E123" s="222"/>
+      <c r="F123" s="222"/>
+      <c r="G123" s="223"/>
+      <c r="H123" s="221" t="s">
         <v>68</v>
       </c>
-      <c r="I123" s="150"/>
-      <c r="J123" s="150"/>
-      <c r="K123" s="150"/>
-      <c r="L123" s="150"/>
-      <c r="M123" s="150"/>
-      <c r="N123" s="150"/>
-      <c r="O123" s="151"/>
+      <c r="I123" s="222"/>
+      <c r="J123" s="222"/>
+      <c r="K123" s="222"/>
+      <c r="L123" s="222"/>
+      <c r="M123" s="222"/>
+      <c r="N123" s="222"/>
+      <c r="O123" s="223"/>
     </row>
     <row r="124" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="149"/>
-      <c r="B124" s="150"/>
-      <c r="C124" s="150"/>
-      <c r="D124" s="150"/>
-      <c r="E124" s="150"/>
-      <c r="F124" s="150"/>
-      <c r="G124" s="151"/>
-      <c r="H124" s="149"/>
-      <c r="I124" s="150"/>
-      <c r="J124" s="150"/>
-      <c r="K124" s="150"/>
-      <c r="L124" s="150"/>
-      <c r="M124" s="150"/>
-      <c r="N124" s="150"/>
-      <c r="O124" s="151"/>
+      <c r="A124" s="221"/>
+      <c r="B124" s="222"/>
+      <c r="C124" s="222"/>
+      <c r="D124" s="222"/>
+      <c r="E124" s="222"/>
+      <c r="F124" s="222"/>
+      <c r="G124" s="223"/>
+      <c r="H124" s="221"/>
+      <c r="I124" s="222"/>
+      <c r="J124" s="222"/>
+      <c r="K124" s="222"/>
+      <c r="L124" s="222"/>
+      <c r="M124" s="222"/>
+      <c r="N124" s="222"/>
+      <c r="O124" s="223"/>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="152" t="s">
+      <c r="A125" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="B125" s="153"/>
-      <c r="C125" s="153"/>
-      <c r="D125" s="153"/>
-      <c r="E125" s="153"/>
-      <c r="F125" s="153"/>
-      <c r="G125" s="154"/>
-      <c r="H125" s="152" t="s">
+      <c r="B125" s="225"/>
+      <c r="C125" s="225"/>
+      <c r="D125" s="225"/>
+      <c r="E125" s="225"/>
+      <c r="F125" s="225"/>
+      <c r="G125" s="226"/>
+      <c r="H125" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="I125" s="155"/>
-      <c r="J125" s="155"/>
-      <c r="K125" s="156"/>
-      <c r="L125" s="156"/>
-      <c r="M125" s="156"/>
-      <c r="N125" s="156"/>
-      <c r="O125" s="157"/>
+      <c r="I125" s="227"/>
+      <c r="J125" s="227"/>
+      <c r="K125" s="228"/>
+      <c r="L125" s="228"/>
+      <c r="M125" s="228"/>
+      <c r="N125" s="228"/>
+      <c r="O125" s="229"/>
     </row>
     <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="152"/>
-      <c r="B126" s="153"/>
-      <c r="C126" s="153"/>
-      <c r="D126" s="153"/>
-      <c r="E126" s="153"/>
-      <c r="F126" s="153"/>
-      <c r="G126" s="154"/>
-      <c r="H126" s="152"/>
-      <c r="I126" s="155"/>
-      <c r="J126" s="155"/>
-      <c r="K126" s="156"/>
-      <c r="L126" s="156"/>
-      <c r="M126" s="156"/>
-      <c r="N126" s="156"/>
-      <c r="O126" s="157"/>
+      <c r="A126" s="224"/>
+      <c r="B126" s="225"/>
+      <c r="C126" s="225"/>
+      <c r="D126" s="225"/>
+      <c r="E126" s="225"/>
+      <c r="F126" s="225"/>
+      <c r="G126" s="226"/>
+      <c r="H126" s="224"/>
+      <c r="I126" s="227"/>
+      <c r="J126" s="227"/>
+      <c r="K126" s="228"/>
+      <c r="L126" s="228"/>
+      <c r="M126" s="228"/>
+      <c r="N126" s="228"/>
+      <c r="O126" s="229"/>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B127" s="143"/>
-      <c r="C127" s="143"/>
-      <c r="D127" s="143"/>
-      <c r="E127" s="143"/>
-      <c r="F127" s="143"/>
-      <c r="G127" s="144"/>
-      <c r="H127" s="145" t="s">
+      <c r="B127" s="241"/>
+      <c r="C127" s="241"/>
+      <c r="D127" s="241"/>
+      <c r="E127" s="241"/>
+      <c r="F127" s="241"/>
+      <c r="G127" s="242"/>
+      <c r="H127" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="I127" s="146"/>
-      <c r="J127" s="147"/>
-      <c r="K127" s="147"/>
-      <c r="L127" s="147"/>
-      <c r="M127" s="147"/>
-      <c r="N127" s="147"/>
-      <c r="O127" s="148"/>
+      <c r="I127" s="244"/>
+      <c r="J127" s="245"/>
+      <c r="K127" s="245"/>
+      <c r="L127" s="245"/>
+      <c r="M127" s="245"/>
+      <c r="N127" s="245"/>
+      <c r="O127" s="246"/>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B128" s="143"/>
-      <c r="C128" s="143"/>
-      <c r="D128" s="143"/>
-      <c r="E128" s="143"/>
-      <c r="F128" s="143"/>
-      <c r="G128" s="144"/>
-      <c r="H128" s="145" t="s">
+      <c r="B128" s="241"/>
+      <c r="C128" s="241"/>
+      <c r="D128" s="241"/>
+      <c r="E128" s="241"/>
+      <c r="F128" s="241"/>
+      <c r="G128" s="242"/>
+      <c r="H128" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="I128" s="146"/>
-      <c r="J128" s="147"/>
-      <c r="K128" s="147"/>
-      <c r="L128" s="147"/>
-      <c r="M128" s="147"/>
-      <c r="N128" s="147"/>
-      <c r="O128" s="148"/>
+      <c r="I128" s="244"/>
+      <c r="J128" s="245"/>
+      <c r="K128" s="245"/>
+      <c r="L128" s="245"/>
+      <c r="M128" s="245"/>
+      <c r="N128" s="245"/>
+      <c r="O128" s="246"/>
     </row>
     <row r="129" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B129" s="137" t="s">
+      <c r="B129" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="C129" s="137"/>
-      <c r="D129" s="137"/>
-      <c r="E129" s="138" t="s">
+      <c r="C129" s="230"/>
+      <c r="D129" s="230"/>
+      <c r="E129" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="F129" s="138"/>
-      <c r="G129" s="139"/>
-      <c r="H129" s="140" t="s">
+      <c r="F129" s="231"/>
+      <c r="G129" s="232"/>
+      <c r="H129" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="I129" s="141"/>
-      <c r="J129" s="137" t="s">
+      <c r="I129" s="234"/>
+      <c r="J129" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="K129" s="137"/>
-      <c r="L129" s="137"/>
-      <c r="M129" s="137"/>
-      <c r="N129" s="137"/>
-      <c r="O129" s="142"/>
+      <c r="K129" s="230"/>
+      <c r="L129" s="230"/>
+      <c r="M129" s="230"/>
+      <c r="N129" s="230"/>
+      <c r="O129" s="235"/>
     </row>
     <row r="130" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="105" t="s">
+      <c r="A130" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="B130" s="106"/>
-      <c r="C130" s="106"/>
-      <c r="D130" s="106"/>
-      <c r="E130" s="106"/>
-      <c r="F130" s="106"/>
-      <c r="G130" s="106"/>
-      <c r="H130" s="106"/>
-      <c r="I130" s="106"/>
-      <c r="J130" s="106"/>
-      <c r="K130" s="106"/>
-      <c r="L130" s="106"/>
-      <c r="M130" s="107"/>
-      <c r="N130" s="108"/>
-      <c r="O130" s="109"/>
+      <c r="B130" s="237"/>
+      <c r="C130" s="237"/>
+      <c r="D130" s="237"/>
+      <c r="E130" s="237"/>
+      <c r="F130" s="237"/>
+      <c r="G130" s="237"/>
+      <c r="H130" s="237"/>
+      <c r="I130" s="237"/>
+      <c r="J130" s="237"/>
+      <c r="K130" s="237"/>
+      <c r="L130" s="237"/>
+      <c r="M130" s="238"/>
+      <c r="N130" s="239"/>
+      <c r="O130" s="240"/>
     </row>
     <row r="131" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="105" t="s">
+      <c r="A131" s="236" t="s">
         <v>78</v>
       </c>
-      <c r="B131" s="106"/>
-      <c r="C131" s="106"/>
-      <c r="D131" s="106"/>
-      <c r="E131" s="106"/>
-      <c r="F131" s="106"/>
-      <c r="G131" s="106"/>
-      <c r="H131" s="106"/>
-      <c r="I131" s="106"/>
-      <c r="J131" s="106"/>
-      <c r="K131" s="106"/>
-      <c r="L131" s="106"/>
-      <c r="M131" s="107"/>
-      <c r="N131" s="108"/>
-      <c r="O131" s="109"/>
+      <c r="B131" s="237"/>
+      <c r="C131" s="237"/>
+      <c r="D131" s="237"/>
+      <c r="E131" s="237"/>
+      <c r="F131" s="237"/>
+      <c r="G131" s="237"/>
+      <c r="H131" s="237"/>
+      <c r="I131" s="237"/>
+      <c r="J131" s="237"/>
+      <c r="K131" s="237"/>
+      <c r="L131" s="237"/>
+      <c r="M131" s="238"/>
+      <c r="N131" s="239"/>
+      <c r="O131" s="240"/>
     </row>
     <row r="132" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="46"/>
       <c r="B132" s="47"/>
-      <c r="C132" s="119" t="s">
+      <c r="C132" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="D132" s="120"/>
-      <c r="E132" s="120"/>
-      <c r="F132" s="120"/>
-      <c r="G132" s="120"/>
-      <c r="H132" s="120"/>
-      <c r="I132" s="120"/>
-      <c r="J132" s="120"/>
-      <c r="K132" s="120"/>
-      <c r="L132" s="120"/>
-      <c r="M132" s="120"/>
-      <c r="N132" s="120"/>
-      <c r="O132" s="120"/>
-      <c r="P132" s="120"/>
-      <c r="Q132" s="121"/>
+      <c r="D132" s="254"/>
+      <c r="E132" s="254"/>
+      <c r="F132" s="254"/>
+      <c r="G132" s="254"/>
+      <c r="H132" s="254"/>
+      <c r="I132" s="254"/>
+      <c r="J132" s="254"/>
+      <c r="K132" s="254"/>
+      <c r="L132" s="254"/>
+      <c r="M132" s="254"/>
+      <c r="N132" s="254"/>
+      <c r="O132" s="254"/>
+      <c r="P132" s="254"/>
+      <c r="Q132" s="255"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="48"/>
       <c r="B133" s="49"/>
-      <c r="C133" s="122"/>
-      <c r="D133" s="123"/>
-      <c r="E133" s="123"/>
-      <c r="F133" s="123"/>
-      <c r="G133" s="123"/>
-      <c r="H133" s="123"/>
-      <c r="I133" s="123"/>
-      <c r="J133" s="123"/>
-      <c r="K133" s="123"/>
-      <c r="L133" s="123"/>
-      <c r="M133" s="123"/>
-      <c r="N133" s="123"/>
-      <c r="O133" s="123"/>
-      <c r="P133" s="123"/>
-      <c r="Q133" s="124"/>
+      <c r="C133" s="256"/>
+      <c r="D133" s="257"/>
+      <c r="E133" s="257"/>
+      <c r="F133" s="257"/>
+      <c r="G133" s="257"/>
+      <c r="H133" s="257"/>
+      <c r="I133" s="257"/>
+      <c r="J133" s="257"/>
+      <c r="K133" s="257"/>
+      <c r="L133" s="257"/>
+      <c r="M133" s="257"/>
+      <c r="N133" s="257"/>
+      <c r="O133" s="257"/>
+      <c r="P133" s="257"/>
+      <c r="Q133" s="258"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="48"/>
       <c r="B134" s="49"/>
-      <c r="C134" s="125" t="s">
+      <c r="C134" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D134" s="126"/>
-      <c r="E134" s="126"/>
-      <c r="F134" s="126"/>
-      <c r="G134" s="126"/>
-      <c r="H134" s="126"/>
-      <c r="I134" s="126"/>
-      <c r="J134" s="126"/>
-      <c r="K134" s="126"/>
-      <c r="L134" s="126"/>
-      <c r="M134" s="126"/>
-      <c r="N134" s="126"/>
-      <c r="O134" s="126"/>
-      <c r="P134" s="126"/>
-      <c r="Q134" s="127"/>
+      <c r="D134" s="117"/>
+      <c r="E134" s="117"/>
+      <c r="F134" s="117"/>
+      <c r="G134" s="117"/>
+      <c r="H134" s="117"/>
+      <c r="I134" s="117"/>
+      <c r="J134" s="117"/>
+      <c r="K134" s="117"/>
+      <c r="L134" s="117"/>
+      <c r="M134" s="117"/>
+      <c r="N134" s="117"/>
+      <c r="O134" s="117"/>
+      <c r="P134" s="117"/>
+      <c r="Q134" s="118"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="50"/>
       <c r="B135" s="51"/>
-      <c r="C135" s="128"/>
-      <c r="D135" s="129"/>
-      <c r="E135" s="129"/>
-      <c r="F135" s="129"/>
-      <c r="G135" s="129"/>
-      <c r="H135" s="129"/>
-      <c r="I135" s="129"/>
-      <c r="J135" s="129"/>
-      <c r="K135" s="129"/>
-      <c r="L135" s="129"/>
-      <c r="M135" s="129"/>
-      <c r="N135" s="129"/>
-      <c r="O135" s="129"/>
-      <c r="P135" s="129"/>
-      <c r="Q135" s="130"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="120"/>
+      <c r="E135" s="120"/>
+      <c r="F135" s="120"/>
+      <c r="G135" s="120"/>
+      <c r="H135" s="120"/>
+      <c r="I135" s="120"/>
+      <c r="J135" s="120"/>
+      <c r="K135" s="120"/>
+      <c r="L135" s="120"/>
+      <c r="M135" s="120"/>
+      <c r="N135" s="120"/>
+      <c r="O135" s="120"/>
+      <c r="P135" s="120"/>
+      <c r="Q135" s="121"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="131" t="s">
+      <c r="A136" s="272" t="s">
         <v>57</v>
       </c>
-      <c r="B136" s="132"/>
-      <c r="C136" s="133">
+      <c r="B136" s="273"/>
+      <c r="C136" s="261">
         <f>$G$18</f>
         <v>0</v>
       </c>
-      <c r="D136" s="133"/>
-      <c r="E136" s="133"/>
-      <c r="F136" s="133"/>
-      <c r="G136" s="133"/>
-      <c r="H136" s="133"/>
-      <c r="I136" s="133"/>
-      <c r="J136" s="134" t="s">
+      <c r="D136" s="261"/>
+      <c r="E136" s="261"/>
+      <c r="F136" s="261"/>
+      <c r="G136" s="261"/>
+      <c r="H136" s="261"/>
+      <c r="I136" s="261"/>
+      <c r="J136" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="K136" s="134"/>
-      <c r="L136" s="134"/>
-      <c r="M136" s="135"/>
-      <c r="N136" s="135"/>
-      <c r="O136" s="135"/>
-      <c r="P136" s="135"/>
-      <c r="Q136" s="136"/>
+      <c r="K136" s="262"/>
+      <c r="L136" s="262"/>
+      <c r="M136" s="263"/>
+      <c r="N136" s="263"/>
+      <c r="O136" s="263"/>
+      <c r="P136" s="263"/>
+      <c r="Q136" s="264"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="B137" s="111"/>
-      <c r="C137" s="112"/>
-      <c r="D137" s="112"/>
-      <c r="E137" s="112"/>
-      <c r="F137" s="112"/>
-      <c r="G137" s="112"/>
-      <c r="H137" s="112"/>
-      <c r="I137" s="112"/>
-      <c r="J137" s="113" t="s">
+      <c r="A137" s="276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="277"/>
+      <c r="C137" s="269"/>
+      <c r="D137" s="269"/>
+      <c r="E137" s="269"/>
+      <c r="F137" s="269"/>
+      <c r="G137" s="269"/>
+      <c r="H137" s="269"/>
+      <c r="I137" s="269"/>
+      <c r="J137" s="250" t="s">
         <v>59</v>
       </c>
-      <c r="K137" s="113"/>
-      <c r="L137" s="113"/>
-      <c r="M137" s="114"/>
-      <c r="N137" s="114"/>
-      <c r="O137" s="114"/>
-      <c r="P137" s="114"/>
-      <c r="Q137" s="115"/>
+      <c r="K137" s="250"/>
+      <c r="L137" s="250"/>
+      <c r="M137" s="270"/>
+      <c r="N137" s="270"/>
+      <c r="O137" s="270"/>
+      <c r="P137" s="270"/>
+      <c r="Q137" s="271"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="110" t="s">
+      <c r="A138" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="111"/>
-      <c r="C138" s="116">
+      <c r="B138" s="275"/>
+      <c r="C138" s="249">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="D138" s="116"/>
-      <c r="E138" s="116"/>
-      <c r="F138" s="116"/>
-      <c r="G138" s="116"/>
-      <c r="H138" s="116"/>
-      <c r="I138" s="116"/>
-      <c r="J138" s="113" t="s">
+      <c r="D138" s="249"/>
+      <c r="E138" s="249"/>
+      <c r="F138" s="249"/>
+      <c r="G138" s="249"/>
+      <c r="H138" s="249"/>
+      <c r="I138" s="249"/>
+      <c r="J138" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="K138" s="113"/>
-      <c r="L138" s="113"/>
-      <c r="M138" s="117">
+      <c r="K138" s="250"/>
+      <c r="L138" s="250"/>
+      <c r="M138" s="251">
         <f>K5</f>
         <v>0</v>
       </c>
-      <c r="N138" s="117"/>
-      <c r="O138" s="117"/>
-      <c r="P138" s="117"/>
-      <c r="Q138" s="118"/>
+      <c r="N138" s="251"/>
+      <c r="O138" s="251"/>
+      <c r="P138" s="251"/>
+      <c r="Q138" s="252"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" s="101" t="s">
+      <c r="A139" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="102"/>
-      <c r="C139" s="103">
+      <c r="B139" s="266"/>
+      <c r="C139" s="267">
         <f>K3</f>
         <v>0</v>
       </c>
-      <c r="D139" s="103"/>
-      <c r="E139" s="103"/>
-      <c r="F139" s="103"/>
-      <c r="G139" s="103"/>
-      <c r="H139" s="103"/>
-      <c r="I139" s="103"/>
-      <c r="J139" s="103"/>
-      <c r="K139" s="103"/>
-      <c r="L139" s="103"/>
-      <c r="M139" s="103"/>
-      <c r="N139" s="103"/>
-      <c r="O139" s="103"/>
-      <c r="P139" s="103"/>
-      <c r="Q139" s="104"/>
+      <c r="D139" s="267"/>
+      <c r="E139" s="267"/>
+      <c r="F139" s="267"/>
+      <c r="G139" s="267"/>
+      <c r="H139" s="267"/>
+      <c r="I139" s="267"/>
+      <c r="J139" s="267"/>
+      <c r="K139" s="267"/>
+      <c r="L139" s="267"/>
+      <c r="M139" s="267"/>
+      <c r="N139" s="267"/>
+      <c r="O139" s="267"/>
+      <c r="P139" s="267"/>
+      <c r="Q139" s="268"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="54"/>
@@ -8720,181 +8738,181 @@
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="46"/>
       <c r="B196" s="47"/>
-      <c r="C196" s="119" t="s">
+      <c r="C196" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="120"/>
-      <c r="E196" s="120"/>
-      <c r="F196" s="120"/>
-      <c r="G196" s="120"/>
-      <c r="H196" s="120"/>
-      <c r="I196" s="120"/>
-      <c r="J196" s="120"/>
-      <c r="K196" s="120"/>
-      <c r="L196" s="120"/>
-      <c r="M196" s="120"/>
-      <c r="N196" s="120"/>
-      <c r="O196" s="120"/>
-      <c r="P196" s="120"/>
-      <c r="Q196" s="121"/>
+      <c r="D196" s="254"/>
+      <c r="E196" s="254"/>
+      <c r="F196" s="254"/>
+      <c r="G196" s="254"/>
+      <c r="H196" s="254"/>
+      <c r="I196" s="254"/>
+      <c r="J196" s="254"/>
+      <c r="K196" s="254"/>
+      <c r="L196" s="254"/>
+      <c r="M196" s="254"/>
+      <c r="N196" s="254"/>
+      <c r="O196" s="254"/>
+      <c r="P196" s="254"/>
+      <c r="Q196" s="255"/>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="48"/>
       <c r="B197" s="49"/>
-      <c r="C197" s="122"/>
-      <c r="D197" s="123"/>
-      <c r="E197" s="123"/>
-      <c r="F197" s="123"/>
-      <c r="G197" s="123"/>
-      <c r="H197" s="123"/>
-      <c r="I197" s="123"/>
-      <c r="J197" s="123"/>
-      <c r="K197" s="123"/>
-      <c r="L197" s="123"/>
-      <c r="M197" s="123"/>
-      <c r="N197" s="123"/>
-      <c r="O197" s="123"/>
-      <c r="P197" s="123"/>
-      <c r="Q197" s="124"/>
+      <c r="C197" s="256"/>
+      <c r="D197" s="257"/>
+      <c r="E197" s="257"/>
+      <c r="F197" s="257"/>
+      <c r="G197" s="257"/>
+      <c r="H197" s="257"/>
+      <c r="I197" s="257"/>
+      <c r="J197" s="257"/>
+      <c r="K197" s="257"/>
+      <c r="L197" s="257"/>
+      <c r="M197" s="257"/>
+      <c r="N197" s="257"/>
+      <c r="O197" s="257"/>
+      <c r="P197" s="257"/>
+      <c r="Q197" s="258"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="48"/>
       <c r="B198" s="49"/>
-      <c r="C198" s="125" t="s">
+      <c r="C198" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D198" s="126"/>
-      <c r="E198" s="126"/>
-      <c r="F198" s="126"/>
-      <c r="G198" s="126"/>
-      <c r="H198" s="126"/>
-      <c r="I198" s="126"/>
-      <c r="J198" s="126"/>
-      <c r="K198" s="126"/>
-      <c r="L198" s="126"/>
-      <c r="M198" s="126"/>
-      <c r="N198" s="126"/>
-      <c r="O198" s="126"/>
-      <c r="P198" s="126"/>
-      <c r="Q198" s="127"/>
+      <c r="D198" s="117"/>
+      <c r="E198" s="117"/>
+      <c r="F198" s="117"/>
+      <c r="G198" s="117"/>
+      <c r="H198" s="117"/>
+      <c r="I198" s="117"/>
+      <c r="J198" s="117"/>
+      <c r="K198" s="117"/>
+      <c r="L198" s="117"/>
+      <c r="M198" s="117"/>
+      <c r="N198" s="117"/>
+      <c r="O198" s="117"/>
+      <c r="P198" s="117"/>
+      <c r="Q198" s="118"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="50"/>
       <c r="B199" s="51"/>
-      <c r="C199" s="128"/>
-      <c r="D199" s="129"/>
-      <c r="E199" s="129"/>
-      <c r="F199" s="129"/>
-      <c r="G199" s="129"/>
-      <c r="H199" s="129"/>
-      <c r="I199" s="129"/>
-      <c r="J199" s="129"/>
-      <c r="K199" s="129"/>
-      <c r="L199" s="129"/>
-      <c r="M199" s="129"/>
-      <c r="N199" s="129"/>
-      <c r="O199" s="129"/>
-      <c r="P199" s="129"/>
-      <c r="Q199" s="130"/>
+      <c r="C199" s="119"/>
+      <c r="D199" s="120"/>
+      <c r="E199" s="120"/>
+      <c r="F199" s="120"/>
+      <c r="G199" s="120"/>
+      <c r="H199" s="120"/>
+      <c r="I199" s="120"/>
+      <c r="J199" s="120"/>
+      <c r="K199" s="120"/>
+      <c r="L199" s="120"/>
+      <c r="M199" s="120"/>
+      <c r="N199" s="120"/>
+      <c r="O199" s="120"/>
+      <c r="P199" s="120"/>
+      <c r="Q199" s="121"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A200" s="131" t="s">
+      <c r="A200" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="B200" s="132"/>
-      <c r="C200" s="133"/>
-      <c r="D200" s="133"/>
-      <c r="E200" s="133"/>
-      <c r="F200" s="133"/>
-      <c r="G200" s="133"/>
-      <c r="H200" s="133"/>
-      <c r="I200" s="133"/>
-      <c r="J200" s="134" t="s">
+      <c r="B200" s="260"/>
+      <c r="C200" s="261"/>
+      <c r="D200" s="261"/>
+      <c r="E200" s="261"/>
+      <c r="F200" s="261"/>
+      <c r="G200" s="261"/>
+      <c r="H200" s="261"/>
+      <c r="I200" s="261"/>
+      <c r="J200" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="K200" s="134"/>
-      <c r="L200" s="134"/>
-      <c r="M200" s="135"/>
-      <c r="N200" s="135"/>
-      <c r="O200" s="135"/>
-      <c r="P200" s="135"/>
-      <c r="Q200" s="136"/>
+      <c r="K200" s="262"/>
+      <c r="L200" s="262"/>
+      <c r="M200" s="263"/>
+      <c r="N200" s="263"/>
+      <c r="O200" s="263"/>
+      <c r="P200" s="263"/>
+      <c r="Q200" s="264"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A201" s="110" t="s">
+      <c r="A201" s="247" t="s">
         <v>80</v>
       </c>
-      <c r="B201" s="111"/>
-      <c r="C201" s="112"/>
-      <c r="D201" s="112"/>
-      <c r="E201" s="112"/>
-      <c r="F201" s="112"/>
-      <c r="G201" s="112"/>
-      <c r="H201" s="112"/>
-      <c r="I201" s="112"/>
-      <c r="J201" s="113" t="s">
+      <c r="B201" s="248"/>
+      <c r="C201" s="269"/>
+      <c r="D201" s="269"/>
+      <c r="E201" s="269"/>
+      <c r="F201" s="269"/>
+      <c r="G201" s="269"/>
+      <c r="H201" s="269"/>
+      <c r="I201" s="269"/>
+      <c r="J201" s="250" t="s">
         <v>59</v>
       </c>
-      <c r="K201" s="113"/>
-      <c r="L201" s="113"/>
-      <c r="M201" s="114"/>
-      <c r="N201" s="114"/>
-      <c r="O201" s="114"/>
-      <c r="P201" s="114"/>
-      <c r="Q201" s="115"/>
+      <c r="K201" s="250"/>
+      <c r="L201" s="250"/>
+      <c r="M201" s="270"/>
+      <c r="N201" s="270"/>
+      <c r="O201" s="270"/>
+      <c r="P201" s="270"/>
+      <c r="Q201" s="271"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A202" s="110" t="s">
+      <c r="A202" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="B202" s="111"/>
-      <c r="C202" s="116">
+      <c r="B202" s="248"/>
+      <c r="C202" s="249">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="D202" s="116"/>
-      <c r="E202" s="116"/>
-      <c r="F202" s="116"/>
-      <c r="G202" s="116"/>
-      <c r="H202" s="116"/>
-      <c r="I202" s="116"/>
-      <c r="J202" s="113" t="s">
+      <c r="D202" s="249"/>
+      <c r="E202" s="249"/>
+      <c r="F202" s="249"/>
+      <c r="G202" s="249"/>
+      <c r="H202" s="249"/>
+      <c r="I202" s="249"/>
+      <c r="J202" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="K202" s="113"/>
-      <c r="L202" s="113"/>
-      <c r="M202" s="117">
+      <c r="K202" s="250"/>
+      <c r="L202" s="250"/>
+      <c r="M202" s="251">
         <f>K5</f>
         <v>0</v>
       </c>
-      <c r="N202" s="117"/>
-      <c r="O202" s="117"/>
-      <c r="P202" s="117"/>
-      <c r="Q202" s="118"/>
+      <c r="N202" s="251"/>
+      <c r="O202" s="251"/>
+      <c r="P202" s="251"/>
+      <c r="Q202" s="252"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A203" s="101" t="s">
+      <c r="A203" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="102"/>
-      <c r="C203" s="103">
+      <c r="B203" s="266"/>
+      <c r="C203" s="267">
         <f>K3</f>
         <v>0</v>
       </c>
-      <c r="D203" s="103"/>
-      <c r="E203" s="103"/>
-      <c r="F203" s="103"/>
-      <c r="G203" s="103"/>
-      <c r="H203" s="103"/>
-      <c r="I203" s="103"/>
-      <c r="J203" s="103"/>
-      <c r="K203" s="103"/>
-      <c r="L203" s="103"/>
-      <c r="M203" s="103"/>
-      <c r="N203" s="103"/>
-      <c r="O203" s="103"/>
-      <c r="P203" s="103"/>
-      <c r="Q203" s="104"/>
+      <c r="D203" s="267"/>
+      <c r="E203" s="267"/>
+      <c r="F203" s="267"/>
+      <c r="G203" s="267"/>
+      <c r="H203" s="267"/>
+      <c r="I203" s="267"/>
+      <c r="J203" s="267"/>
+      <c r="K203" s="267"/>
+      <c r="L203" s="267"/>
+      <c r="M203" s="267"/>
+      <c r="N203" s="267"/>
+      <c r="O203" s="267"/>
+      <c r="P203" s="267"/>
+      <c r="Q203" s="268"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="54"/>
@@ -9928,125 +9946,6 @@
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="A23:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D29"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A43:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D49"/>
-    <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:O53"/>
-    <mergeCell ref="A31:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:O63"/>
-    <mergeCell ref="B64:O64"/>
-    <mergeCell ref="C65:O66"/>
-    <mergeCell ref="C67:O67"/>
-    <mergeCell ref="C68:O69"/>
-    <mergeCell ref="A54:B57"/>
-    <mergeCell ref="C54:O57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:O59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:O61"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:O73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:O74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:O71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:O72"/>
-    <mergeCell ref="A93:O93"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="H94:O94"/>
-    <mergeCell ref="A95:G106"/>
-    <mergeCell ref="H95:O106"/>
-    <mergeCell ref="A107:O107"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A79:O79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="A81:G92"/>
-    <mergeCell ref="H81:O92"/>
-    <mergeCell ref="A123:G124"/>
-    <mergeCell ref="H123:O124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:G126"/>
-    <mergeCell ref="H125:J126"/>
-    <mergeCell ref="K125:O126"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="H108:O108"/>
-    <mergeCell ref="A109:G121"/>
-    <mergeCell ref="H109:O121"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="H122:O122"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:O129"/>
-    <mergeCell ref="A131:M131"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:O127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="J128:O128"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:I138"/>
-    <mergeCell ref="J138:L138"/>
-    <mergeCell ref="M138:Q138"/>
-    <mergeCell ref="C132:Q133"/>
-    <mergeCell ref="C134:Q135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:I136"/>
-    <mergeCell ref="J136:L136"/>
-    <mergeCell ref="M136:Q136"/>
     <mergeCell ref="A203:B203"/>
     <mergeCell ref="C203:Q203"/>
     <mergeCell ref="A130:M130"/>
@@ -10071,6 +9970,125 @@
     <mergeCell ref="C137:I137"/>
     <mergeCell ref="J137:L137"/>
     <mergeCell ref="M137:Q137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:I138"/>
+    <mergeCell ref="J138:L138"/>
+    <mergeCell ref="M138:Q138"/>
+    <mergeCell ref="C132:Q133"/>
+    <mergeCell ref="C134:Q135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:I136"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="M136:Q136"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:O129"/>
+    <mergeCell ref="A131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:O127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J128:O128"/>
+    <mergeCell ref="A123:G124"/>
+    <mergeCell ref="H123:O124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:G126"/>
+    <mergeCell ref="H125:J126"/>
+    <mergeCell ref="K125:O126"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="H108:O108"/>
+    <mergeCell ref="A109:G121"/>
+    <mergeCell ref="H109:O121"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="H122:O122"/>
+    <mergeCell ref="A93:O93"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="H94:O94"/>
+    <mergeCell ref="A95:G106"/>
+    <mergeCell ref="H95:O106"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A79:O79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="A81:G92"/>
+    <mergeCell ref="H81:O92"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:O74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:O63"/>
+    <mergeCell ref="B64:O64"/>
+    <mergeCell ref="C65:O66"/>
+    <mergeCell ref="C67:O67"/>
+    <mergeCell ref="C68:O69"/>
+    <mergeCell ref="A54:B57"/>
+    <mergeCell ref="C54:O57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:O59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:O61"/>
+    <mergeCell ref="A43:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D49"/>
+    <mergeCell ref="A50:O50"/>
+    <mergeCell ref="A52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:O53"/>
+    <mergeCell ref="A31:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="A23:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D29"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="A1:B5"/>
+    <mergeCell ref="C1:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:O10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -10281,18 +10299,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10315,6 +10333,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12F65BC-A18D-4574-83DA-6AE092DB43C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13F3D0F-B9A2-4C7B-8A21-2E04B543F8EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -10329,12 +10355,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12F65BC-A18D-4574-83DA-6AE092DB43C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>